--- a/Cleaning_data/ManuallyCleanedData.xlsx
+++ b/Cleaning_data/ManuallyCleanedData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samy/Desktop/S3/Data-Science-Project/Cleaning_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994259E1-4B3C-5F4F-8DD5-F80323AB2CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A48C6EE-69C5-AC49-A252-685890DC550A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{CD9CC8B6-7F43-9E44-8EF2-1878F1CC02BE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{CD9CC8B6-7F43-9E44-8EF2-1878F1CC02BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5694,9 +5694,6 @@
     <t>parallel to hoizontal members_x001D_</t>
   </si>
   <si>
-    <t>parallel to all edges_x001D_paarellel to right member</t>
-  </si>
-  <si>
     <t>paarellel to right member_x001D_</t>
   </si>
   <si>
@@ -5715,9 +5712,6 @@
     <t>corner circle (quadrant) cracks (stress at corners)_x001D_parallel to all edges</t>
   </si>
   <si>
-    <t>parallel to left member_x001D_parallel to bottom member</t>
-  </si>
-  <si>
     <t>parallel to right member_x001D_</t>
   </si>
   <si>
@@ -5739,9 +5733,6 @@
     <t>parallel to cross bars_x001D_vertical cross bar</t>
   </si>
   <si>
-    <t>parallel to bottom member_x001D_parallel to cross bars</t>
-  </si>
-  <si>
     <t>parallel to left member_x001D_local</t>
   </si>
   <si>
@@ -6520,6 +6511,15 @@
   </si>
   <si>
     <t>at the support layer, dark shadows visible_x001D_at the right edge</t>
+  </si>
+  <si>
+    <t>parallel to all edges;paarellel to right member</t>
+  </si>
+  <si>
+    <t>parallel to left member;parallel to bottom member</t>
+  </si>
+  <si>
+    <t>parallel to bottom member;parallel to cross bars</t>
   </si>
 </sst>
 </file>
@@ -6923,8 +6923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41110769-F909-4249-923C-C513B87E37AD}">
   <dimension ref="A1:FE209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="FC1" workbookViewId="0">
-      <selection activeCell="FD8" sqref="FD8"/>
+    <sheetView tabSelected="1" topLeftCell="FB1" workbookViewId="0">
+      <selection activeCell="FC1" sqref="FC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7444,13 +7444,13 @@
         <v>1855</v>
       </c>
       <c r="FC1" s="1" t="s">
-        <v>1884</v>
+        <v>1881</v>
       </c>
       <c r="FD1" s="1" t="s">
-        <v>2035</v>
+        <v>2032</v>
       </c>
       <c r="FE1" s="1" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="2" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -7746,13 +7746,13 @@
         <v>157</v>
       </c>
       <c r="FC2" s="2" t="s">
-        <v>1885</v>
+        <v>1882</v>
       </c>
       <c r="FD2" s="2" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
       <c r="FE2" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="3" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -8030,13 +8030,13 @@
         <v>1856</v>
       </c>
       <c r="FC3" s="2" t="s">
-        <v>1886</v>
+        <v>1883</v>
       </c>
       <c r="FD3" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE3" s="2" t="s">
-        <v>2114</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="4" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -8308,13 +8308,13 @@
         <v>157</v>
       </c>
       <c r="FC4" s="2" t="s">
-        <v>1887</v>
+        <v>1884</v>
       </c>
       <c r="FD4" s="2" t="s">
-        <v>2038</v>
+        <v>2035</v>
       </c>
       <c r="FE4" s="2" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="5" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -8622,13 +8622,13 @@
         <v>157</v>
       </c>
       <c r="FC5" s="2" t="s">
-        <v>1888</v>
+        <v>1885</v>
       </c>
       <c r="FD5" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE5" s="2" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="6" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -8891,10 +8891,10 @@
         <v>1857</v>
       </c>
       <c r="FC6" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD6" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE6" s="2" t="s">
         <v>391</v>
@@ -9165,13 +9165,13 @@
         <v>1858</v>
       </c>
       <c r="FC7" s="2" t="s">
-        <v>1890</v>
+        <v>1887</v>
       </c>
       <c r="FD7" s="2" t="s">
-        <v>2039</v>
+        <v>2036</v>
       </c>
       <c r="FE7" s="2" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="8" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -9450,13 +9450,13 @@
         <v>157</v>
       </c>
       <c r="FC8" s="2" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
       <c r="FD8" s="2" t="s">
-        <v>2040</v>
+        <v>2037</v>
       </c>
       <c r="FE8" s="2" t="s">
-        <v>2117</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="9" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -9737,13 +9737,13 @@
         <v>157</v>
       </c>
       <c r="FC9" s="2" t="s">
-        <v>1892</v>
+        <v>1889</v>
       </c>
       <c r="FD9" s="2" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
       <c r="FE9" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="10" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -10038,13 +10038,13 @@
         <v>1859</v>
       </c>
       <c r="FC10" s="2" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
       <c r="FD10" s="2" t="s">
-        <v>2042</v>
+        <v>2039</v>
       </c>
       <c r="FE10" s="2" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="11" spans="1:161" ht="51" x14ac:dyDescent="0.2">
@@ -10325,13 +10325,13 @@
         <v>1860</v>
       </c>
       <c r="FC11" s="2" t="s">
-        <v>1894</v>
+        <v>1891</v>
       </c>
       <c r="FD11" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE11" s="2" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="12" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -10464,13 +10464,13 @@
         <v>157</v>
       </c>
       <c r="FC12" s="2" t="s">
-        <v>2029</v>
+        <v>2026</v>
       </c>
       <c r="FD12" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE12" s="2" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="13" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -10760,13 +10760,13 @@
         <v>1860</v>
       </c>
       <c r="FC13" s="2" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
       <c r="FD13" s="2" t="s">
-        <v>2043</v>
+        <v>2040</v>
       </c>
       <c r="FE13" s="2" t="s">
-        <v>2119</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="14" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -11026,13 +11026,13 @@
         <v>157</v>
       </c>
       <c r="FC14" s="2" t="s">
-        <v>1896</v>
+        <v>1893</v>
       </c>
       <c r="FD14" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE14" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="15" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -11312,13 +11312,13 @@
         <v>157</v>
       </c>
       <c r="FC15" s="2" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
       <c r="FD15" s="2" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="FE15" s="2" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="16" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -11597,13 +11597,13 @@
         <v>157</v>
       </c>
       <c r="FC16" s="2" t="s">
-        <v>1898</v>
+        <v>1895</v>
       </c>
       <c r="FD16" s="2" t="s">
-        <v>2040</v>
+        <v>2037</v>
       </c>
       <c r="FE16" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="17" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -11869,13 +11869,13 @@
         <v>1860</v>
       </c>
       <c r="FC17" s="2" t="s">
-        <v>1899</v>
+        <v>1896</v>
       </c>
       <c r="FD17" s="2" t="s">
-        <v>2045</v>
+        <v>2042</v>
       </c>
       <c r="FE17" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="18" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -12135,13 +12135,13 @@
         <v>1860</v>
       </c>
       <c r="FC18" s="2" t="s">
-        <v>1900</v>
+        <v>1897</v>
       </c>
       <c r="FD18" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE18" s="2" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="19" spans="1:161" x14ac:dyDescent="0.2">
@@ -12270,7 +12270,7 @@
         <v>157</v>
       </c>
       <c r="FC19" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD19" s="2" t="s">
         <v>1443</v>
@@ -12520,13 +12520,13 @@
         <v>1856</v>
       </c>
       <c r="FC20" s="2" t="s">
-        <v>1901</v>
+        <v>1898</v>
       </c>
       <c r="FD20" s="2" t="s">
-        <v>2046</v>
+        <v>2043</v>
       </c>
       <c r="FE20" s="2" t="s">
-        <v>2121</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="21" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -12735,13 +12735,13 @@
         <v>157</v>
       </c>
       <c r="FC21" s="2" t="s">
-        <v>1902</v>
+        <v>1899</v>
       </c>
       <c r="FD21" s="2" t="s">
-        <v>2047</v>
+        <v>2044</v>
       </c>
       <c r="FE21" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="22" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -13008,10 +13008,10 @@
         <v>157</v>
       </c>
       <c r="FC22" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD22" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE22" s="2" t="s">
         <v>391</v>
@@ -13270,13 +13270,13 @@
         <v>157</v>
       </c>
       <c r="FC23" s="2" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="FD23" s="2" t="s">
-        <v>2048</v>
+        <v>2045</v>
       </c>
       <c r="FE23" s="2" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="24" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -13426,13 +13426,13 @@
         <v>157</v>
       </c>
       <c r="FC24" s="2" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="FD24" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE24" s="2" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="25" spans="1:161" x14ac:dyDescent="0.2">
@@ -13603,13 +13603,13 @@
         <v>157</v>
       </c>
       <c r="FC25" s="2" t="s">
-        <v>1904</v>
+        <v>1901</v>
       </c>
       <c r="FD25" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE25" s="2" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="26" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -13879,13 +13879,13 @@
         <v>1861</v>
       </c>
       <c r="FC26" s="2" t="s">
-        <v>1905</v>
+        <v>1902</v>
       </c>
       <c r="FD26" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE26" s="2" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="27" spans="1:161" x14ac:dyDescent="0.2">
@@ -14057,13 +14057,13 @@
         <v>157</v>
       </c>
       <c r="FC27" s="2" t="s">
-        <v>1906</v>
+        <v>1903</v>
       </c>
       <c r="FD27" s="2" t="s">
-        <v>2049</v>
+        <v>2046</v>
       </c>
       <c r="FE27" s="2" t="s">
-        <v>2122</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="28" spans="1:161" x14ac:dyDescent="0.2">
@@ -14339,13 +14339,13 @@
         <v>1856</v>
       </c>
       <c r="FC28" s="2" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="FD28" s="2" t="s">
-        <v>2050</v>
+        <v>2047</v>
       </c>
       <c r="FE28" s="2" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="29" spans="1:161" x14ac:dyDescent="0.2">
@@ -14617,13 +14617,13 @@
         <v>157</v>
       </c>
       <c r="FC29" s="2" t="s">
-        <v>1908</v>
+        <v>1905</v>
       </c>
       <c r="FD29" s="2" t="s">
-        <v>2038</v>
+        <v>2035</v>
       </c>
       <c r="FE29" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="30" spans="1:161" x14ac:dyDescent="0.2">
@@ -14880,13 +14880,13 @@
         <v>1862</v>
       </c>
       <c r="FC30" s="2" t="s">
-        <v>1909</v>
+        <v>1906</v>
       </c>
       <c r="FD30" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE30" s="2" t="s">
-        <v>2123</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="31" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -15152,13 +15152,13 @@
         <v>1862</v>
       </c>
       <c r="FC31" s="2" t="s">
-        <v>1910</v>
+        <v>1907</v>
       </c>
       <c r="FD31" s="2" t="s">
-        <v>2051</v>
+        <v>2048</v>
       </c>
       <c r="FE31" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="32" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -15322,10 +15322,10 @@
         <v>157</v>
       </c>
       <c r="FC32" s="2" t="s">
-        <v>1911</v>
+        <v>1908</v>
       </c>
       <c r="FD32" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE32" s="2" t="s">
         <v>391</v>
@@ -15561,13 +15561,13 @@
         <v>157</v>
       </c>
       <c r="FC33" s="2" t="s">
-        <v>1912</v>
+        <v>1909</v>
       </c>
       <c r="FD33" s="2" t="s">
-        <v>2045</v>
+        <v>2042</v>
       </c>
       <c r="FE33" s="2" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="34" spans="1:161" x14ac:dyDescent="0.2">
@@ -15794,13 +15794,13 @@
         <v>1856</v>
       </c>
       <c r="FC34" s="2" t="s">
-        <v>1913</v>
+        <v>1910</v>
       </c>
       <c r="FD34" s="2" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="FE34" s="2" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="35" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -15955,13 +15955,13 @@
         <v>157</v>
       </c>
       <c r="FC35" s="2" t="s">
-        <v>1914</v>
+        <v>1911</v>
       </c>
       <c r="FD35" s="2" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="FE35" s="2" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="36" spans="1:161" x14ac:dyDescent="0.2">
@@ -16221,13 +16221,13 @@
         <v>1863</v>
       </c>
       <c r="FC36" s="2" t="s">
-        <v>1915</v>
+        <v>1912</v>
       </c>
       <c r="FD36" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE36" s="2" t="s">
-        <v>2125</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="37" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -16477,13 +16477,13 @@
         <v>1863</v>
       </c>
       <c r="FC37" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD37" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE37" s="2" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="38" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -16737,13 +16737,13 @@
         <v>1864</v>
       </c>
       <c r="FC38" s="2" t="s">
-        <v>1916</v>
+        <v>1913</v>
       </c>
       <c r="FD38" s="2" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="FE38" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="39" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -16985,10 +16985,10 @@
         <v>1862</v>
       </c>
       <c r="FC39" s="2" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
       <c r="FD39" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE39" s="2" t="s">
         <v>391</v>
@@ -17256,13 +17256,13 @@
         <v>1856</v>
       </c>
       <c r="FC40" s="2" t="s">
-        <v>1918</v>
+        <v>1915</v>
       </c>
       <c r="FD40" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE40" s="2" t="s">
-        <v>2126</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="41" spans="1:161" x14ac:dyDescent="0.2">
@@ -17515,13 +17515,13 @@
         <v>1860</v>
       </c>
       <c r="FC41" s="2" t="s">
-        <v>1919</v>
+        <v>1916</v>
       </c>
       <c r="FD41" s="2" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="FE41" s="2" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="42" spans="1:161" x14ac:dyDescent="0.2">
@@ -17777,16 +17777,16 @@
         <v>1819</v>
       </c>
       <c r="FB42" s="2" t="s">
-        <v>1865</v>
+        <v>2138</v>
       </c>
       <c r="FC42" s="2" t="s">
-        <v>1920</v>
+        <v>1917</v>
       </c>
       <c r="FD42" s="2" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="FE42" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="43" spans="1:161" x14ac:dyDescent="0.2">
@@ -18038,10 +18038,10 @@
         <v>157</v>
       </c>
       <c r="FC43" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD43" s="2" t="s">
-        <v>2052</v>
+        <v>2049</v>
       </c>
       <c r="FE43" s="2" t="s">
         <v>391</v>
@@ -18217,13 +18217,13 @@
         <v>1860</v>
       </c>
       <c r="FC44" s="2" t="s">
-        <v>1921</v>
+        <v>1918</v>
       </c>
       <c r="FD44" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE44" s="2" t="s">
-        <v>2127</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="45" spans="1:161" x14ac:dyDescent="0.2">
@@ -18478,16 +18478,16 @@
         <v>1817</v>
       </c>
       <c r="FB45" s="2" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="FC45" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD45" s="2" t="s">
-        <v>2053</v>
+        <v>2050</v>
       </c>
       <c r="FE45" s="2" t="s">
-        <v>2126</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="46" spans="1:161" x14ac:dyDescent="0.2">
@@ -18622,10 +18622,10 @@
         <v>1860</v>
       </c>
       <c r="FC46" s="2" t="s">
-        <v>1922</v>
+        <v>1919</v>
       </c>
       <c r="FD46" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE46" s="2" t="s">
         <v>391</v>
@@ -18762,10 +18762,10 @@
         <v>157</v>
       </c>
       <c r="FC47" s="2" t="s">
-        <v>1919</v>
+        <v>1916</v>
       </c>
       <c r="FD47" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE47" s="2" t="s">
         <v>391</v>
@@ -19005,13 +19005,13 @@
         <v>1856</v>
       </c>
       <c r="FC48" s="2" t="s">
-        <v>1923</v>
+        <v>1920</v>
       </c>
       <c r="FD48" s="2" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="FE48" s="2" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="49" spans="1:161" x14ac:dyDescent="0.2">
@@ -19243,16 +19243,16 @@
         <v>129</v>
       </c>
       <c r="FB49" s="2" t="s">
-        <v>1883</v>
+        <v>1880</v>
       </c>
       <c r="FC49" s="2" t="s">
-        <v>1919</v>
+        <v>1916</v>
       </c>
       <c r="FD49" s="2" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="FE49" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="50" spans="1:161" x14ac:dyDescent="0.2">
@@ -19425,13 +19425,13 @@
         <v>157</v>
       </c>
       <c r="FC50" s="2" t="s">
-        <v>1924</v>
+        <v>1921</v>
       </c>
       <c r="FD50" s="2" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="FE50" s="2" t="s">
-        <v>2128</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="51" spans="1:161" x14ac:dyDescent="0.2">
@@ -19609,16 +19609,16 @@
         <v>1822</v>
       </c>
       <c r="FB51" s="2" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="FC51" s="2" t="s">
-        <v>1925</v>
+        <v>1922</v>
       </c>
       <c r="FD51" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE51" s="2" t="s">
-        <v>2129</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="52" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -19881,13 +19881,13 @@
         <v>157</v>
       </c>
       <c r="FC52" s="2" t="s">
-        <v>1926</v>
+        <v>1923</v>
       </c>
       <c r="FD52" s="2" t="s">
-        <v>2040</v>
+        <v>2037</v>
       </c>
       <c r="FE52" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="53" spans="1:161" x14ac:dyDescent="0.2">
@@ -20076,16 +20076,16 @@
         <v>1550</v>
       </c>
       <c r="FB53" s="2" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="FC53" s="2" t="s">
-        <v>1927</v>
+        <v>1924</v>
       </c>
       <c r="FD53" s="2" t="s">
-        <v>2054</v>
+        <v>2051</v>
       </c>
       <c r="FE53" s="2" t="s">
-        <v>2130</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="54" spans="1:161" x14ac:dyDescent="0.2">
@@ -20261,13 +20261,13 @@
         <v>157</v>
       </c>
       <c r="FC54" s="2" t="s">
-        <v>1928</v>
+        <v>1925</v>
       </c>
       <c r="FD54" s="2" t="s">
-        <v>2055</v>
+        <v>2052</v>
       </c>
       <c r="FE54" s="2" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="55" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -20543,13 +20543,13 @@
         <v>1864</v>
       </c>
       <c r="FC55" s="2" t="s">
-        <v>1929</v>
+        <v>1926</v>
       </c>
       <c r="FD55" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE55" s="2" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="56" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -20821,13 +20821,13 @@
         <v>157</v>
       </c>
       <c r="FC56" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD56" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE56" s="2" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="57" spans="1:161" x14ac:dyDescent="0.2">
@@ -21004,13 +21004,13 @@
         <v>1862</v>
       </c>
       <c r="FC57" s="2" t="s">
-        <v>1930</v>
+        <v>1927</v>
       </c>
       <c r="FD57" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE57" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="58" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -21268,13 +21268,13 @@
         <v>1862</v>
       </c>
       <c r="FC58" s="2" t="s">
-        <v>1931</v>
+        <v>1928</v>
       </c>
       <c r="FD58" s="2" t="s">
-        <v>2045</v>
+        <v>2042</v>
       </c>
       <c r="FE58" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="59" spans="1:161" x14ac:dyDescent="0.2">
@@ -21460,13 +21460,13 @@
         <v>157</v>
       </c>
       <c r="FC59" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD59" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE59" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="60" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -21630,13 +21630,13 @@
         <v>157</v>
       </c>
       <c r="FC60" s="2" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="FD60" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE60" s="2" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="61" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -21808,13 +21808,13 @@
         <v>157</v>
       </c>
       <c r="FC61" s="2" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="FD61" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE61" s="2" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="62" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -21986,13 +21986,13 @@
         <v>157</v>
       </c>
       <c r="FC62" s="2" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="FD62" s="2" t="s">
-        <v>2040</v>
+        <v>2037</v>
       </c>
       <c r="FE62" s="2" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="63" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -22168,10 +22168,10 @@
         <v>157</v>
       </c>
       <c r="FC63" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD63" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE63" s="2" t="s">
         <v>391</v>
@@ -22354,10 +22354,10 @@
         <v>157</v>
       </c>
       <c r="FC64" s="2" t="s">
-        <v>1934</v>
+        <v>1931</v>
       </c>
       <c r="FD64" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE64" s="2" t="s">
         <v>391</v>
@@ -22600,10 +22600,10 @@
         <v>157</v>
       </c>
       <c r="FC65" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD65" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE65" s="2" t="s">
         <v>391</v>
@@ -22763,13 +22763,13 @@
         <v>157</v>
       </c>
       <c r="FC66" s="2" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
       <c r="FD66" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE66" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="67" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -22938,13 +22938,13 @@
         <v>157</v>
       </c>
       <c r="FC67" s="2" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
       <c r="FD67" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE67" s="2" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="68" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -23099,10 +23099,10 @@
         <v>157</v>
       </c>
       <c r="FC68" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD68" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE68" s="2" t="s">
         <v>391</v>
@@ -23374,13 +23374,13 @@
         <v>1860</v>
       </c>
       <c r="FC69" s="2" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="FD69" s="2" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="FE69" s="2" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="70" spans="1:161" x14ac:dyDescent="0.2">
@@ -23544,13 +23544,13 @@
         <v>157</v>
       </c>
       <c r="FC70" s="2" t="s">
-        <v>1937</v>
+        <v>1934</v>
       </c>
       <c r="FD70" s="2" t="s">
-        <v>2057</v>
+        <v>2054</v>
       </c>
       <c r="FE70" s="2" t="s">
-        <v>2131</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="71" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -23717,10 +23717,10 @@
         <v>157</v>
       </c>
       <c r="FC71" s="2" t="s">
-        <v>1938</v>
+        <v>1935</v>
       </c>
       <c r="FD71" s="2" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="FE71" s="2" t="s">
         <v>391</v>
@@ -23884,13 +23884,13 @@
         <v>1860</v>
       </c>
       <c r="FC72" s="2" t="s">
-        <v>1939</v>
+        <v>1936</v>
       </c>
       <c r="FD72" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE72" s="2" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="73" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -24075,13 +24075,13 @@
         <v>157</v>
       </c>
       <c r="FC73" s="2" t="s">
-        <v>1940</v>
+        <v>1937</v>
       </c>
       <c r="FD73" s="2" t="s">
-        <v>2058</v>
+        <v>2055</v>
       </c>
       <c r="FE73" s="2" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="74" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -24339,10 +24339,10 @@
         <v>157</v>
       </c>
       <c r="FC74" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD74" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE74" s="2" t="s">
         <v>391</v>
@@ -24507,13 +24507,13 @@
         <v>157</v>
       </c>
       <c r="FC75" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD75" s="2" t="s">
-        <v>2054</v>
+        <v>2051</v>
       </c>
       <c r="FE75" s="2" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="76" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -24804,10 +24804,10 @@
         <v>1856</v>
       </c>
       <c r="FC76" s="2" t="s">
-        <v>1941</v>
+        <v>1938</v>
       </c>
       <c r="FD76" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE76" s="2" t="s">
         <v>391</v>
@@ -24990,10 +24990,10 @@
         <v>157</v>
       </c>
       <c r="FC77" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD77" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE77" s="2" t="s">
         <v>391</v>
@@ -25192,13 +25192,13 @@
         <v>157</v>
       </c>
       <c r="FC78" s="2" t="s">
-        <v>1942</v>
+        <v>1939</v>
       </c>
       <c r="FD78" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE78" s="2" t="s">
-        <v>2132</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="79" spans="1:161" x14ac:dyDescent="0.2">
@@ -25450,16 +25450,16 @@
         <v>1809</v>
       </c>
       <c r="FB79" s="2" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="FC79" s="2" t="s">
-        <v>1943</v>
+        <v>1940</v>
       </c>
       <c r="FD79" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE79" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="80" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -25743,13 +25743,13 @@
         <v>1860</v>
       </c>
       <c r="FC80" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD80" s="2" t="s">
-        <v>2059</v>
+        <v>2056</v>
       </c>
       <c r="FE80" s="2" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="81" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -25912,13 +25912,13 @@
         <v>157</v>
       </c>
       <c r="FC81" s="2" t="s">
-        <v>1906</v>
+        <v>1903</v>
       </c>
       <c r="FD81" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE81" s="2" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="82" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -26152,13 +26152,13 @@
         <v>1856</v>
       </c>
       <c r="FC82" s="2" t="s">
-        <v>1944</v>
+        <v>1941</v>
       </c>
       <c r="FD82" s="2" t="s">
-        <v>2060</v>
+        <v>2057</v>
       </c>
       <c r="FE82" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="83" spans="1:161" x14ac:dyDescent="0.2">
@@ -26370,13 +26370,13 @@
         <v>157</v>
       </c>
       <c r="FC83" s="2" t="s">
-        <v>2027</v>
+        <v>2024</v>
       </c>
       <c r="FD83" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE83" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="84" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -26616,16 +26616,16 @@
         <v>1807</v>
       </c>
       <c r="FB84" s="2" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="FC84" s="2" t="s">
-        <v>1945</v>
+        <v>1942</v>
       </c>
       <c r="FD84" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE84" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="85" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -26865,16 +26865,16 @@
         <v>1807</v>
       </c>
       <c r="FB85" s="2" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="FC85" s="2" t="s">
-        <v>1946</v>
+        <v>1943</v>
       </c>
       <c r="FD85" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE85" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="86" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -27139,10 +27139,10 @@
         <v>157</v>
       </c>
       <c r="FC86" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD86" s="2" t="s">
-        <v>2061</v>
+        <v>2058</v>
       </c>
       <c r="FE86" s="2" t="s">
         <v>391</v>
@@ -27306,13 +27306,13 @@
         <v>157</v>
       </c>
       <c r="FC87" s="2" t="s">
-        <v>1928</v>
+        <v>1925</v>
       </c>
       <c r="FD87" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE87" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="88" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -27494,10 +27494,10 @@
         <v>157</v>
       </c>
       <c r="FC88" s="2" t="s">
-        <v>1904</v>
+        <v>1901</v>
       </c>
       <c r="FD88" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE88" s="2" t="s">
         <v>391</v>
@@ -27679,13 +27679,13 @@
         <v>157</v>
       </c>
       <c r="FC89" s="2" t="s">
-        <v>1947</v>
+        <v>1944</v>
       </c>
       <c r="FD89" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE89" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="90" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -27872,13 +27872,13 @@
         <v>157</v>
       </c>
       <c r="FC90" s="2" t="s">
-        <v>1948</v>
+        <v>1945</v>
       </c>
       <c r="FD90" s="2" t="s">
-        <v>2062</v>
+        <v>2059</v>
       </c>
       <c r="FE90" s="2" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="91" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -28114,13 +28114,13 @@
         <v>157</v>
       </c>
       <c r="FC91" s="2" t="s">
-        <v>1949</v>
+        <v>1946</v>
       </c>
       <c r="FD91" s="2" t="s">
-        <v>2063</v>
+        <v>2060</v>
       </c>
       <c r="FE91" s="2" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="92" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -28397,16 +28397,16 @@
         <v>1815</v>
       </c>
       <c r="FB92" s="2" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="FC92" s="2" t="s">
-        <v>1950</v>
+        <v>1947</v>
       </c>
       <c r="FD92" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE92" s="2" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="93" spans="1:161" x14ac:dyDescent="0.2">
@@ -28589,10 +28589,10 @@
         <v>157</v>
       </c>
       <c r="FC93" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD93" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE93" s="2" t="s">
         <v>391</v>
@@ -28867,13 +28867,13 @@
         <v>1860</v>
       </c>
       <c r="FC94" s="2" t="s">
-        <v>1951</v>
+        <v>1948</v>
       </c>
       <c r="FD94" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE94" s="2" t="s">
-        <v>2127</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="95" spans="1:161" x14ac:dyDescent="0.2">
@@ -29053,16 +29053,16 @@
         <v>1809</v>
       </c>
       <c r="FB95" s="2" t="s">
-        <v>1872</v>
+        <v>2139</v>
       </c>
       <c r="FC95" s="2" t="s">
-        <v>1952</v>
+        <v>1949</v>
       </c>
       <c r="FD95" s="2" t="s">
-        <v>2054</v>
+        <v>2051</v>
       </c>
       <c r="FE95" s="2" t="s">
-        <v>2121</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="96" spans="1:161" x14ac:dyDescent="0.2">
@@ -29234,13 +29234,13 @@
         <v>157</v>
       </c>
       <c r="FC96" s="2" t="s">
-        <v>1953</v>
+        <v>1950</v>
       </c>
       <c r="FD96" s="2" t="s">
-        <v>2064</v>
+        <v>2061</v>
       </c>
       <c r="FE96" s="2" t="s">
-        <v>2133</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="97" spans="1:161" x14ac:dyDescent="0.2">
@@ -29473,13 +29473,13 @@
         <v>157</v>
       </c>
       <c r="FC97" s="2" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="FD97" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE97" s="2" t="s">
-        <v>2134</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="98" spans="1:161" x14ac:dyDescent="0.2">
@@ -29700,10 +29700,10 @@
         <v>157</v>
       </c>
       <c r="FC98" s="2" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="FD98" s="2" t="s">
-        <v>2038</v>
+        <v>2035</v>
       </c>
       <c r="FE98" s="2" t="s">
         <v>391</v>
@@ -29974,13 +29974,13 @@
         <v>1860</v>
       </c>
       <c r="FC99" s="2" t="s">
-        <v>1956</v>
+        <v>1953</v>
       </c>
       <c r="FD99" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE99" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="100" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -30200,13 +30200,13 @@
         <v>1860</v>
       </c>
       <c r="FC100" s="2" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="FD100" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE100" s="2" t="s">
-        <v>2127</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="101" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -30476,13 +30476,13 @@
         <v>157</v>
       </c>
       <c r="FC101" s="2" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="FD101" s="2" t="s">
-        <v>2065</v>
+        <v>2062</v>
       </c>
       <c r="FE101" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="102" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -30728,16 +30728,16 @@
         <v>1809</v>
       </c>
       <c r="FB102" s="2" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="FC102" s="2" t="s">
-        <v>1949</v>
+        <v>1946</v>
       </c>
       <c r="FD102" s="2" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
       <c r="FE102" s="2" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="103" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -30978,13 +30978,13 @@
         <v>1860</v>
       </c>
       <c r="FC103" s="2" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
       <c r="FD103" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE103" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="104" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -31214,10 +31214,10 @@
         <v>157</v>
       </c>
       <c r="FC104" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD104" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE104" s="2" t="s">
         <v>391</v>
@@ -31480,13 +31480,13 @@
         <v>157</v>
       </c>
       <c r="FC105" s="2" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
       <c r="FD105" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE105" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="106" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -31721,13 +31721,13 @@
         <v>1860</v>
       </c>
       <c r="FC106" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD106" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE106" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="107" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -31996,13 +31996,13 @@
         <v>1857</v>
       </c>
       <c r="FC107" s="2" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="FD107" s="2" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
       <c r="FE107" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="108" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -32257,13 +32257,13 @@
         <v>157</v>
       </c>
       <c r="FC108" s="2" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="FD108" s="2" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
       <c r="FE108" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="109" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -32551,13 +32551,13 @@
         <v>1860</v>
       </c>
       <c r="FC109" s="2" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
       <c r="FD109" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE109" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="110" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -32851,13 +32851,13 @@
         <v>157</v>
       </c>
       <c r="FC110" s="2" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="FD110" s="2" t="s">
-        <v>2069</v>
+        <v>2066</v>
       </c>
       <c r="FE110" s="2" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="111" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -33093,13 +33093,13 @@
         <v>1862</v>
       </c>
       <c r="FC111" s="2" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="FD111" s="2" t="s">
-        <v>2070</v>
+        <v>2067</v>
       </c>
       <c r="FE111" s="2" t="s">
-        <v>2135</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="112" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -33328,10 +33328,10 @@
         <v>157</v>
       </c>
       <c r="FC112" s="2" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="FD112" s="2" t="s">
-        <v>2070</v>
+        <v>2067</v>
       </c>
       <c r="FE112" s="2" t="s">
         <v>391</v>
@@ -33580,13 +33580,13 @@
         <v>157</v>
       </c>
       <c r="FC113" s="2" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="FD113" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE113" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="114" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -33760,13 +33760,13 @@
         <v>157</v>
       </c>
       <c r="FC114" s="2" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="FD114" s="2" t="s">
-        <v>2071</v>
+        <v>2068</v>
       </c>
       <c r="FE114" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="115" spans="1:161" x14ac:dyDescent="0.2">
@@ -33952,13 +33952,13 @@
         <v>157</v>
       </c>
       <c r="FC115" s="2" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
       <c r="FD115" s="2" t="s">
-        <v>2072</v>
+        <v>2069</v>
       </c>
       <c r="FE115" s="2" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="116" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -34183,13 +34183,13 @@
         <v>1860</v>
       </c>
       <c r="FC116" s="2" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="FD116" s="2" t="s">
-        <v>2073</v>
+        <v>2070</v>
       </c>
       <c r="FE116" s="2" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="117" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -34446,13 +34446,13 @@
         <v>1857</v>
       </c>
       <c r="FC117" s="2" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="FD117" s="2" t="s">
-        <v>2074</v>
+        <v>2071</v>
       </c>
       <c r="FE117" s="2" t="s">
-        <v>2135</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="118" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -34693,16 +34693,16 @@
         <v>1817</v>
       </c>
       <c r="FB118" s="2" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="FC118" s="2" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="FD118" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE118" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="119" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -34942,16 +34942,16 @@
         <v>129</v>
       </c>
       <c r="FB119" s="2" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="FC119" s="2" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="FD119" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE119" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="120" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -35127,13 +35127,13 @@
         <v>157</v>
       </c>
       <c r="FC120" s="2" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="FD120" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE120" s="2" t="s">
-        <v>2137</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="121" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -35311,10 +35311,10 @@
         <v>157</v>
       </c>
       <c r="FC121" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD121" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE121" s="2" t="s">
         <v>391</v>
@@ -35487,10 +35487,10 @@
         <v>157</v>
       </c>
       <c r="FC122" s="2" t="s">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="FD122" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE122" s="2" t="s">
         <v>391</v>
@@ -35748,13 +35748,13 @@
         <v>1862</v>
       </c>
       <c r="FC123" s="2" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="FD123" s="2" t="s">
-        <v>2075</v>
+        <v>2072</v>
       </c>
       <c r="FE123" s="2" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="124" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -35933,13 +35933,13 @@
         <v>157</v>
       </c>
       <c r="FC124" s="2" t="s">
-        <v>1977</v>
+        <v>1974</v>
       </c>
       <c r="FD124" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE124" s="2" t="s">
-        <v>2138</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="125" spans="1:161" x14ac:dyDescent="0.2">
@@ -36050,10 +36050,10 @@
         <v>157</v>
       </c>
       <c r="FC125" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD125" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE125" s="2" t="s">
         <v>391</v>
@@ -36174,10 +36174,10 @@
         <v>157</v>
       </c>
       <c r="FC126" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD126" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE126" s="2" t="s">
         <v>391</v>
@@ -36354,10 +36354,10 @@
         <v>157</v>
       </c>
       <c r="FC127" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD127" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE127" s="2" t="s">
         <v>391</v>
@@ -36620,13 +36620,13 @@
         <v>157</v>
       </c>
       <c r="FC128" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD128" s="2" t="s">
-        <v>2076</v>
+        <v>2073</v>
       </c>
       <c r="FE128" s="2" t="s">
-        <v>2114</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="129" spans="1:161" x14ac:dyDescent="0.2">
@@ -36772,10 +36772,10 @@
         <v>157</v>
       </c>
       <c r="FC129" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD129" s="2" t="s">
-        <v>2077</v>
+        <v>2074</v>
       </c>
       <c r="FE129" s="2" t="s">
         <v>391</v>
@@ -36932,13 +36932,13 @@
         <v>157</v>
       </c>
       <c r="FC130" s="2" t="s">
-        <v>1979</v>
+        <v>1976</v>
       </c>
       <c r="FD130" s="2" t="s">
-        <v>2078</v>
+        <v>2075</v>
       </c>
       <c r="FE130" s="2" t="s">
-        <v>2137</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="131" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -37205,13 +37205,13 @@
         <v>157</v>
       </c>
       <c r="FC131" s="2" t="s">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="FD131" s="2" t="s">
-        <v>2038</v>
+        <v>2035</v>
       </c>
       <c r="FE131" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="132" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -37482,10 +37482,10 @@
         <v>157</v>
       </c>
       <c r="FC132" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD132" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE132" s="2" t="s">
         <v>391</v>
@@ -37678,13 +37678,13 @@
         <v>157</v>
       </c>
       <c r="FC133" s="2" t="s">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="FD133" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE133" s="2" t="s">
-        <v>2139</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="134" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -37876,13 +37876,13 @@
         <v>157</v>
       </c>
       <c r="FC134" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD134" s="2" t="s">
-        <v>2079</v>
+        <v>2076</v>
       </c>
       <c r="FE134" s="2" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="135" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -38042,13 +38042,13 @@
         <v>157</v>
       </c>
       <c r="FC135" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD135" s="2" t="s">
-        <v>2080</v>
+        <v>2077</v>
       </c>
       <c r="FE135" s="2" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="136" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -38198,13 +38198,13 @@
         <v>157</v>
       </c>
       <c r="FC136" s="2" t="s">
-        <v>1982</v>
+        <v>1979</v>
       </c>
       <c r="FD136" s="2" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
       <c r="FE136" s="2" t="s">
-        <v>2137</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="137" spans="1:161" x14ac:dyDescent="0.2">
@@ -38389,16 +38389,16 @@
         <v>1808</v>
       </c>
       <c r="FB137" s="2" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="FC137" s="2" t="s">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="FD137" s="2" t="s">
         <v>1443</v>
       </c>
       <c r="FE137" s="2" t="s">
-        <v>2137</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="138" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -38549,13 +38549,13 @@
         <v>157</v>
       </c>
       <c r="FC138" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD138" s="2" t="s">
-        <v>2082</v>
+        <v>2079</v>
       </c>
       <c r="FE138" s="2" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="139" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -38712,13 +38712,13 @@
         <v>157</v>
       </c>
       <c r="FC139" s="2" t="s">
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="FD139" s="2" t="s">
-        <v>2083</v>
+        <v>2080</v>
       </c>
       <c r="FE139" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="140" spans="1:161" x14ac:dyDescent="0.2">
@@ -38891,13 +38891,13 @@
         <v>157</v>
       </c>
       <c r="FC140" s="2" t="s">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="FD140" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE140" s="2" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="141" spans="1:161" x14ac:dyDescent="0.2">
@@ -39070,13 +39070,13 @@
         <v>1864</v>
       </c>
       <c r="FC141" s="2" t="s">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="FD141" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE141" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="142" spans="1:161" x14ac:dyDescent="0.2">
@@ -39207,13 +39207,13 @@
         <v>157</v>
       </c>
       <c r="FC142" s="2" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="FD142" s="2" t="s">
-        <v>2061</v>
+        <v>2058</v>
       </c>
       <c r="FE142" s="2" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="143" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -39398,13 +39398,13 @@
         <v>157</v>
       </c>
       <c r="FC143" s="2" t="s">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="FD143" s="2" t="s">
-        <v>2084</v>
+        <v>2081</v>
       </c>
       <c r="FE143" s="2" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="144" spans="1:161" x14ac:dyDescent="0.2">
@@ -39547,10 +39547,10 @@
         <v>157</v>
       </c>
       <c r="FC144" s="2" t="s">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="FD144" s="2" t="s">
-        <v>2085</v>
+        <v>2082</v>
       </c>
       <c r="FE144" s="2" t="s">
         <v>157</v>
@@ -39805,16 +39805,16 @@
         <v>1820</v>
       </c>
       <c r="FB145" s="2" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="FC145" s="2" t="s">
-        <v>1990</v>
+        <v>1987</v>
       </c>
       <c r="FD145" s="2" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="FE145" s="2" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="146" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -40086,13 +40086,13 @@
         <v>1860</v>
       </c>
       <c r="FC146" s="2" t="s">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="FD146" s="2" t="s">
-        <v>2086</v>
+        <v>2083</v>
       </c>
       <c r="FE146" s="2" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="147" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -40355,13 +40355,13 @@
         <v>157</v>
       </c>
       <c r="FC147" s="2" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="FD147" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE147" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="148" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -40608,13 +40608,13 @@
         <v>1856</v>
       </c>
       <c r="FC148" s="2" t="s">
-        <v>1992</v>
+        <v>1989</v>
       </c>
       <c r="FD148" s="2" t="s">
-        <v>2087</v>
+        <v>2084</v>
       </c>
       <c r="FE148" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="149" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -40751,13 +40751,13 @@
         <v>157</v>
       </c>
       <c r="FC149" s="2" t="s">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="FD149" s="2" t="s">
-        <v>2088</v>
+        <v>2085</v>
       </c>
       <c r="FE149" s="2" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="150" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -41024,13 +41024,13 @@
         <v>157</v>
       </c>
       <c r="FC150" s="2" t="s">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="FD150" s="2" t="s">
-        <v>2061</v>
+        <v>2058</v>
       </c>
       <c r="FE150" s="2" t="s">
-        <v>2121</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="151" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -41301,10 +41301,10 @@
         <v>157</v>
       </c>
       <c r="FC151" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD151" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE151" s="2" t="s">
         <v>391</v>
@@ -41574,10 +41574,10 @@
         <v>157</v>
       </c>
       <c r="FC152" s="2" t="s">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="FD152" s="2" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="FE152" s="2" t="s">
         <v>157</v>
@@ -41830,13 +41830,13 @@
         <v>157</v>
       </c>
       <c r="FC153" s="2" t="s">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="FD153" s="2" t="s">
-        <v>2090</v>
+        <v>2087</v>
       </c>
       <c r="FE153" s="2" t="s">
-        <v>2129</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="154" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -42075,16 +42075,16 @@
         <v>1807</v>
       </c>
       <c r="FB154" s="2" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="FC154" s="2" t="s">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="FD154" s="2" t="s">
-        <v>2091</v>
+        <v>2088</v>
       </c>
       <c r="FE154" s="2" t="s">
-        <v>2129</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="155" spans="1:161" x14ac:dyDescent="0.2">
@@ -42266,13 +42266,13 @@
         <v>1862</v>
       </c>
       <c r="FC155" s="2" t="s">
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="FD155" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE155" s="2" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="156" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -42525,13 +42525,13 @@
         <v>157</v>
       </c>
       <c r="FC156" s="2" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
       <c r="FD156" s="2" t="s">
-        <v>2092</v>
+        <v>2089</v>
       </c>
       <c r="FE156" s="2" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="157" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -42698,13 +42698,13 @@
         <v>1857</v>
       </c>
       <c r="FC157" s="2" t="s">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="FD157" s="2" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
       <c r="FE157" s="2" t="s">
-        <v>2137</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="158" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -42960,13 +42960,13 @@
         <v>1856</v>
       </c>
       <c r="FC158" s="2" t="s">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="FD158" s="2" t="s">
-        <v>2094</v>
+        <v>2091</v>
       </c>
       <c r="FE158" s="2" t="s">
-        <v>2121</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="159" spans="1:161" x14ac:dyDescent="0.2">
@@ -43122,13 +43122,13 @@
         <v>157</v>
       </c>
       <c r="FC159" s="2" t="s">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="FD159" s="2" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
       <c r="FE159" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="160" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -43379,16 +43379,16 @@
         <v>1807</v>
       </c>
       <c r="FB160" s="2" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="FC160" s="2" t="s">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="FD160" s="2" t="s">
-        <v>2080</v>
+        <v>2077</v>
       </c>
       <c r="FE160" s="2" t="s">
-        <v>2132</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="161" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -43528,13 +43528,13 @@
         <v>157</v>
       </c>
       <c r="FC161" s="2" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
       <c r="FD161" s="2" t="s">
-        <v>2095</v>
+        <v>2092</v>
       </c>
       <c r="FE161" s="2" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="162" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -43786,16 +43786,16 @@
         <v>1815</v>
       </c>
       <c r="FB162" s="2" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="FC162" s="2" t="s">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="FD162" s="2" t="s">
-        <v>2061</v>
+        <v>2058</v>
       </c>
       <c r="FE162" s="2" t="s">
-        <v>2127</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="163" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -43939,13 +43939,13 @@
         <v>157</v>
       </c>
       <c r="FC163" s="2" t="s">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="FD163" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE163" s="2" t="s">
-        <v>2135</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="164" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -44194,13 +44194,13 @@
         <v>157</v>
       </c>
       <c r="FC164" s="2" t="s">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="FD164" s="2" t="s">
-        <v>2096</v>
+        <v>2093</v>
       </c>
       <c r="FE164" s="2" t="s">
-        <v>2127</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="165" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -44427,13 +44427,13 @@
         <v>157</v>
       </c>
       <c r="FC165" s="2" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="FD165" s="2" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="FE165" s="2" t="s">
-        <v>2127</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="166" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -44587,13 +44587,13 @@
         <v>157</v>
       </c>
       <c r="FC166" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD166" s="2" t="s">
-        <v>2097</v>
+        <v>2094</v>
       </c>
       <c r="FE166" s="2" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="167" spans="1:161" x14ac:dyDescent="0.2">
@@ -44750,16 +44750,16 @@
         <v>1807</v>
       </c>
       <c r="FB167" s="2" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="FC167" s="2" t="s">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="FD167" s="2" t="s">
-        <v>2098</v>
+        <v>2095</v>
       </c>
       <c r="FE167" s="2" t="s">
-        <v>2121</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="168" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -44991,10 +44991,10 @@
         <v>157</v>
       </c>
       <c r="FC168" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD168" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE168" s="2" t="s">
         <v>391</v>
@@ -45250,13 +45250,13 @@
         <v>157</v>
       </c>
       <c r="FC169" s="2" t="s">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="FD169" s="2" t="s">
-        <v>2099</v>
+        <v>2096</v>
       </c>
       <c r="FE169" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="170" spans="1:161" x14ac:dyDescent="0.2">
@@ -45505,13 +45505,13 @@
         <v>157</v>
       </c>
       <c r="FC170" s="2" t="s">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="FD170" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE170" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="171" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -45648,13 +45648,13 @@
         <v>157</v>
       </c>
       <c r="FC171" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD171" s="2" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
       <c r="FE171" s="2" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="172" spans="1:161" x14ac:dyDescent="0.2">
@@ -45789,16 +45789,16 @@
         <v>1809</v>
       </c>
       <c r="FB172" s="2" t="s">
-        <v>1880</v>
+        <v>2140</v>
       </c>
       <c r="FC172" s="2" t="s">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="FD172" s="2" t="s">
-        <v>2061</v>
+        <v>2058</v>
       </c>
       <c r="FE172" s="2" t="s">
-        <v>2129</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="173" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -45946,13 +45946,13 @@
         <v>157</v>
       </c>
       <c r="FC173" s="2" t="s">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="FD173" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE173" s="2" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="174" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -46107,13 +46107,13 @@
         <v>157</v>
       </c>
       <c r="FC174" s="2" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="FD174" s="2" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
       <c r="FE174" s="2" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="175" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -46352,7 +46352,7 @@
         <v>157</v>
       </c>
       <c r="FC175" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD175" s="2" t="s">
         <v>1443</v>
@@ -46597,13 +46597,13 @@
         <v>157</v>
       </c>
       <c r="FC176" s="2" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="FD176" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE176" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="177" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -46751,13 +46751,13 @@
         <v>157</v>
       </c>
       <c r="FC177" s="2" t="s">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="FD177" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE177" s="2" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="178" spans="1:161" x14ac:dyDescent="0.2">
@@ -46912,13 +46912,13 @@
         <v>157</v>
       </c>
       <c r="FC178" s="2" t="s">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="FD178" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE178" s="2" t="s">
-        <v>2140</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="179" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -47076,13 +47076,13 @@
         <v>157</v>
       </c>
       <c r="FC179" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD179" s="2" t="s">
-        <v>2073</v>
+        <v>2070</v>
       </c>
       <c r="FE179" s="2" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="180" spans="1:161" x14ac:dyDescent="0.2">
@@ -47229,13 +47229,13 @@
         <v>157</v>
       </c>
       <c r="FC180" s="2" t="s">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="FD180" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE180" s="2" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="181" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -47382,13 +47382,13 @@
         <v>157</v>
       </c>
       <c r="FC181" s="2" t="s">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="FD181" s="2" t="s">
-        <v>2100</v>
+        <v>2097</v>
       </c>
       <c r="FE181" s="2" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="182" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -47531,13 +47531,13 @@
         <v>157</v>
       </c>
       <c r="FC182" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD182" s="2" t="s">
-        <v>2101</v>
+        <v>2098</v>
       </c>
       <c r="FE182" s="2" t="s">
-        <v>2126</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="183" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -47684,10 +47684,10 @@
         <v>157</v>
       </c>
       <c r="FC183" s="2" t="s">
-        <v>1953</v>
+        <v>1950</v>
       </c>
       <c r="FD183" s="2" t="s">
-        <v>2102</v>
+        <v>2099</v>
       </c>
       <c r="FE183" s="2" t="s">
         <v>157</v>
@@ -47848,13 +47848,13 @@
         <v>157</v>
       </c>
       <c r="FC184" s="2" t="s">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="FD184" s="2" t="s">
-        <v>2103</v>
+        <v>2100</v>
       </c>
       <c r="FE184" s="2" t="s">
-        <v>2129</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="185" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -47996,10 +47996,10 @@
         <v>157</v>
       </c>
       <c r="FC185" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD185" s="2" t="s">
-        <v>2104</v>
+        <v>2101</v>
       </c>
       <c r="FE185" s="2" t="s">
         <v>391</v>
@@ -48139,10 +48139,10 @@
         <v>157</v>
       </c>
       <c r="FC186" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD186" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE186" s="2" t="s">
         <v>391</v>
@@ -48286,10 +48286,10 @@
         <v>157</v>
       </c>
       <c r="FC187" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD187" s="2" t="s">
-        <v>2104</v>
+        <v>2101</v>
       </c>
       <c r="FE187" s="2" t="s">
         <v>391</v>
@@ -48457,13 +48457,13 @@
         <v>157</v>
       </c>
       <c r="FC188" s="2" t="s">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="FD188" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE188" s="2" t="s">
-        <v>2138</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="189" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -48718,13 +48718,13 @@
         <v>157</v>
       </c>
       <c r="FC189" s="2" t="s">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="FD189" s="2" t="s">
-        <v>2105</v>
+        <v>2102</v>
       </c>
       <c r="FE189" s="2" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="190" spans="1:161" x14ac:dyDescent="0.2">
@@ -48902,10 +48902,10 @@
         <v>1860</v>
       </c>
       <c r="FC190" s="2" t="s">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="FD190" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE190" s="2" t="s">
         <v>157</v>
@@ -49057,13 +49057,13 @@
         <v>157</v>
       </c>
       <c r="FC191" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD191" s="2" t="s">
-        <v>2073</v>
+        <v>2070</v>
       </c>
       <c r="FE191" s="2" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="192" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -49302,13 +49302,13 @@
         <v>157</v>
       </c>
       <c r="FC192" s="2" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="FD192" s="2" t="s">
-        <v>2106</v>
+        <v>2103</v>
       </c>
       <c r="FE192" s="2" t="s">
-        <v>2129</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="193" spans="1:161" x14ac:dyDescent="0.2">
@@ -49471,13 +49471,13 @@
         <v>157</v>
       </c>
       <c r="FC193" s="2" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="FD193" s="2" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
       <c r="FE193" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="194" spans="1:161" x14ac:dyDescent="0.2">
@@ -49717,13 +49717,13 @@
         <v>157</v>
       </c>
       <c r="FC194" s="2" t="s">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="FD194" s="2" t="s">
-        <v>2101</v>
+        <v>2098</v>
       </c>
       <c r="FE194" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="195" spans="1:161" x14ac:dyDescent="0.2">
@@ -49871,13 +49871,13 @@
         <v>157</v>
       </c>
       <c r="FC195" s="2" t="s">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="FD195" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE195" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="196" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -50026,13 +50026,13 @@
         <v>157</v>
       </c>
       <c r="FC196" s="2" t="s">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="FD196" s="2" t="s">
-        <v>2107</v>
+        <v>2104</v>
       </c>
       <c r="FE196" s="2" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="197" spans="1:161" x14ac:dyDescent="0.2">
@@ -50274,16 +50274,16 @@
         <v>129</v>
       </c>
       <c r="FB197" s="2" t="s">
-        <v>1881</v>
+        <v>1878</v>
       </c>
       <c r="FC197" s="2" t="s">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="FD197" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE197" s="2" t="s">
-        <v>2134</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="198" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -50539,16 +50539,16 @@
         <v>1809</v>
       </c>
       <c r="FB198" s="2" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="FC198" s="2" t="s">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="FD198" s="2" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="FE198" s="2" t="s">
-        <v>2135</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="199" spans="1:161" x14ac:dyDescent="0.2">
@@ -50701,10 +50701,10 @@
         <v>157</v>
       </c>
       <c r="FC199" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD199" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE199" s="2" t="s">
         <v>157</v>
@@ -50863,10 +50863,10 @@
         <v>157</v>
       </c>
       <c r="FC200" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD200" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE200" s="2" t="s">
         <v>391</v>
@@ -51102,16 +51102,16 @@
         <v>97</v>
       </c>
       <c r="FB201" s="2" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="FC201" s="2" t="s">
-        <v>1978</v>
+        <v>1975</v>
       </c>
       <c r="FD201" s="2" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
       <c r="FE201" s="2" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="202" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -51263,13 +51263,13 @@
         <v>157</v>
       </c>
       <c r="FC202" s="2" t="s">
-        <v>2026</v>
+        <v>2023</v>
       </c>
       <c r="FD202" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE202" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="203" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -51417,13 +51417,13 @@
         <v>157</v>
       </c>
       <c r="FC203" s="2" t="s">
-        <v>2030</v>
+        <v>2027</v>
       </c>
       <c r="FD203" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE203" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="204" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -51675,10 +51675,10 @@
         <v>157</v>
       </c>
       <c r="FC204" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD204" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE204" s="2" t="s">
         <v>391</v>
@@ -51934,16 +51934,16 @@
         <v>1809</v>
       </c>
       <c r="FB205" s="2" t="s">
-        <v>1882</v>
+        <v>1879</v>
       </c>
       <c r="FC205" s="2" t="s">
-        <v>2031</v>
+        <v>2028</v>
       </c>
       <c r="FD205" s="2" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="FE205" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="206" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -52185,13 +52185,13 @@
         <v>1860</v>
       </c>
       <c r="FC206" s="2" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="FD206" s="2" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="FE206" s="2" t="s">
-        <v>2121</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="207" spans="1:161" ht="17" x14ac:dyDescent="0.2">
@@ -52435,13 +52435,13 @@
         <v>157</v>
       </c>
       <c r="FC207" s="2" t="s">
-        <v>2033</v>
+        <v>2030</v>
       </c>
       <c r="FD207" s="2" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="FE207" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="208" spans="1:161" x14ac:dyDescent="0.2">
@@ -52687,10 +52687,10 @@
         <v>1862</v>
       </c>
       <c r="FC208" s="2" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="FD208" s="2" t="s">
-        <v>2111</v>
+        <v>2108</v>
       </c>
       <c r="FE208" s="2" t="s">
         <v>157</v>
@@ -52946,13 +52946,13 @@
         <v>1860</v>
       </c>
       <c r="FC209" s="2" t="s">
+        <v>2031</v>
+      </c>
+      <c r="FD209" s="2" t="s">
         <v>2034</v>
       </c>
-      <c r="FD209" s="2" t="s">
-        <v>2037</v>
-      </c>
       <c r="FE209" s="2" t="s">
-        <v>2129</v>
+        <v>2126</v>
       </c>
     </row>
   </sheetData>

--- a/Cleaning_data/ManuallyCleanedData.xlsx
+++ b/Cleaning_data/ManuallyCleanedData.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samy/Desktop/S3/Data-Science-Project/Cleaning_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03EE3B9-6B82-6048-BB99-0EC2A6C6F2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E747B8-0C59-7348-9E17-330D5C1D2202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{CD9CC8B6-7F43-9E44-8EF2-1878F1CC02BE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{CD9CC8B6-7F43-9E44-8EF2-1878F1CC02BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$FB$209</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$GZ$209</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11184" uniqueCount="2139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13436" uniqueCount="2233">
   <si>
     <t>accession no</t>
   </si>
@@ -6514,6 +6514,288 @@
   </si>
   <si>
     <t>Singapore</t>
+  </si>
+  <si>
+    <t>environmental history</t>
+  </si>
+  <si>
+    <t>_x001D__x001D__x001D__x001D__x001D__x001D__x001D_</t>
+  </si>
+  <si>
+    <t>manually regulated airconditioning for humman comfort_x001D_prior storage/ display coniditons in private museum_x001D__x001D__x001D__x001D__x001D__x001D_</t>
+  </si>
+  <si>
+    <t>manually regulated airconditioning for humman comfort_x001D_prior storage/ display coniditons in private museum_x001D_frame is a pine from us_x001D__x001D__x001D__x001D__x001D_</t>
+  </si>
+  <si>
+    <t>_x001D_manually regulated airconditioning for humman comfort_x001D_prior storage/ display coniditons in private museum_x001D__x001D__x001D__x001D__x001D_</t>
+  </si>
+  <si>
+    <t>prior storage/ display coniditons in private museum_x001D_manually regulated airconditioning for humman comfort_x001D__x001D__x001D__x001D__x001D__x001D_</t>
+  </si>
+  <si>
+    <t>work hours airconditioning at 22 degrees+2 degrees, 50% RH+5% RH, off overnight_x001D__x001D__x001D__x001D__x001D__x001D__x001D_</t>
+  </si>
+  <si>
+    <t>work hours airconditioning at 22 degrees+2 degrees, 50% RH+5% RH, off overnight_x001D_prior storage display conditions unknown_x001D__x001D__x001D__x001D__x001D__x001D_</t>
+  </si>
+  <si>
+    <t>manually regulated airconditionin for artworks_x001D_prior storage/ display coniditons in private museum_x001D__x001D__x001D__x001D__x001D__x001D_</t>
+  </si>
+  <si>
+    <t>manually regulated airconditioning for humman comfort_x001D_prior storage/ display coniditons in private museum_x001D_prior treatment in USA? framers label and inscription indicate_x001D__x001D__x001D__x001D__x001D_</t>
+  </si>
+  <si>
+    <t>prior storage/ display coniditons in private museum_x001D__x001D_displayed  at entrance: large variation of climate: no air conditioning: fans only_x001D__x001D__x001D__x001D__x001D_</t>
+  </si>
+  <si>
+    <t>manually regulated airconditioning for human comfort_x001D_prior storage/ display conditions unknown_x001D__x001D__x001D__x001D__x001D__x001D_</t>
+  </si>
+  <si>
+    <t>silica gel bag hanging from top and in contact with reverse of work. indicates treatment time frame as some knowledge of local buffering._x001D_manually regulated airconditioning for humman comfort_x001D_prior storage display conditions unknown_x001D__x001D__x001D__x001D__x001D_</t>
+  </si>
+  <si>
+    <t>manually regulated airconditioning for human comfort_x001D_prior storage display conditions unknown_x001D__x001D__x001D__x001D__x001D__x001D_</t>
+  </si>
+  <si>
+    <t>manually regulated airconditioning for human comfort_x001D__x001D__x001D__x001D__x001D__x001D__x001D_</t>
+  </si>
+  <si>
+    <t>manually regulated airconditioning for human comfort_x001D_prior storage display conditions unknown_x001D_gold paint &amp; red underlayer on frame_x001D__x001D__x001D__x001D__x001D_</t>
+  </si>
+  <si>
+    <t>work hours airconditioning at 22 degrees+2 degrees, 50% RH+5% RH, off overnight_x001D_prior storage display conditions unknown_x001D_fabric backing_x001D__x001D__x001D__x001D__x001D_</t>
+  </si>
+  <si>
+    <t>manually regulated airconditioning for humman comfort_x001D_prior storage display conditions unknown_x001D__x001D__x001D__x001D__x001D__x001D_</t>
+  </si>
+  <si>
+    <t>work hours airconditioning at 22 degrees+2 degrees, 50% RH+5% RH, off overnight_x001D_prior storage display conditions unknown_x001D_air vent below painting_x001D__x001D__x001D__x001D__x001D_</t>
+  </si>
+  <si>
+    <t>24 hours air conditioning at 22 degrees+2 degrees, 60% RH+5% RH_x001D_prior storage display conditions unknown_x001D__x001D__x001D__x001D__x001D__x001D_</t>
+  </si>
+  <si>
+    <t>work hours airconditioning at 22 degrees+2 degrees, 50% RH+5% RH, off overnight_x001D_prior storage display conditions unknown_x001D_warped frame_x001D__x001D__x001D__x001D__x001D_</t>
+  </si>
+  <si>
+    <t>work hours airconditioning at 22 degrees+2 degrees, 50% RH+5% RH, off overnight_x001D_prior storage display conditions unknown_x001D_travelling label to Fukuoka exhibition_x001D__x001D__x001D__x001D__x001D_</t>
+  </si>
+  <si>
+    <t>24 hours air conditioning, values unknown_x001D_prior storage/ display conditions in private home_x001D_in collection on eyear after execution_x001D__x001D__x001D__x001D__x001D_</t>
+  </si>
+  <si>
+    <t>prior storage display conditions unknown_x001D_work hours airconditioning at 22 degrees+2 degrees, 50% RH+5% RH, off overnight_x001D__x001D__x001D__x001D__x001D__x001D_</t>
+  </si>
+  <si>
+    <t>24 hours air conditioning, values unknown_x001D_prior storage display conditions unknown_x001D__x001D__x001D__x001D__x001D__x001D_</t>
+  </si>
+  <si>
+    <t>24 hours air conditioning, values unknown_x001D__x001D__x001D__x001D__x001D__x001D__x001D_</t>
+  </si>
+  <si>
+    <t>work hours airconditioning at 22 degrees+2 degrees, 50% RH+5% RH, off overnight_x001D_manually regulated airconditionin for artworks_x001D__x001D__x001D__x001D__x001D__x001D_</t>
+  </si>
+  <si>
+    <t>work hours airconditioning at 22 degrees+2 degrees, 50% RH+5% RH, off overnight_x001D_manually regulated airconditioning for humman comfort_x001D_manually regulated airconditionin for artworks_x001D__x001D__x001D__x001D__x001D_</t>
+  </si>
+  <si>
+    <t>manually regulated airconditionin for artworks_x001D_work hours airconditioning at 22 degrees+2 degrees, 50% RH+5% RH, off overnight_x001D__x001D__x001D__x001D__x001D__x001D_</t>
+  </si>
+  <si>
+    <t>24 hours air conditioning at 22 degrees+2 degrees, 60% RH+5% RH_x001D_manually regulated airconditionin for artworks_x001D__x001D__x001D__x001D__x001D__x001D_</t>
+  </si>
+  <si>
+    <t>work hours airconditioning at 22 degrees+2 degrees, 50% RH+5% RH, off overnight_x001D_manually regulated airconditioning for humman comfort_x001D__x001D__x001D__x001D__x001D__x001D_</t>
+  </si>
+  <si>
+    <t>24 hours air conditioning at 22 degrees+2 degrees, 60% RH+5% RH_x001D_prior storage display conditions unknown_x001D_prior storage/ display conditions in artists home_x001D__x001D__x001D__x001D__x001D_</t>
+  </si>
+  <si>
+    <t>24 hours air conditioning at 22 degrees+2 degrees, 60% RH+5% RH_x001D_manually regulated airconditionin for artworks_x001D_prior storage/ display conditions in private home_x001D__x001D__x001D__x001D__x001D_</t>
+  </si>
+  <si>
+    <t>24 hours air conditioning at 22 degrees+2 degrees, 60% RH+5% RH_x001D_prior storage/ display conditions in private home_x001D__x001D__x001D__x001D__x001D__x001D_</t>
+  </si>
+  <si>
+    <t>24 hours air conditioning at 22 degrees+2 degrees, 60% RH+5% RH_x001D__x001D__x001D__x001D__x001D__x001D__x001D_</t>
+  </si>
+  <si>
+    <t>24 hours air conditioning at 22 degrees+2 degrees, 60% RH+5% RH_x001D_in current conditions for 11 years_x001D_prior storage/ display conditions in private home_x001D__x001D__x001D__x001D__x001D_</t>
+  </si>
+  <si>
+    <t>prior storage display conditions unknown_x001D_24 hours air conditioning at 22 degrees+2 degrees, 60% RH+5% RH_x001D__x001D__x001D__x001D__x001D__x001D_</t>
+  </si>
+  <si>
+    <t>timber</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>strip frame</t>
+  </si>
+  <si>
+    <t>carved</t>
+  </si>
+  <si>
+    <t>gesso moldings</t>
+  </si>
+  <si>
+    <t>painted/stained</t>
+  </si>
+  <si>
+    <t>gilded</t>
+  </si>
+  <si>
+    <t>slip present</t>
+  </si>
+  <si>
+    <t>no slip present</t>
+  </si>
+  <si>
+    <t>glazed</t>
+  </si>
+  <si>
+    <t>glass</t>
+  </si>
+  <si>
+    <t>perspex</t>
+  </si>
+  <si>
+    <t>unglazed</t>
+  </si>
+  <si>
+    <t>unable to examine reverse</t>
+  </si>
+  <si>
+    <t>affixed to wall by</t>
+  </si>
+  <si>
+    <t>two points</t>
+  </si>
+  <si>
+    <t>one point</t>
+  </si>
+  <si>
+    <t>mirrorplates</t>
+  </si>
+  <si>
+    <t>not affixed to wall</t>
+  </si>
+  <si>
+    <t>hanging system</t>
+  </si>
+  <si>
+    <t>screws</t>
+  </si>
+  <si>
+    <t>screweyes</t>
+  </si>
+  <si>
+    <t>d-rings</t>
+  </si>
+  <si>
+    <t>single strand wire</t>
+  </si>
+  <si>
+    <t>multi strand wire</t>
+  </si>
+  <si>
+    <t>no hanging system</t>
+  </si>
+  <si>
+    <t>backing board</t>
+  </si>
+  <si>
+    <t>fomecor</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>no backing board</t>
+  </si>
+  <si>
+    <t>surface dirt frame</t>
+  </si>
+  <si>
+    <t>accretions frame</t>
+  </si>
+  <si>
+    <t>abrasions frame</t>
+  </si>
+  <si>
+    <t>flaking frame</t>
+  </si>
+  <si>
+    <t>losses frame</t>
+  </si>
+  <si>
+    <t>dented frame</t>
+  </si>
+  <si>
+    <t>chipped frame</t>
+  </si>
+  <si>
+    <t>cracking frame</t>
+  </si>
+  <si>
+    <t>corner damage frame</t>
+  </si>
+  <si>
+    <t>mitres separating frame</t>
+  </si>
+  <si>
+    <t>work loose in frame</t>
+  </si>
+  <si>
+    <t>surface dirt along top edge frame</t>
+  </si>
+  <si>
+    <t>poor frame</t>
+  </si>
+  <si>
+    <t>fair frame</t>
+  </si>
+  <si>
+    <t>good frame</t>
+  </si>
+  <si>
+    <t>excellent (frame)</t>
+  </si>
+  <si>
+    <t>fome-cor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surface dirt </t>
+  </si>
+  <si>
+    <t>dented</t>
+  </si>
+  <si>
+    <t>chipped</t>
+  </si>
+  <si>
+    <t>corner damage</t>
+  </si>
+  <si>
+    <t>mitres separating</t>
+  </si>
+  <si>
+    <t>surface dirt top edge</t>
+  </si>
+  <si>
+    <t>affixed to wall by:</t>
+  </si>
+  <si>
+    <t>mirror plates</t>
+  </si>
+  <si>
+    <t>unable to see reverse</t>
+  </si>
+  <si>
+    <t>n/a frame</t>
   </si>
 </sst>
 </file>
@@ -6915,10 +7197,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41110769-F909-4249-923C-C513B87E37AD}">
-  <dimension ref="A1:FE209"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:HA209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="140" workbookViewId="0">
-      <selection activeCell="P111" sqref="P111"/>
+    <sheetView tabSelected="1" topLeftCell="GU186" zoomScale="140" workbookViewId="0">
+      <selection activeCell="HA194" sqref="HA194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6949,7 +7232,9 @@
     <col min="82" max="94" width="18.33203125"/>
     <col min="95" max="107" width="0" hidden="1" customWidth="1"/>
     <col min="108" max="108" width="18.33203125" hidden="1" customWidth="1"/>
-    <col min="116" max="126" width="10.83203125" style="9"/>
+    <col min="116" max="123" width="10.83203125" style="9"/>
+    <col min="124" max="124" width="16.83203125" style="9" customWidth="1"/>
+    <col min="125" max="126" width="10.83203125" style="9"/>
     <col min="127" max="127" width="23.5" style="9" customWidth="1"/>
     <col min="128" max="128" width="20.5" style="9" customWidth="1"/>
     <col min="129" max="129" width="38.1640625" style="9" customWidth="1"/>
@@ -6966,9 +7251,11 @@
     <col min="159" max="159" width="170.6640625" bestFit="1" customWidth="1"/>
     <col min="160" max="160" width="2.83203125" customWidth="1"/>
     <col min="161" max="161" width="18.33203125"/>
+    <col min="162" max="162" width="26.5" customWidth="1"/>
+    <col min="163" max="209" width="18.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:209" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7446,8 +7733,152 @@
       <c r="FE1" s="1" t="s">
         <v>2105</v>
       </c>
+      <c r="FF1" s="1" t="s">
+        <v>2139</v>
+      </c>
+      <c r="FG1" s="1" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FH1" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="FI1" s="1" t="s">
+        <v>2178</v>
+      </c>
+      <c r="FJ1" s="1" t="s">
+        <v>2179</v>
+      </c>
+      <c r="FK1" s="1" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL1" s="1" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FM1" s="1" t="s">
+        <v>2182</v>
+      </c>
+      <c r="FN1" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FO1" s="1" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FP1" s="1" t="s">
+        <v>2185</v>
+      </c>
+      <c r="FQ1" s="1" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FR1" s="1" t="s">
+        <v>2186</v>
+      </c>
+      <c r="FS1" s="1" t="s">
+        <v>2187</v>
+      </c>
+      <c r="FT1" s="1" t="s">
+        <v>2189</v>
+      </c>
+      <c r="FU1" s="1" t="s">
+        <v>2190</v>
+      </c>
+      <c r="FV1" s="1" t="s">
+        <v>2191</v>
+      </c>
+      <c r="FW1" s="1" t="s">
+        <v>2192</v>
+      </c>
+      <c r="FX1" s="1" t="s">
+        <v>2193</v>
+      </c>
+      <c r="FY1" s="1" t="s">
+        <v>2194</v>
+      </c>
+      <c r="FZ1" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="GA1" s="1" t="s">
+        <v>2201</v>
+      </c>
+      <c r="GB1" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="GC1" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="GD1" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GE1" s="1" t="s">
+        <v>2199</v>
+      </c>
+      <c r="GF1" s="1" t="s">
+        <v>2200</v>
+      </c>
+      <c r="GG1" s="1" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GH1" s="1" t="s">
+        <v>2203</v>
+      </c>
+      <c r="GI1" s="1" t="s">
+        <v>2204</v>
+      </c>
+      <c r="GJ1" s="1" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK1" s="1" t="s">
+        <v>2206</v>
+      </c>
+      <c r="GL1" s="1" t="s">
+        <v>2207</v>
+      </c>
+      <c r="GM1" s="1" t="s">
+        <v>2208</v>
+      </c>
+      <c r="GN1" s="1" t="s">
+        <v>2209</v>
+      </c>
+      <c r="GO1" s="1" t="s">
+        <v>2210</v>
+      </c>
+      <c r="GP1" s="1" t="s">
+        <v>2211</v>
+      </c>
+      <c r="GQ1" s="1" t="s">
+        <v>2212</v>
+      </c>
+      <c r="GR1" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="GS1" s="1" t="s">
+        <v>2214</v>
+      </c>
+      <c r="GT1" s="1" t="s">
+        <v>2215</v>
+      </c>
+      <c r="GU1" s="1" t="s">
+        <v>2216</v>
+      </c>
+      <c r="GV1" s="1" t="s">
+        <v>2217</v>
+      </c>
+      <c r="GW1" s="1" t="s">
+        <v>2218</v>
+      </c>
+      <c r="GX1" s="1" t="s">
+        <v>2219</v>
+      </c>
+      <c r="GY1" s="1" t="s">
+        <v>2220</v>
+      </c>
+      <c r="GZ1" s="1" t="s">
+        <v>2221</v>
+      </c>
+      <c r="HA1" s="1" t="s">
+        <v>2232</v>
+      </c>
     </row>
-    <row r="2" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:209" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>78</v>
       </c>
@@ -7748,8 +8179,53 @@
       <c r="FE2" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF2" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="FG2" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL2" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO2" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ2" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GG2" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GH2" s="2" t="s">
+        <v>2222</v>
+      </c>
+      <c r="GK2" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GM2" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GO2" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="GP2" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="GQ2" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GS2" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY2" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="3" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:209" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>99</v>
       </c>
@@ -8032,8 +8508,47 @@
       <c r="FE3" s="2" t="s">
         <v>2107</v>
       </c>
+      <c r="FF3" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="FG3" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK3" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL3" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FQ3" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GG3" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GH3" s="2" t="s">
+        <v>2222</v>
+      </c>
+      <c r="GK3" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GM3" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GP3" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="GS3" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY3" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="4" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:209" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>112</v>
       </c>
@@ -8310,8 +8825,50 @@
       <c r="FE4" s="2" t="s">
         <v>2108</v>
       </c>
+      <c r="FF4" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="FG4" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL4" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO4" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ4" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GG4" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GH4" s="2" t="s">
+        <v>2222</v>
+      </c>
+      <c r="GK4" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL4" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GM4" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GP4" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="GQ4" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GT4" s="2" t="s">
+        <v>2227</v>
+      </c>
+      <c r="GX4" s="2" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="5" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:209" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>121</v>
       </c>
@@ -8624,8 +9181,38 @@
       <c r="FE5" s="2" t="s">
         <v>2109</v>
       </c>
+      <c r="FF5" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="FH5" s="2" t="s">
+        <v>2177</v>
+      </c>
+      <c r="FL5" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO5" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ5" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GK5" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL5" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GM5" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GP5" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="GX5" s="2" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="6" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:209" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>130</v>
       </c>
@@ -8893,8 +9480,53 @@
       <c r="FE6" s="2" t="s">
         <v>388</v>
       </c>
+      <c r="FF6" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="FG6" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK6" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL6" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN6" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ6" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GG6" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GH6" s="2" t="s">
+        <v>2222</v>
+      </c>
+      <c r="GK6" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL6" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GM6" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GP6" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="GQ6" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GS6" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY6" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="7" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:209" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>140</v>
       </c>
@@ -9167,8 +9799,50 @@
       <c r="FE7" s="2" t="s">
         <v>2109</v>
       </c>
+      <c r="FF7" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="FG7" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK7" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL7" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO7" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ7" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GG7" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GH7" s="2" t="s">
+        <v>2222</v>
+      </c>
+      <c r="GK7" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL7" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GO7" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="GS7" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GV7" s="2" t="s">
+        <v>2228</v>
+      </c>
+      <c r="GY7" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="8" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:209" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>148</v>
       </c>
@@ -9452,8 +10126,56 @@
       <c r="FE8" s="2" t="s">
         <v>2110</v>
       </c>
+      <c r="FF8" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="FG8" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FJ8" s="2" t="s">
+        <v>2179</v>
+      </c>
+      <c r="FL8" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO8" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ8" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GG8" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GH8" s="2" t="s">
+        <v>2222</v>
+      </c>
+      <c r="GK8" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL8" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GM8" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GO8" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="GP8" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="GQ8" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GS8" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY8" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="9" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:209" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>158</v>
       </c>
@@ -9739,8 +10461,47 @@
       <c r="FE9" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF9" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="FG9" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK9" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL9" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO9" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ9" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GG9" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GH9" s="2" t="s">
+        <v>2222</v>
+      </c>
+      <c r="GK9" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL9" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GP9" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="GS9" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY9" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="10" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:209" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>169</v>
       </c>
@@ -10040,8 +10801,47 @@
       <c r="FE10" s="2" t="s">
         <v>2111</v>
       </c>
+      <c r="FF10" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="FG10" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FJ10" s="2" t="s">
+        <v>2179</v>
+      </c>
+      <c r="FL10" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN10" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ10" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GK10" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL10" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GM10" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GO10" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="GP10" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="GX10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="GY10" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="11" spans="1:161" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:209" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>178</v>
       </c>
@@ -10327,8 +11127,44 @@
       <c r="FE11" s="2" t="s">
         <v>2108</v>
       </c>
+      <c r="FF11" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="FG11" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK11" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL11" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO11" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ11" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GG11" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GH11" s="2" t="s">
+        <v>2222</v>
+      </c>
+      <c r="GK11" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GM11" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GS11" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY11" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="12" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:209" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>1339</v>
       </c>
@@ -10466,8 +11302,56 @@
       <c r="FE12" s="2" t="s">
         <v>2109</v>
       </c>
+      <c r="FF12" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="FG12" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK12" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FO12" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FP12" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="FR12" s="2" t="s">
+        <v>2186</v>
+      </c>
+      <c r="FU12" s="2" t="s">
+        <v>2229</v>
+      </c>
+      <c r="FW12" s="2" t="s">
+        <v>2192</v>
+      </c>
+      <c r="GF12" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="GJ12" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK12" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL12" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GM12" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GQ12" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GS12" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY12" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="13" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:209" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>186</v>
       </c>
@@ -10762,8 +11646,50 @@
       <c r="FE13" s="2" t="s">
         <v>2112</v>
       </c>
+      <c r="FF13" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="FG13" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL13" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN13" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ13" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GG13" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GH13" s="2" t="s">
+        <v>2222</v>
+      </c>
+      <c r="GK13" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL13" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GM13" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GO13" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="GP13" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="GS13" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY13" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="14" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:209" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>195</v>
       </c>
@@ -11028,8 +11954,41 @@
       <c r="FE14" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF14" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="FG14" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL14" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO14" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ14" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GA14" s="2" t="s">
+        <v>2201</v>
+      </c>
+      <c r="GG14" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GH14" s="2" t="s">
+        <v>2222</v>
+      </c>
+      <c r="GK14" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL14" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GY14" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="15" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:209" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>201</v>
       </c>
@@ -11314,8 +12273,41 @@
       <c r="FE15" s="2" t="s">
         <v>2113</v>
       </c>
+      <c r="FF15" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="FG15" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL15" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN15" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ15" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GG15" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GH15" s="2" t="s">
+        <v>2222</v>
+      </c>
+      <c r="GK15" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GP15" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="GQ15" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GY15" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="16" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:209" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>209</v>
       </c>
@@ -11599,8 +12591,68 @@
       <c r="FE16" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF16" s="2" t="s">
+        <v>2142</v>
+      </c>
+      <c r="FG16" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FJ16" s="2" t="s">
+        <v>2179</v>
+      </c>
+      <c r="FK16" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL16" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO16" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ16" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GG16" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GH16" s="2" t="s">
+        <v>2222</v>
+      </c>
+      <c r="GK16" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL16" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GM16" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GN16" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="GO16" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="GP16" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="GR16" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="GS16" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GT16" s="2" t="s">
+        <v>2227</v>
+      </c>
+      <c r="GU16" s="2" t="s">
+        <v>2216</v>
+      </c>
+      <c r="GW16" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="17" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:207" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>217</v>
       </c>
@@ -11871,8 +12923,11 @@
       <c r="FE17" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF17" s="2" t="s">
+        <v>2140</v>
+      </c>
     </row>
-    <row r="18" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:207" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>224</v>
       </c>
@@ -12137,8 +13192,44 @@
       <c r="FE18" s="2" t="s">
         <v>2108</v>
       </c>
+      <c r="FF18" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="FG18" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL18" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO18" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ18" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GG18" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GH18" s="2" t="s">
+        <v>2222</v>
+      </c>
+      <c r="GK18" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL18" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GM18" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GS18" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY18" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="19" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:207" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>483</v>
       </c>
@@ -12272,8 +13363,11 @@
       <c r="FE19" s="2" t="s">
         <v>156</v>
       </c>
+      <c r="FF19" s="2" t="s">
+        <v>2141</v>
+      </c>
     </row>
-    <row r="20" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:207" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>231</v>
       </c>
@@ -12522,8 +13616,38 @@
       <c r="FE20" s="2" t="s">
         <v>2114</v>
       </c>
+      <c r="FF20" s="2" t="s">
+        <v>2143</v>
+      </c>
+      <c r="FG20" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL20" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN20" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ20" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV20" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GG20" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GK20" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL20" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GX20" s="2" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="21" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:207" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>241</v>
       </c>
@@ -12737,8 +13861,53 @@
       <c r="FE21" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF21" s="2" t="s">
+        <v>2144</v>
+      </c>
+      <c r="FG21" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL21" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO21" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ21" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV21" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="FZ21" s="2" t="s">
+        <v>2195</v>
+      </c>
+      <c r="GB21" s="2" t="s">
+        <v>2196</v>
+      </c>
+      <c r="GG21" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GI21" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="GK21" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL21" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GM21" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GS21" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY21" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="22" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:207" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>248</v>
       </c>
@@ -13010,8 +14179,50 @@
       <c r="FE22" s="2" t="s">
         <v>388</v>
       </c>
+      <c r="FF22" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="FG22" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK22" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL22" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO22" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FP22" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="FR22" s="2" t="s">
+        <v>2186</v>
+      </c>
+      <c r="GG22" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GI22" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="GL22" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GM22" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GQ22" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GS22" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY22" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="23" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:207" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>255</v>
       </c>
@@ -13272,8 +14483,47 @@
       <c r="FE23" s="2" t="s">
         <v>2109</v>
       </c>
+      <c r="FF23" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="FG23" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK23" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL23" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO23" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ23" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GG23" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GH23" s="2" t="s">
+        <v>2222</v>
+      </c>
+      <c r="GK23" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GM23" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GO23" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="GS23" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY23" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="24" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:207" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>1332</v>
       </c>
@@ -13428,8 +14678,53 @@
       <c r="FE24" s="2" t="s">
         <v>2109</v>
       </c>
+      <c r="FF24" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="FG24" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK24" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FO24" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FP24" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="FW24" s="2" t="s">
+        <v>2192</v>
+      </c>
+      <c r="GC24" s="2" t="s">
+        <v>2197</v>
+      </c>
+      <c r="GF24" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="GK24" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL24" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GM24" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GO24" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="GQ24" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GR24" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="GX24" s="2" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="25" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:207" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>262</v>
       </c>
@@ -13605,8 +14900,32 @@
       <c r="FE25" s="2" t="s">
         <v>2108</v>
       </c>
+      <c r="FF25" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="FI25" s="2" t="s">
+        <v>2178</v>
+      </c>
+      <c r="FL25" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FQ25" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GJ25" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK25" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GS25" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY25" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="26" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:207" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>270</v>
       </c>
@@ -13881,8 +15200,44 @@
       <c r="FE26" s="2" t="s">
         <v>2108</v>
       </c>
+      <c r="FF26" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="FG26" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK26" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL26" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO26" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="GK26" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL26" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GM26" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GS26" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GU26" s="2" t="s">
+        <v>2216</v>
+      </c>
+      <c r="GV26" s="2" t="s">
+        <v>2228</v>
+      </c>
+      <c r="GX26" s="2" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="27" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:207" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>277</v>
       </c>
@@ -14059,8 +15414,17 @@
       <c r="FE27" s="2" t="s">
         <v>2115</v>
       </c>
+      <c r="FF27" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="FG27" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL27" s="2" t="s">
+        <v>2181</v>
+      </c>
     </row>
-    <row r="28" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:207" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>286</v>
       </c>
@@ -14341,8 +15705,11 @@
       <c r="FE28" s="2" t="s">
         <v>2109</v>
       </c>
+      <c r="FF28" s="2" t="s">
+        <v>2140</v>
+      </c>
     </row>
-    <row r="29" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:207" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>297</v>
       </c>
@@ -14619,8 +15986,11 @@
       <c r="FE29" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF29" s="2" t="s">
+        <v>2140</v>
+      </c>
     </row>
-    <row r="30" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:207" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>304</v>
       </c>
@@ -14882,8 +16252,11 @@
       <c r="FE30" s="2" t="s">
         <v>2116</v>
       </c>
+      <c r="FF30" s="2" t="s">
+        <v>2140</v>
+      </c>
     </row>
-    <row r="31" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:207" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>313</v>
       </c>
@@ -15154,8 +16527,35 @@
       <c r="FE31" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF31" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="FK31" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FM31" s="2" t="s">
+        <v>2182</v>
+      </c>
+      <c r="FN31" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FV31" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="FX31" s="2" t="s">
+        <v>2193</v>
+      </c>
+      <c r="GD31" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GG31" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GY31" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="32" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:207" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>323</v>
       </c>
@@ -15324,8 +16724,41 @@
       <c r="FE32" s="2" t="s">
         <v>388</v>
       </c>
+      <c r="FF32" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="FG32" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FI32" s="2" t="s">
+        <v>2178</v>
+      </c>
+      <c r="FL32" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN32" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="GD32" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GF32" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="GQ32" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GR32" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="GT32" s="2" t="s">
+        <v>2227</v>
+      </c>
+      <c r="GY32" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="33" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:208" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>331</v>
       </c>
@@ -15563,8 +16996,11 @@
       <c r="FE33" s="2" t="s">
         <v>2117</v>
       </c>
+      <c r="FF33" s="2" t="s">
+        <v>2140</v>
+      </c>
     </row>
-    <row r="34" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:208" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>338</v>
       </c>
@@ -15796,8 +17232,11 @@
       <c r="FE34" s="2" t="s">
         <v>2108</v>
       </c>
+      <c r="FF34" s="2" t="s">
+        <v>2140</v>
+      </c>
     </row>
-    <row r="35" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>346</v>
       </c>
@@ -15957,8 +17396,35 @@
       <c r="FE35" s="2" t="s">
         <v>2117</v>
       </c>
+      <c r="FF35" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="FG35" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL35" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN35" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FV35" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GD35" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GI35" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="GK35" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GY35" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="36" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:208" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>354</v>
       </c>
@@ -16223,8 +17689,44 @@
       <c r="FE36" s="2" t="s">
         <v>2118</v>
       </c>
+      <c r="FF36" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="FG36" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL36" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN36" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="GJ36" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GL36" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GM36" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GO36" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="GP36" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="GQ36" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GR36" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="GY36" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="37" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:208" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>361</v>
       </c>
@@ -16479,8 +17981,29 @@
       <c r="FE37" s="2" t="s">
         <v>2108</v>
       </c>
+      <c r="FF37" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="FG37" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL37" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN37" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="GD37" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GG37" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GZ37" s="2" t="s">
+        <v>1492</v>
+      </c>
     </row>
-    <row r="38" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:208" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>368</v>
       </c>
@@ -16739,8 +18262,29 @@
       <c r="FE38" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF38" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="FG38" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL38" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN38" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="GD38" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GG38" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GZ38" s="2" t="s">
+        <v>1492</v>
+      </c>
     </row>
-    <row r="39" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:208" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>374</v>
       </c>
@@ -16987,8 +18531,35 @@
       <c r="FE39" s="2" t="s">
         <v>388</v>
       </c>
+      <c r="FF39" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="FG39" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL39" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FQ39" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV39" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GD39" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GG39" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GH39" s="2" t="s">
+        <v>2222</v>
+      </c>
+      <c r="GZ39" s="2" t="s">
+        <v>1492</v>
+      </c>
     </row>
-    <row r="40" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:208" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>381</v>
       </c>
@@ -17258,8 +18829,44 @@
       <c r="FE40" s="2" t="s">
         <v>2119</v>
       </c>
+      <c r="FF40" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="FG40" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL40" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN40" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ40" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV40" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="FX40" s="2" t="s">
+        <v>2193</v>
+      </c>
+      <c r="GG40" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GH40" s="2" t="s">
+        <v>2222</v>
+      </c>
+      <c r="GO40" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="GP40" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="GY40" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="41" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>391</v>
       </c>
@@ -17517,8 +19124,53 @@
       <c r="FE41" s="2" t="s">
         <v>2108</v>
       </c>
+      <c r="FF41" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="FG41" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK41" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL41" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN41" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ41" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV41" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="FZ41" s="2" t="s">
+        <v>2195</v>
+      </c>
+      <c r="GB41" s="2" t="s">
+        <v>2196</v>
+      </c>
+      <c r="GD41" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GG41" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GH41" s="2" t="s">
+        <v>2222</v>
+      </c>
+      <c r="GO41" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="GP41" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="GY41" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="42" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:208" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>399</v>
       </c>
@@ -17782,8 +19434,11 @@
       <c r="FE42" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF42" s="2" t="s">
+        <v>2140</v>
+      </c>
     </row>
-    <row r="43" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>409</v>
       </c>
@@ -18040,8 +19695,32 @@
       <c r="FE43" s="2" t="s">
         <v>388</v>
       </c>
+      <c r="FF43" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="FG43" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FI43" s="2" t="s">
+        <v>2178</v>
+      </c>
+      <c r="FL43" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="GD43" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GG43" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GH43" s="2" t="s">
+        <v>2222</v>
+      </c>
+      <c r="GY43" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="44" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:208" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>417</v>
       </c>
@@ -18219,8 +19898,35 @@
       <c r="FE44" s="2" t="s">
         <v>2120</v>
       </c>
+      <c r="FF44" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="FG44" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL44" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FQ44" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV44" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="FZ44" s="2" t="s">
+        <v>2195</v>
+      </c>
+      <c r="GD44" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GK44" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GY44" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="45" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>426</v>
       </c>
@@ -18483,8 +20189,41 @@
       <c r="FE45" s="2" t="s">
         <v>2119</v>
       </c>
+      <c r="FF45" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="FG45" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FI45" s="2" t="s">
+        <v>2178</v>
+      </c>
+      <c r="FK45" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL45" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FQ45" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV45" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GD45" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GG45" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GH45" s="2" t="s">
+        <v>2222</v>
+      </c>
+      <c r="GY45" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="46" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:208" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>432</v>
       </c>
@@ -18624,8 +20363,11 @@
       <c r="FE46" s="2" t="s">
         <v>388</v>
       </c>
+      <c r="FF46" s="2" t="s">
+        <v>2140</v>
+      </c>
     </row>
-    <row r="47" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>438</v>
       </c>
@@ -18764,8 +20506,47 @@
       <c r="FE47" s="2" t="s">
         <v>388</v>
       </c>
+      <c r="FF47" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="FG47" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK47" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL47" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FM47" s="2" t="s">
+        <v>2182</v>
+      </c>
+      <c r="FN47" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ47" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV47" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GD47" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GJ47" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GO47" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="GQ47" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GY47" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="48" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>446</v>
       </c>
@@ -19007,8 +20788,35 @@
       <c r="FE48" s="2" t="s">
         <v>2108</v>
       </c>
+      <c r="FF48" s="2" t="s">
+        <v>2145</v>
+      </c>
+      <c r="FG48" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL48" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO48" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ48" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV48" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="FZ48" s="2" t="s">
+        <v>2195</v>
+      </c>
+      <c r="GG48" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GH48" s="2" t="s">
+        <v>2222</v>
+      </c>
     </row>
-    <row r="49" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:207" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>1388</v>
       </c>
@@ -19248,8 +21056,11 @@
       <c r="FE49" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF49" s="2" t="s">
+        <v>2140</v>
+      </c>
     </row>
-    <row r="50" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:207" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>452</v>
       </c>
@@ -19427,8 +21238,47 @@
       <c r="FE50" s="2" t="s">
         <v>2121</v>
       </c>
+      <c r="FF50" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="FG50" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK50" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL50" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FM50" s="2" t="s">
+        <v>2182</v>
+      </c>
+      <c r="FN50" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ50" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV50" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GD50" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GJ50" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GO50" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="GQ50" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GY50" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="51" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:207" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>459</v>
       </c>
@@ -19614,8 +21464,38 @@
       <c r="FE51" s="2" t="s">
         <v>2122</v>
       </c>
+      <c r="FF51" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="FG51" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FI51" s="2" t="s">
+        <v>2178</v>
+      </c>
+      <c r="FN51" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ51" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV51" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GD51" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GJ51" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK51" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GY51" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="52" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:207" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>468</v>
       </c>
@@ -19883,8 +21763,11 @@
       <c r="FE52" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF52" s="2" t="s">
+        <v>2140</v>
+      </c>
     </row>
-    <row r="53" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:207" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>474</v>
       </c>
@@ -20081,8 +21964,26 @@
       <c r="FE53" s="2" t="s">
         <v>2123</v>
       </c>
+      <c r="FF53" s="2" t="s">
+        <v>2146</v>
+      </c>
+      <c r="FG53" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FI53" s="2" t="s">
+        <v>2178</v>
+      </c>
+      <c r="FL53" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FV53" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GJ53" s="2" t="s">
+        <v>2205</v>
+      </c>
     </row>
-    <row r="54" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:207" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>482</v>
       </c>
@@ -20263,8 +22164,11 @@
       <c r="FE54" s="2" t="s">
         <v>2108</v>
       </c>
+      <c r="FF54" s="2" t="s">
+        <v>2140</v>
+      </c>
     </row>
-    <row r="55" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:207" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>488</v>
       </c>
@@ -20545,8 +22449,41 @@
       <c r="FE55" s="2" t="s">
         <v>2109</v>
       </c>
+      <c r="FF55" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="FG55" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FJ55" s="2" t="s">
+        <v>2179</v>
+      </c>
+      <c r="FL55" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN55" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FV55" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GJ55" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK55" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GM55" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GQ55" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GY55" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="56" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:207" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>494</v>
       </c>
@@ -20823,8 +22760,41 @@
       <c r="FE56" s="2" t="s">
         <v>2108</v>
       </c>
+      <c r="FF56" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="FG56" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FJ56" s="2" t="s">
+        <v>2179</v>
+      </c>
+      <c r="FL56" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN56" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FV56" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GJ56" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK56" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GM56" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GQ56" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GY56" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="57" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:207" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>498</v>
       </c>
@@ -21006,8 +22976,47 @@
       <c r="FE57" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF57" s="2" t="s">
+        <v>2147</v>
+      </c>
+      <c r="FG57" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL57" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN57" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ57" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV57" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GD57" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GG57" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GJ57" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK57" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL57" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GM57" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GY57" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="58" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:207" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>503</v>
       </c>
@@ -21270,8 +23279,47 @@
       <c r="FE58" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF58" s="2" t="s">
+        <v>2147</v>
+      </c>
+      <c r="FH58" s="2" t="s">
+        <v>2177</v>
+      </c>
+      <c r="FI58" s="2" t="s">
+        <v>2178</v>
+      </c>
+      <c r="FO58" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ58" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV58" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GD58" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GG58" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GJ58" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK58" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL58" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GM58" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GY58" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="59" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:207" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>511</v>
       </c>
@@ -21462,8 +23510,11 @@
       <c r="FE59" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF59" s="2" t="s">
+        <v>2140</v>
+      </c>
     </row>
-    <row r="60" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:207" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>519</v>
       </c>
@@ -21632,8 +23683,41 @@
       <c r="FE60" s="2" t="s">
         <v>2108</v>
       </c>
+      <c r="FF60" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="FG60" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL60" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO60" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ60" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GG60" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GI60" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="GK60" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GM60" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GS60" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY60" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="61" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:207" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>525</v>
       </c>
@@ -21810,8 +23894,44 @@
       <c r="FE61" s="2" t="s">
         <v>2109</v>
       </c>
+      <c r="FF61" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="FG61" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK61" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL61" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN61" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FP61" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="FR61" s="2" t="s">
+        <v>2186</v>
+      </c>
+      <c r="GG61" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GI61" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="GK61" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GP61" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="GY61" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="62" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:207" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>533</v>
       </c>
@@ -21988,8 +24108,44 @@
       <c r="FE62" s="2" t="s">
         <v>2109</v>
       </c>
+      <c r="FF62" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="FG62" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK62" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL62" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN62" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FP62" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="FR62" s="2" t="s">
+        <v>2186</v>
+      </c>
+      <c r="GG62" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GI62" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="GK62" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GP62" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="GY62" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="63" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:207" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>536</v>
       </c>
@@ -22170,8 +24326,35 @@
       <c r="FE63" s="2" t="s">
         <v>388</v>
       </c>
+      <c r="FF63" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="FG63" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL63" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO63" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ63" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GJ63" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK63" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GS63" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY63" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="64" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:207" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>543</v>
       </c>
@@ -22356,8 +24539,44 @@
       <c r="FE64" s="2" t="s">
         <v>388</v>
       </c>
+      <c r="FF64" s="2" t="s">
+        <v>2144</v>
+      </c>
+      <c r="FG64" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK64" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL64" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO64" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ64" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GG64" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GI64" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="GK64" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL64" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GS64" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY64" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="65" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:208" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>549</v>
       </c>
@@ -22602,8 +24821,38 @@
       <c r="FE65" s="2" t="s">
         <v>388</v>
       </c>
+      <c r="FF65" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="FG65" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL65" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO65" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ65" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GG65" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GH65" s="2" t="s">
+        <v>2222</v>
+      </c>
+      <c r="GK65" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GS65" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY65" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="66" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>556</v>
       </c>
@@ -22765,8 +25014,35 @@
       <c r="FE66" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF66" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="FG66" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL66" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO66" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ66" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GJ66" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK66" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GM66" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GY66" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="67" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:208" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>562</v>
       </c>
@@ -22940,8 +25216,38 @@
       <c r="FE67" s="2" t="s">
         <v>2109</v>
       </c>
+      <c r="FF67" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="FG67" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL67" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO67" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ67" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GG67" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GI67" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="GK67" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GS67" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY67" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="68" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>568</v>
       </c>
@@ -23101,8 +25407,38 @@
       <c r="FE68" s="2" t="s">
         <v>388</v>
       </c>
+      <c r="FF68" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="FG68" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL68" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN68" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ68" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GJ68" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK68" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL68" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GS68" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GZ68" s="2" t="s">
+        <v>1492</v>
+      </c>
     </row>
-    <row r="69" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:208" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>574</v>
       </c>
@@ -23376,8 +25712,35 @@
       <c r="FE69" s="2" t="s">
         <v>2109</v>
       </c>
+      <c r="FF69" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="FG69" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL69" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN69" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ69" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GG69" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GH69" s="2" t="s">
+        <v>2222</v>
+      </c>
+      <c r="GK69" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GZ69" s="2" t="s">
+        <v>1492</v>
+      </c>
     </row>
-    <row r="70" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:208" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>580</v>
       </c>
@@ -23546,8 +25909,41 @@
       <c r="FE70" s="2" t="s">
         <v>2124</v>
       </c>
+      <c r="FF70" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="FG70" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL70" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN70" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FP70" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="FR70" s="2" t="s">
+        <v>2186</v>
+      </c>
+      <c r="GJ70" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK70" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GM70" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GS70" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY70" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="71" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:208" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>587</v>
       </c>
@@ -23719,8 +26115,35 @@
       <c r="FE71" s="2" t="s">
         <v>388</v>
       </c>
+      <c r="FF71" s="2" t="s">
+        <v>2144</v>
+      </c>
+      <c r="FG71" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL71" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FQ71" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GG71" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GI71" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="GK71" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL71" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GY71" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="72" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:208" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>594</v>
       </c>
@@ -23886,8 +26309,50 @@
       <c r="FE72" s="2" t="s">
         <v>2109</v>
       </c>
+      <c r="FF72" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="FG72" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK72" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL72" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN72" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ72" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV72" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GB72" s="2" t="s">
+        <v>2196</v>
+      </c>
+      <c r="GG72" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GI72" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="GK72" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GQ72" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GS72" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GZ72" s="2" t="s">
+        <v>1492</v>
+      </c>
     </row>
-    <row r="73" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:208" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>601</v>
       </c>
@@ -24077,8 +26542,50 @@
       <c r="FE73" s="2" t="s">
         <v>2109</v>
       </c>
+      <c r="FF73" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="FG73" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK73" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL73" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN73" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ73" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GG73" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GI73" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="GK73" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GO73" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="GS73" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GU73" s="2" t="s">
+        <v>2216</v>
+      </c>
+      <c r="GV73" s="2" t="s">
+        <v>2228</v>
+      </c>
+      <c r="GY73" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="74" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
         <v>232</v>
       </c>
@@ -24341,8 +26848,56 @@
       <c r="FE74" s="2" t="s">
         <v>388</v>
       </c>
+      <c r="FF74" s="2" t="s">
+        <v>2148</v>
+      </c>
+      <c r="FG74" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK74" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FM74" s="2" t="s">
+        <v>2182</v>
+      </c>
+      <c r="FN74" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ74" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FW74" s="2" t="s">
+        <v>2192</v>
+      </c>
+      <c r="GC74" s="2" t="s">
+        <v>2197</v>
+      </c>
+      <c r="GF74" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="GJ74" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK74" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL74" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GP74" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="GS74" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GV74" s="2" t="s">
+        <v>2228</v>
+      </c>
+      <c r="GY74" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="75" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:208" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>606</v>
       </c>
@@ -24509,8 +27064,35 @@
       <c r="FE75" s="2" t="s">
         <v>2109</v>
       </c>
+      <c r="FF75" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="FG75" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL75" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FQ75" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GG75" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GI75" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="GK75" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GS75" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY75" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="76" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:208" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>613</v>
       </c>
@@ -24806,8 +27388,35 @@
       <c r="FE76" s="2" t="s">
         <v>388</v>
       </c>
+      <c r="FF76" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="FG76" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL76" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FQ76" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GG76" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GH76" s="2" t="s">
+        <v>2222</v>
+      </c>
+      <c r="GK76" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL76" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GY76" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="77" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>623</v>
       </c>
@@ -24992,8 +27601,65 @@
       <c r="FE77" s="2" t="s">
         <v>388</v>
       </c>
+      <c r="FF77" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="FG77" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK77" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL77" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN77" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ77" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GJ77" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK77" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL77" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GM77" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GN77" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="GO77" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="GP77" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="GR77" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="GS77" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GT77" s="2" t="s">
+        <v>2227</v>
+      </c>
+      <c r="GU77" s="2" t="s">
+        <v>2216</v>
+      </c>
+      <c r="GV77" s="2" t="s">
+        <v>2228</v>
+      </c>
+      <c r="GW77" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="78" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>628</v>
       </c>
@@ -25194,8 +27860,53 @@
       <c r="FE78" s="2" t="s">
         <v>2125</v>
       </c>
+      <c r="FF78" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="FG78" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK78" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL78" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FQ78" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV78" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="FZ78" s="2" t="s">
+        <v>2195</v>
+      </c>
+      <c r="GB78" s="2" t="s">
+        <v>2196</v>
+      </c>
+      <c r="GG78" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GI78" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="GK78" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL78" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GM78" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GS78" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY78" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="79" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>634</v>
       </c>
@@ -25455,8 +28166,56 @@
       <c r="FE79" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF79" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="FG79" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK79" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL79" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN79" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ79" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FU79" s="2" t="s">
+        <v>2229</v>
+      </c>
+      <c r="FV79" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GE79" s="2" t="s">
+        <v>2199</v>
+      </c>
+      <c r="GG79" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GH79" s="2" t="s">
+        <v>2222</v>
+      </c>
+      <c r="GK79" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL79" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GR79" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="GT79" s="2" t="s">
+        <v>2227</v>
+      </c>
+      <c r="GY79" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="80" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:208" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>640</v>
       </c>
@@ -25745,8 +28504,50 @@
       <c r="FE80" s="2" t="s">
         <v>2108</v>
       </c>
+      <c r="FF80" s="2" t="s">
+        <v>2149</v>
+      </c>
+      <c r="FG80" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK80" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL80" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN80" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ80" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV80" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GB80" s="2" t="s">
+        <v>2196</v>
+      </c>
+      <c r="GG80" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GI80" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="GK80" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GM80" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GS80" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY80" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="81" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:207" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>646</v>
       </c>
@@ -25914,8 +28715,38 @@
       <c r="FE81" s="2" t="s">
         <v>2108</v>
       </c>
+      <c r="FF81" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="FG81" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL81" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN81" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FV81" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GB81" s="2" t="s">
+        <v>2196</v>
+      </c>
+      <c r="GJ81" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK81" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL81" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GY81" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="82" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:207" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>650</v>
       </c>
@@ -26154,8 +28985,47 @@
       <c r="FE82" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF82" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="FG82" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL82" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN82" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ82" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV82" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GB82" s="2" t="s">
+        <v>2196</v>
+      </c>
+      <c r="GG82" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GI82" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="GK82" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL82" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GM82" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GY82" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="83" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:207" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>1322</v>
       </c>
@@ -26372,8 +29242,59 @@
       <c r="FE83" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF83" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="FG83" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK83" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL83" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN83" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FR83" s="2" t="s">
+        <v>2186</v>
+      </c>
+      <c r="FV83" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GB83" s="2" t="s">
+        <v>2196</v>
+      </c>
+      <c r="GF83" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="GJ83" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK83" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GO83" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="GP83" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="GQ83" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GR83" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="GS83" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GW83" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="84" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:207" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>656</v>
       </c>
@@ -26621,8 +29542,47 @@
       <c r="FE84" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF84" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="FG84" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL84" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN84" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ84" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV84" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GB84" s="2" t="s">
+        <v>2196</v>
+      </c>
+      <c r="GG84" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GI84" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="GK84" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GM84" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GS84" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY84" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="85" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:207" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>660</v>
       </c>
@@ -26870,8 +29830,47 @@
       <c r="FE85" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF85" s="2" t="s">
+        <v>2144</v>
+      </c>
+      <c r="FG85" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL85" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN85" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ85" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV85" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GB85" s="2" t="s">
+        <v>2196</v>
+      </c>
+      <c r="GG85" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GI85" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="GK85" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GM85" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GS85" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY85" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="86" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:207" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>665</v>
       </c>
@@ -27141,8 +30140,53 @@
       <c r="FE86" s="2" t="s">
         <v>388</v>
       </c>
+      <c r="FF86" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="FG86" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK86" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL86" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN86" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ86" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV86" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="FZ86" s="2" t="s">
+        <v>2195</v>
+      </c>
+      <c r="GB86" s="2" t="s">
+        <v>2196</v>
+      </c>
+      <c r="GJ86" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK86" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL86" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GM86" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GS86" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY86" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="87" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:207" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>669</v>
       </c>
@@ -27308,8 +30352,65 @@
       <c r="FE87" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF87" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="FG87" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FJ87" s="2" t="s">
+        <v>2179</v>
+      </c>
+      <c r="FK87" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL87" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO87" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ87" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GG87" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GI87" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="GK87" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GN87" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="GO87" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="GP87" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="GQ87" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GR87" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="GS87" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GT87" s="2" t="s">
+        <v>2227</v>
+      </c>
+      <c r="GV87" s="2" t="s">
+        <v>2228</v>
+      </c>
+      <c r="GX87" s="2" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="88" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:207" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>674</v>
       </c>
@@ -27496,8 +30597,41 @@
       <c r="FE88" s="2" t="s">
         <v>388</v>
       </c>
+      <c r="FF88" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="FG88" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK88" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL88" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO88" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ88" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GJ88" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK88" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL88" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GS88" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY88" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="89" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:207" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>680</v>
       </c>
@@ -27681,8 +30815,41 @@
       <c r="FE89" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF89" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="FG89" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK89" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL89" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO89" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ89" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GG89" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GI89" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="GK89" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GT89" s="2" t="s">
+        <v>2227</v>
+      </c>
+      <c r="GY89" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="90" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:207" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>686</v>
       </c>
@@ -27874,8 +31041,56 @@
       <c r="FE90" s="2" t="s">
         <v>2108</v>
       </c>
+      <c r="FF90" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="FG90" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK90" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL90" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FM90" s="2" t="s">
+        <v>2182</v>
+      </c>
+      <c r="FO90" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ90" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV90" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GJ90" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK90" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GN90" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="GO90" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="GQ90" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GR90" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="GT90" s="2" t="s">
+        <v>2227</v>
+      </c>
+      <c r="GY90" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="91" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:207" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>692</v>
       </c>
@@ -28116,8 +31331,59 @@
       <c r="FE91" s="2" t="s">
         <v>2108</v>
       </c>
+      <c r="FF91" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="FG91" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL91" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO91" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ91" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GJ91" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK91" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GM91" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GN91" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="GO91" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="GQ91" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GR91" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="GS91" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GT91" s="2" t="s">
+        <v>2227</v>
+      </c>
+      <c r="GU91" s="2" t="s">
+        <v>2216</v>
+      </c>
+      <c r="GV91" s="2" t="s">
+        <v>2228</v>
+      </c>
+      <c r="GX91" s="2" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="92" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:207" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>698</v>
       </c>
@@ -28402,8 +31668,35 @@
       <c r="FE92" s="2" t="s">
         <v>2109</v>
       </c>
+      <c r="FF92" s="2" t="s">
+        <v>2150</v>
+      </c>
+      <c r="FK92" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL92" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FY92" s="2" t="s">
+        <v>2194</v>
+      </c>
+      <c r="GA92" s="2" t="s">
+        <v>2201</v>
+      </c>
+      <c r="GJ92" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK92" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GO92" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="GY92" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="93" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:207" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>706</v>
       </c>
@@ -28591,8 +31884,41 @@
       <c r="FE93" s="2" t="s">
         <v>388</v>
       </c>
+      <c r="FF93" s="2" t="s">
+        <v>2151</v>
+      </c>
+      <c r="FG93" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FJ93" s="2" t="s">
+        <v>2179</v>
+      </c>
+      <c r="FL93" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FP93" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="FR93" s="2" t="s">
+        <v>2186</v>
+      </c>
+      <c r="FV93" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GK93" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GQ93" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GT93" s="2" t="s">
+        <v>2227</v>
+      </c>
+      <c r="GX93" s="2" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="94" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:207" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>712</v>
       </c>
@@ -28869,8 +32195,50 @@
       <c r="FE94" s="2" t="s">
         <v>2120</v>
       </c>
+      <c r="FF94" s="2" t="s">
+        <v>2152</v>
+      </c>
+      <c r="FG94" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL94" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO94" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ94" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GA94" s="2" t="s">
+        <v>2201</v>
+      </c>
+      <c r="GJ94" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK94" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL94" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GM94" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GS94" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GT94" s="2" t="s">
+        <v>2227</v>
+      </c>
+      <c r="GU94" s="2" t="s">
+        <v>2216</v>
+      </c>
+      <c r="GY94" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="95" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:207" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>719</v>
       </c>
@@ -29058,8 +32426,35 @@
       <c r="FE95" s="2" t="s">
         <v>2114</v>
       </c>
+      <c r="FF95" s="2" t="s">
+        <v>2152</v>
+      </c>
+      <c r="FJ95" s="2" t="s">
+        <v>2179</v>
+      </c>
+      <c r="FL95" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FV95" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GK95" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL95" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GQ95" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GS95" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY95" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="96" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:207" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>727</v>
       </c>
@@ -29236,8 +32631,17 @@
       <c r="FE96" s="2" t="s">
         <v>2126</v>
       </c>
+      <c r="FF96" s="2" t="s">
+        <v>2153</v>
+      </c>
+      <c r="GK96" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GX96" s="2" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="97" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:208" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>734</v>
       </c>
@@ -29475,8 +32879,44 @@
       <c r="FE97" s="2" t="s">
         <v>2127</v>
       </c>
+      <c r="FF97" s="2" t="s">
+        <v>2152</v>
+      </c>
+      <c r="FK97" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL97" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FQ97" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FZ97" s="2" t="s">
+        <v>2195</v>
+      </c>
+      <c r="GJ97" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK97" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GM97" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GN97" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="GQ97" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GR97" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="GT97" s="2" t="s">
+        <v>2227</v>
+      </c>
     </row>
-    <row r="98" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:208" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>742</v>
       </c>
@@ -29702,8 +33142,32 @@
       <c r="FE98" s="2" t="s">
         <v>388</v>
       </c>
+      <c r="FF98" s="2" t="s">
+        <v>2154</v>
+      </c>
+      <c r="FG98" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FI98" s="2" t="s">
+        <v>2178</v>
+      </c>
+      <c r="FL98" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO98" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ98" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GK98" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GY98" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="99" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:208" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>750</v>
       </c>
@@ -29976,8 +33440,53 @@
       <c r="FE99" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF99" s="2" t="s">
+        <v>2152</v>
+      </c>
+      <c r="FG99" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK99" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FM99" s="2" t="s">
+        <v>2182</v>
+      </c>
+      <c r="FN99" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ99" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FW99" s="2" t="s">
+        <v>2192</v>
+      </c>
+      <c r="FZ99" s="2" t="s">
+        <v>2195</v>
+      </c>
+      <c r="GF99" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="GJ99" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK99" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL99" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GM99" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GS99" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY99" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="100" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:208" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>759</v>
       </c>
@@ -30202,8 +33711,53 @@
       <c r="FE100" s="2" t="s">
         <v>2120</v>
       </c>
+      <c r="FF100" s="2" t="s">
+        <v>2154</v>
+      </c>
+      <c r="FG100" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK100" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL100" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN100" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ100" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV100" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GF100" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="GG100" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GI100" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="GK100" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL100" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GQ100" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GS100" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY100" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="101" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>768</v>
       </c>
@@ -30478,8 +34032,71 @@
       <c r="FE101" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF101" s="2" t="s">
+        <v>2155</v>
+      </c>
+      <c r="FG101" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK101" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL101" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO101" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ101" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV101" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GB101" s="2" t="s">
+        <v>2196</v>
+      </c>
+      <c r="GE101" s="2" t="s">
+        <v>2199</v>
+      </c>
+      <c r="GJ101" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK101" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL101" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GM101" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GO101" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="GP101" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="GR101" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="GS101" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GT101" s="2" t="s">
+        <v>2227</v>
+      </c>
+      <c r="GU101" s="2" t="s">
+        <v>2216</v>
+      </c>
+      <c r="GV101" s="2" t="s">
+        <v>2228</v>
+      </c>
+      <c r="GX101" s="2" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="102" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:208" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>775</v>
       </c>
@@ -30733,8 +34350,65 @@
       <c r="FE102" s="2" t="s">
         <v>2109</v>
       </c>
+      <c r="FF102" s="2" t="s">
+        <v>2146</v>
+      </c>
+      <c r="FG102" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK102" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL102" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO102" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ102" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FW102" s="2" t="s">
+        <v>2192</v>
+      </c>
+      <c r="GB102" s="2" t="s">
+        <v>2196</v>
+      </c>
+      <c r="GG102" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GI102" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="GK102" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL102" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GM102" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GO102" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="GP102" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="GS102" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GT102" s="2" t="s">
+        <v>2227</v>
+      </c>
+      <c r="GU102" s="2" t="s">
+        <v>2216</v>
+      </c>
+      <c r="GW102" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="103" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>782</v>
       </c>
@@ -30980,8 +34654,35 @@
       <c r="FE103" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF103" s="2" t="s">
+        <v>2156</v>
+      </c>
+      <c r="FG103" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL103" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO103" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ103" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV103" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="FX103" s="2" t="s">
+        <v>2230</v>
+      </c>
+      <c r="GJ103" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GY103" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="104" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:208" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>789</v>
       </c>
@@ -31216,8 +34917,50 @@
       <c r="FE104" s="2" t="s">
         <v>388</v>
       </c>
+      <c r="FF104" s="2" t="s">
+        <v>2156</v>
+      </c>
+      <c r="FG104" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK104" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL104" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN104" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ104" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FW104" s="2" t="s">
+        <v>2192</v>
+      </c>
+      <c r="GF104" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="GG104" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GI104" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="GK104" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GQ104" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GV104" s="2" t="s">
+        <v>2228</v>
+      </c>
+      <c r="GZ104" s="2" t="s">
+        <v>1492</v>
+      </c>
     </row>
-    <row r="105" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>797</v>
       </c>
@@ -31482,8 +35225,35 @@
       <c r="FE105" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF105" s="2" t="s">
+        <v>2156</v>
+      </c>
+      <c r="FG105" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL105" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO105" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FW105" s="2" t="s">
+        <v>2192</v>
+      </c>
+      <c r="GJ105" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK105" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GV105" s="2" t="s">
+        <v>2228</v>
+      </c>
+      <c r="GY105" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="106" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:208" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>806</v>
       </c>
@@ -31723,8 +35493,38 @@
       <c r="FE106" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF106" s="2" t="s">
+        <v>2156</v>
+      </c>
+      <c r="FG106" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK106" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL106" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN106" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ106" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FW106" s="2" t="s">
+        <v>2192</v>
+      </c>
+      <c r="GF106" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="GG106" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GI106" s="2" t="s">
+        <v>2204</v>
+      </c>
     </row>
-    <row r="107" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:208" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>813</v>
       </c>
@@ -31998,8 +35798,53 @@
       <c r="FE107" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF107" s="2" t="s">
+        <v>2157</v>
+      </c>
+      <c r="FG107" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL107" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FM107" s="2" t="s">
+        <v>2182</v>
+      </c>
+      <c r="FO107" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ107" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FU107" s="2" t="s">
+        <v>2229</v>
+      </c>
+      <c r="FV107" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GF107" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="GG107" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GI107" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="GK107" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL107" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GQ107" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GY107" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="108" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>821</v>
       </c>
@@ -32259,8 +36104,47 @@
       <c r="FE108" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF108" s="2" t="s">
+        <v>2158</v>
+      </c>
+      <c r="FG108" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL108" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN108" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ108" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV108" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GJ108" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK108" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL108" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GN108" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="GO108" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="GS108" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY108" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="109" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>830</v>
       </c>
@@ -32553,8 +36437,56 @@
       <c r="FE109" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF109" s="2" t="s">
+        <v>2159</v>
+      </c>
+      <c r="FG109" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FJ109" s="2" t="s">
+        <v>2179</v>
+      </c>
+      <c r="FK109" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL109" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FM109" s="2" t="s">
+        <v>2182</v>
+      </c>
+      <c r="FN109" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FP109" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="FV109" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GF109" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="GJ109" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK109" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL109" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GS109" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GV109" s="2" t="s">
+        <v>2228</v>
+      </c>
+      <c r="GY109" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="110" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>839</v>
       </c>
@@ -32853,8 +36785,59 @@
       <c r="FE110" s="2" t="s">
         <v>2109</v>
       </c>
+      <c r="FF110" s="2" t="s">
+        <v>2146</v>
+      </c>
+      <c r="FG110" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FJ110" s="2" t="s">
+        <v>2179</v>
+      </c>
+      <c r="FK110" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL110" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FM110" s="2" t="s">
+        <v>2182</v>
+      </c>
+      <c r="FN110" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ110" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV110" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GB110" s="2" t="s">
+        <v>2196</v>
+      </c>
+      <c r="GF110" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="GJ110" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK110" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GP110" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="GQ110" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GS110" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY110" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="111" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>848</v>
       </c>
@@ -33095,8 +37078,56 @@
       <c r="FE111" s="2" t="s">
         <v>2128</v>
       </c>
+      <c r="FF111" s="2" t="s">
+        <v>2160</v>
+      </c>
+      <c r="FG111" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FJ111" s="2" t="s">
+        <v>2179</v>
+      </c>
+      <c r="FK111" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL111" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO111" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ111" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV111" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GB111" s="2" t="s">
+        <v>2196</v>
+      </c>
+      <c r="GJ111" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK111" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GO111" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="GP111" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="GR111" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="GS111" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY111" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="112" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>855</v>
       </c>
@@ -33330,8 +37361,62 @@
       <c r="FE112" s="2" t="s">
         <v>388</v>
       </c>
+      <c r="FF112" s="2" t="s">
+        <v>2146</v>
+      </c>
+      <c r="FG112" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FJ112" s="2" t="s">
+        <v>2179</v>
+      </c>
+      <c r="FK112" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL112" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO112" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ112" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FU112" s="2" t="s">
+        <v>2229</v>
+      </c>
+      <c r="FV112" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GB112" s="2" t="s">
+        <v>2196</v>
+      </c>
+      <c r="GF112" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="GJ112" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK112" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GO112" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="GP112" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="GR112" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="GS112" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY112" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="113" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>857</v>
       </c>
@@ -33582,8 +37667,38 @@
       <c r="FE113" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF113" s="2" t="s">
+        <v>2146</v>
+      </c>
+      <c r="FG113" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL113" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN113" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ113" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV113" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GF113" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="GJ113" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK113" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GZ113" s="2" t="s">
+        <v>1492</v>
+      </c>
     </row>
-    <row r="114" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>865</v>
       </c>
@@ -33762,8 +37877,35 @@
       <c r="FE114" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF114" s="2" t="s">
+        <v>2146</v>
+      </c>
+      <c r="FI114" s="2" t="s">
+        <v>2178</v>
+      </c>
+      <c r="FL114" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN114" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ114" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FT114" s="2" t="s">
+        <v>2231</v>
+      </c>
+      <c r="FV114" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GJ114" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GX114" s="2" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="115" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:208" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>871</v>
       </c>
@@ -33954,8 +38096,50 @@
       <c r="FE115" s="2" t="s">
         <v>2129</v>
       </c>
+      <c r="FF115" s="2" t="s">
+        <v>2146</v>
+      </c>
+      <c r="FG115" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL115" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN115" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ115" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV115" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="FZ115" s="2" t="s">
+        <v>2195</v>
+      </c>
+      <c r="GB115" s="2" t="s">
+        <v>2196</v>
+      </c>
+      <c r="GF115" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="GJ115" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK115" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GP115" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="GS115" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GW115" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="116" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>879</v>
       </c>
@@ -34185,8 +38369,56 @@
       <c r="FE116" s="2" t="s">
         <v>2129</v>
       </c>
+      <c r="FF116" s="2" t="s">
+        <v>2146</v>
+      </c>
+      <c r="FG116" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL116" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN116" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ116" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV116" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="FZ116" s="2" t="s">
+        <v>2195</v>
+      </c>
+      <c r="GB116" s="2" t="s">
+        <v>2196</v>
+      </c>
+      <c r="GF116" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="GJ116" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK116" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GP116" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="GS116" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GT116" s="2" t="s">
+        <v>2227</v>
+      </c>
+      <c r="GV116" s="2" t="s">
+        <v>2228</v>
+      </c>
+      <c r="GX116" s="2" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="117" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>884</v>
       </c>
@@ -34448,8 +38680,50 @@
       <c r="FE117" s="2" t="s">
         <v>2128</v>
       </c>
+      <c r="FF117" s="2" t="s">
+        <v>2146</v>
+      </c>
+      <c r="FG117" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL117" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO117" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FU117" s="2" t="s">
+        <v>2229</v>
+      </c>
+      <c r="FV117" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="FZ117" s="2" t="s">
+        <v>2195</v>
+      </c>
+      <c r="GF117" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="GJ117" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK117" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL117" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GM117" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GS117" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY117" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="118" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>892</v>
       </c>
@@ -34698,8 +38972,47 @@
       <c r="FE118" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF118" s="2" t="s">
+        <v>2146</v>
+      </c>
+      <c r="FG118" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FO118" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ118" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FU118" s="2" t="s">
+        <v>2229</v>
+      </c>
+      <c r="FV118" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GF118" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="GJ118" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK118" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL118" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GM118" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GV118" s="2" t="s">
+        <v>2228</v>
+      </c>
+      <c r="GY118" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="119" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>892</v>
       </c>
@@ -34947,8 +39260,47 @@
       <c r="FE119" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF119" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="FG119" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FO119" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ119" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FU119" s="2" t="s">
+        <v>2229</v>
+      </c>
+      <c r="FV119" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GF119" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="GJ119" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK119" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL119" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GM119" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GV119" s="2" t="s">
+        <v>2228</v>
+      </c>
+      <c r="GY119" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="120" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>902</v>
       </c>
@@ -35129,8 +39481,44 @@
       <c r="FE120" s="2" t="s">
         <v>2130</v>
       </c>
+      <c r="FF120" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="FG120" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK120" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL120" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO120" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ120" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FU120" s="2" t="s">
+        <v>2229</v>
+      </c>
+      <c r="FV120" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GF120" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="GJ120" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK120" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GZ120" s="2" t="s">
+        <v>1492</v>
+      </c>
     </row>
-    <row r="121" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>909</v>
       </c>
@@ -35313,8 +39701,47 @@
       <c r="FE121" s="2" t="s">
         <v>388</v>
       </c>
+      <c r="FF121" s="2" t="s">
+        <v>2161</v>
+      </c>
+      <c r="FG121" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL121" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO121" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ121" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FU121" s="2" t="s">
+        <v>2229</v>
+      </c>
+      <c r="FV121" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="FZ121" s="2" t="s">
+        <v>2195</v>
+      </c>
+      <c r="GF121" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="GJ121" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK121" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GS121" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY121" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="122" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:208" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>914</v>
       </c>
@@ -35489,8 +39916,44 @@
       <c r="FE122" s="2" t="s">
         <v>388</v>
       </c>
+      <c r="FF122" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="FG122" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL122" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO122" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ122" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV122" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GF122" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="GJ122" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK122" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GM122" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GS122" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY122" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="123" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>920</v>
       </c>
@@ -35750,8 +40213,41 @@
       <c r="FE123" s="2" t="s">
         <v>2108</v>
       </c>
+      <c r="FF123" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="FG123" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL123" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO123" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ123" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV123" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GF123" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="GJ123" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK123" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GS123" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GZ123" s="2" t="s">
+        <v>1492</v>
+      </c>
     </row>
-    <row r="124" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>926</v>
       </c>
@@ -35935,8 +40431,47 @@
       <c r="FE124" s="2" t="s">
         <v>2131</v>
       </c>
+      <c r="FF124" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="FG124" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK124" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL124" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN124" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FP124" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="FW124" s="2" t="s">
+        <v>2192</v>
+      </c>
+      <c r="FZ124" s="2" t="s">
+        <v>2195</v>
+      </c>
+      <c r="GJ124" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK124" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL124" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GQ124" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GY124" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="125" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:208" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>933</v>
       </c>
@@ -36052,8 +40587,11 @@
       <c r="FE125" s="2" t="s">
         <v>388</v>
       </c>
+      <c r="FF125" s="2" t="s">
+        <v>2140</v>
+      </c>
     </row>
-    <row r="126" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>936</v>
       </c>
@@ -36176,8 +40714,11 @@
       <c r="FE126" s="2" t="s">
         <v>388</v>
       </c>
+      <c r="FF126" s="2" t="s">
+        <v>2162</v>
+      </c>
     </row>
-    <row r="127" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>979</v>
       </c>
@@ -36356,8 +40897,44 @@
       <c r="FE127" s="2" t="s">
         <v>388</v>
       </c>
+      <c r="FF127" s="2" t="s">
+        <v>2145</v>
+      </c>
+      <c r="FG127" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK127" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL127" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN127" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ127" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV127" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GD127" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GJ127" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GO127" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="GS127" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GZ127" s="2" t="s">
+        <v>1492</v>
+      </c>
     </row>
-    <row r="128" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:208" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>947</v>
       </c>
@@ -36622,8 +41199,44 @@
       <c r="FE128" s="2" t="s">
         <v>2107</v>
       </c>
+      <c r="FF128" s="2" t="s">
+        <v>2145</v>
+      </c>
+      <c r="FG128" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL128" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN128" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ128" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GE128" s="2" t="s">
+        <v>2199</v>
+      </c>
+      <c r="GG128" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GI128" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="GK128" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GM128" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GO128" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="GY128" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="129" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:208" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>955</v>
       </c>
@@ -36774,8 +41387,41 @@
       <c r="FE129" s="2" t="s">
         <v>388</v>
       </c>
+      <c r="FF129" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="FG129" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL129" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN129" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ129" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV129" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GJ129" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GM129" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GO129" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="GS129" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY129" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="130" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:208" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>960</v>
       </c>
@@ -36934,8 +41580,35 @@
       <c r="FE130" s="2" t="s">
         <v>2130</v>
       </c>
+      <c r="FF130" s="2" t="s">
+        <v>2145</v>
+      </c>
+      <c r="FG130" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL130" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN130" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ130" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV130" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GE130" s="2" t="s">
+        <v>2199</v>
+      </c>
+      <c r="GM130" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GY130" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="131" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:208" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>965</v>
       </c>
@@ -37207,8 +41880,47 @@
       <c r="FE131" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF131" s="2" t="s">
+        <v>2145</v>
+      </c>
+      <c r="FG131" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL131" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN131" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ131" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV131" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GE131" s="2" t="s">
+        <v>2199</v>
+      </c>
+      <c r="GG131" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GI131" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="GK131" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GM131" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GQ131" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GY131" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="132" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:208" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>974</v>
       </c>
@@ -37484,8 +42196,50 @@
       <c r="FE132" s="2" t="s">
         <v>388</v>
       </c>
+      <c r="FF132" s="2" t="s">
+        <v>2163</v>
+      </c>
+      <c r="FG132" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK132" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL132" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FM132" s="2" t="s">
+        <v>2182</v>
+      </c>
+      <c r="FN132" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ132" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV132" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GB132" s="2" t="s">
+        <v>2196</v>
+      </c>
+      <c r="GE132" s="2" t="s">
+        <v>2199</v>
+      </c>
+      <c r="GG132" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GI132" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="GK132" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GZ132" s="2" t="s">
+        <v>1492</v>
+      </c>
     </row>
-    <row r="133" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>986</v>
       </c>
@@ -37680,8 +42434,32 @@
       <c r="FE133" s="2" t="s">
         <v>2132</v>
       </c>
+      <c r="FF133" s="2" t="s">
+        <v>2145</v>
+      </c>
+      <c r="FG133" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL133" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="GJ133" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK133" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GM133" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GS133" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GZ133" s="2" t="s">
+        <v>1492</v>
+      </c>
     </row>
-    <row r="134" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>992</v>
       </c>
@@ -37878,8 +42656,11 @@
       <c r="FE134" s="2" t="s">
         <v>2108</v>
       </c>
+      <c r="FF134" s="2" t="s">
+        <v>2164</v>
+      </c>
     </row>
-    <row r="135" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>996</v>
       </c>
@@ -38044,8 +42825,41 @@
       <c r="FE135" s="2" t="s">
         <v>2108</v>
       </c>
+      <c r="FF135" s="2" t="s">
+        <v>2145</v>
+      </c>
+      <c r="FG135" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL135" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FQ135" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV135" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GE135" s="2" t="s">
+        <v>2199</v>
+      </c>
+      <c r="GJ135" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK135" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GM135" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GQ135" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GY135" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="136" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>999</v>
       </c>
@@ -38200,8 +43014,38 @@
       <c r="FE136" s="2" t="s">
         <v>2130</v>
       </c>
+      <c r="FF136" s="2" t="s">
+        <v>2145</v>
+      </c>
+      <c r="FG136" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL136" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN136" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ136" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV136" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GD136" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GE136" s="2" t="s">
+        <v>2199</v>
+      </c>
+      <c r="GJ136" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GZ136" s="2" t="s">
+        <v>1492</v>
+      </c>
     </row>
-    <row r="137" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:208" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>1004</v>
       </c>
@@ -38394,8 +43238,41 @@
       <c r="FE137" s="2" t="s">
         <v>2130</v>
       </c>
+      <c r="FF137" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="FG137" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL137" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN137" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ137" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV137" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GJ137" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK137" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GM137" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GQ137" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GY137" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="138" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>1010</v>
       </c>
@@ -38551,8 +43428,11 @@
       <c r="FE138" s="2" t="s">
         <v>2108</v>
       </c>
+      <c r="FF138" s="2" t="s">
+        <v>2145</v>
+      </c>
     </row>
-    <row r="139" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>1015</v>
       </c>
@@ -38714,8 +43594,41 @@
       <c r="FE139" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF139" s="2" t="s">
+        <v>2145</v>
+      </c>
+      <c r="FG139" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL139" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FM139" s="2" t="s">
+        <v>2182</v>
+      </c>
+      <c r="FN139" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ139" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV139" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GE139" s="2" t="s">
+        <v>2199</v>
+      </c>
+      <c r="GJ139" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK139" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GZ139" s="2" t="s">
+        <v>1492</v>
+      </c>
     </row>
-    <row r="140" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:208" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>1020</v>
       </c>
@@ -38893,8 +43806,32 @@
       <c r="FE140" s="2" t="s">
         <v>2109</v>
       </c>
+      <c r="FF140" s="2" t="s">
+        <v>2145</v>
+      </c>
+      <c r="FG140" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL140" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO140" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ140" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV140" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GJ140" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GY140" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="141" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:208" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>1024</v>
       </c>
@@ -39072,8 +44009,41 @@
       <c r="FE141" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF141" s="2" t="s">
+        <v>2145</v>
+      </c>
+      <c r="FG141" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL141" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO141" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ141" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV141" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GD141" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GE141" s="2" t="s">
+        <v>2199</v>
+      </c>
+      <c r="GK141" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL141" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GY141" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="142" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:208" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>1029</v>
       </c>
@@ -39209,8 +44179,35 @@
       <c r="FE142" s="2" t="s">
         <v>2108</v>
       </c>
+      <c r="FF142" s="2" t="s">
+        <v>2145</v>
+      </c>
+      <c r="FG142" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK142" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL142" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN142" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ142" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GJ142" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK142" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GZ142" s="2" t="s">
+        <v>1492</v>
+      </c>
     </row>
-    <row r="143" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>1033</v>
       </c>
@@ -39400,8 +44397,38 @@
       <c r="FE143" s="2" t="s">
         <v>2108</v>
       </c>
+      <c r="FF143" s="2" t="s">
+        <v>2145</v>
+      </c>
+      <c r="FG143" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL143" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN143" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ143" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GJ143" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK143" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL143" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GM143" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GY143" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="144" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:208" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>1039</v>
       </c>
@@ -39549,8 +44576,44 @@
       <c r="FE144" s="2" t="s">
         <v>156</v>
       </c>
+      <c r="FF144" s="2" t="s">
+        <v>2145</v>
+      </c>
+      <c r="FG144" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL144" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN144" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ144" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV144" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GB144" s="2" t="s">
+        <v>2196</v>
+      </c>
+      <c r="GJ144" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK144" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL144" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GM144" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GY144" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="145" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:207" x14ac:dyDescent="0.2">
       <c r="B145" s="2" t="s">
         <v>483</v>
       </c>
@@ -39810,8 +44873,41 @@
       <c r="FE145" s="2" t="s">
         <v>2109</v>
       </c>
+      <c r="FF145" s="2" t="s">
+        <v>2145</v>
+      </c>
+      <c r="FG145" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL145" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN145" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ145" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV145" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GJ145" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK145" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL145" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GM145" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GY145" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="146" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:207" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>1047</v>
       </c>
@@ -40088,8 +45184,44 @@
       <c r="FE146" s="2" t="s">
         <v>2109</v>
       </c>
+      <c r="FF146" s="2" t="s">
+        <v>2165</v>
+      </c>
+      <c r="FG146" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL146" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN146" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ146" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV146" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GE146" s="2" t="s">
+        <v>2199</v>
+      </c>
+      <c r="GJ146" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK146" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL146" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GM146" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GY146" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="147" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:207" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>1378</v>
       </c>
@@ -40357,8 +45489,41 @@
       <c r="FE147" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF147" s="2" t="s">
+        <v>2145</v>
+      </c>
+      <c r="FG147" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL147" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN147" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ147" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV147" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GD147" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GJ147" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK147" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL147" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GY147" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="148" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:207" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>1053</v>
       </c>
@@ -40610,8 +45775,41 @@
       <c r="FE148" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF148" s="2" t="s">
+        <v>2145</v>
+      </c>
+      <c r="FG148" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL148" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO148" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ148" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GJ148" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK148" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL148" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GM148" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GP148" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="GY148" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="149" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:207" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>1057</v>
       </c>
@@ -40753,8 +45951,35 @@
       <c r="FE149" s="2" t="s">
         <v>2109</v>
       </c>
+      <c r="FF149" s="2" t="s">
+        <v>2145</v>
+      </c>
+      <c r="FG149" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL149" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN149" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ149" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV149" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GJ149" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK149" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GY149" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="150" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:207" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>1061</v>
       </c>
@@ -41026,8 +46251,44 @@
       <c r="FE150" s="2" t="s">
         <v>2114</v>
       </c>
+      <c r="FF150" s="2" t="s">
+        <v>2146</v>
+      </c>
+      <c r="FG150" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL150" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO150" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ150" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV150" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GD150" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GE150" s="2" t="s">
+        <v>2199</v>
+      </c>
+      <c r="GJ150" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK150" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GM150" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GY150" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="151" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:207" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>1066</v>
       </c>
@@ -41303,8 +46564,35 @@
       <c r="FE151" s="2" t="s">
         <v>388</v>
       </c>
+      <c r="FF151" s="2" t="s">
+        <v>2145</v>
+      </c>
+      <c r="FG151" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FO151" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ151" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV151" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GD151" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GJ151" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK151" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GY151" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="152" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:207" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>1073</v>
       </c>
@@ -41576,8 +46864,41 @@
       <c r="FE152" s="2" t="s">
         <v>156</v>
       </c>
+      <c r="FF152" s="2" t="s">
+        <v>2145</v>
+      </c>
+      <c r="FG152" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL152" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN152" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ152" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GJ152" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK152" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL152" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GM152" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GV152" s="2" t="s">
+        <v>2228</v>
+      </c>
+      <c r="GY152" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="153" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:207" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>1078</v>
       </c>
@@ -41832,8 +47153,47 @@
       <c r="FE153" s="2" t="s">
         <v>2122</v>
       </c>
+      <c r="FF153" s="2" t="s">
+        <v>2156</v>
+      </c>
+      <c r="FG153" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL153" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO153" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ153" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV153" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="FZ153" s="2" t="s">
+        <v>2195</v>
+      </c>
+      <c r="GD153" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GJ153" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK153" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL153" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GP153" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="GY153" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="154" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:207" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>1084</v>
       </c>
@@ -42080,8 +47440,44 @@
       <c r="FE154" s="2" t="s">
         <v>2122</v>
       </c>
+      <c r="FF154" s="2" t="s">
+        <v>2156</v>
+      </c>
+      <c r="FG154" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL154" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN154" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ154" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FZ154" s="2" t="s">
+        <v>2195</v>
+      </c>
+      <c r="GD154" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GJ154" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK154" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GM154" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GV154" s="2" t="s">
+        <v>2228</v>
+      </c>
+      <c r="GY154" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="155" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:207" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>1089</v>
       </c>
@@ -42268,8 +47664,32 @@
       <c r="FE155" s="2" t="s">
         <v>2108</v>
       </c>
+      <c r="FF155" s="2" t="s">
+        <v>2146</v>
+      </c>
+      <c r="FG155" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL155" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="GK155" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL155" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GM155" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GQ155" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GY155" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="156" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:207" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>1093</v>
       </c>
@@ -42527,8 +47947,47 @@
       <c r="FE156" s="2" t="s">
         <v>2109</v>
       </c>
+      <c r="FF156" s="2" t="s">
+        <v>2166</v>
+      </c>
+      <c r="FG156" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL156" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN156" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ156" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV156" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GB156" s="2" t="s">
+        <v>2196</v>
+      </c>
+      <c r="GJ156" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK156" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL156" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GM156" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GS156" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY156" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="157" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:207" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>1098</v>
       </c>
@@ -42700,8 +48159,47 @@
       <c r="FE157" s="2" t="s">
         <v>2130</v>
       </c>
+      <c r="FF157" s="2" t="s">
+        <v>2165</v>
+      </c>
+      <c r="FG157" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL157" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN157" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ157" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GB157" s="2" t="s">
+        <v>2196</v>
+      </c>
+      <c r="GG157" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GI157" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="GK157" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL157" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GM157" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GS157" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY157" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="158" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:207" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>1102</v>
       </c>
@@ -42962,8 +48460,29 @@
       <c r="FE158" s="2" t="s">
         <v>2114</v>
       </c>
+      <c r="FF158" s="2" t="s">
+        <v>2167</v>
+      </c>
+      <c r="FG158" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL158" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="GK158" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL158" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GM158" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GY158" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="159" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:207" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>1107</v>
       </c>
@@ -43124,8 +48643,41 @@
       <c r="FE159" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF159" s="2" t="s">
+        <v>2168</v>
+      </c>
+      <c r="FG159" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL159" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN159" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ159" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GD159" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GF159" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="GK159" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL159" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GS159" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY159" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="160" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:207" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>1111</v>
       </c>
@@ -43384,8 +48936,50 @@
       <c r="FE160" s="2" t="s">
         <v>2125</v>
       </c>
+      <c r="FF160" s="2" t="s">
+        <v>2165</v>
+      </c>
+      <c r="FG160" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL160" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN160" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ160" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV160" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GD160" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GF160" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="GJ160" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK160" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL160" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GO160" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="GS160" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY160" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="161" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>1116</v>
       </c>
@@ -43530,8 +49124,44 @@
       <c r="FE161" s="2" t="s">
         <v>2108</v>
       </c>
+      <c r="FF161" s="2" t="s">
+        <v>2146</v>
+      </c>
+      <c r="FG161" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL161" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN161" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FP161" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="GD161" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GF161" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="GJ161" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK161" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL161" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GS161" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY161" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="162" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>1120</v>
       </c>
@@ -43791,8 +49421,35 @@
       <c r="FE162" s="2" t="s">
         <v>2120</v>
       </c>
+      <c r="FF162" s="2" t="s">
+        <v>2169</v>
+      </c>
+      <c r="FG162" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FN162" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ162" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV162" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GD162" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GJ162" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK162" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GY162" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="163" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>1127</v>
       </c>
@@ -43941,8 +49598,47 @@
       <c r="FE163" s="2" t="s">
         <v>2128</v>
       </c>
+      <c r="FF163" s="2" t="s">
+        <v>2158</v>
+      </c>
+      <c r="FG163" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL163" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN163" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ163" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV163" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="FZ163" s="2" t="s">
+        <v>2195</v>
+      </c>
+      <c r="GD163" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GF163" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="GJ163" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK163" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GS163" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY163" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="164" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:208" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>1132</v>
       </c>
@@ -44196,8 +49892,35 @@
       <c r="FE164" s="2" t="s">
         <v>2120</v>
       </c>
+      <c r="FF164" s="2" t="s">
+        <v>2158</v>
+      </c>
+      <c r="FG164" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL164" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN164" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FV164" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GD164" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GF164" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="GG164" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GZ164" s="2" t="s">
+        <v>1492</v>
+      </c>
     </row>
-    <row r="165" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>1137</v>
       </c>
@@ -44429,8 +50152,32 @@
       <c r="FE165" s="2" t="s">
         <v>2120</v>
       </c>
+      <c r="FF165" s="2" t="s">
+        <v>2170</v>
+      </c>
+      <c r="FG165" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL165" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO165" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ165" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV165" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GE165" s="2" t="s">
+        <v>2199</v>
+      </c>
+      <c r="GZ165" s="2" t="s">
+        <v>1492</v>
+      </c>
     </row>
-    <row r="166" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>1142</v>
       </c>
@@ -44589,8 +50336,41 @@
       <c r="FE166" s="2" t="s">
         <v>2109</v>
       </c>
+      <c r="FF166" s="2" t="s">
+        <v>2171</v>
+      </c>
+      <c r="FG166" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL166" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN166" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ166" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV166" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GD166" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GE166" s="2" t="s">
+        <v>2199</v>
+      </c>
+      <c r="GJ166" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK166" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GY166" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="167" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:208" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>1146</v>
       </c>
@@ -44755,8 +50535,38 @@
       <c r="FE167" s="2" t="s">
         <v>2114</v>
       </c>
+      <c r="FF167" s="2" t="s">
+        <v>2158</v>
+      </c>
+      <c r="FG167" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL167" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN167" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ167" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="GD167" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GE167" s="2" t="s">
+        <v>2199</v>
+      </c>
+      <c r="GJ167" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK167" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GY167" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="168" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:208" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>1150</v>
       </c>
@@ -44993,8 +50803,47 @@
       <c r="FE168" s="2" t="s">
         <v>388</v>
       </c>
+      <c r="FF168" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="FG168" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL168" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN168" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ168" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV168" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="FZ168" s="2" t="s">
+        <v>2195</v>
+      </c>
+      <c r="GD168" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GE168" s="2" t="s">
+        <v>2199</v>
+      </c>
+      <c r="GG168" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GI168" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="GK168" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GZ168" s="2" t="s">
+        <v>1492</v>
+      </c>
     </row>
-    <row r="169" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:208" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>1154</v>
       </c>
@@ -45252,8 +51101,35 @@
       <c r="FE169" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF169" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="FG169" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL169" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN169" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FV169" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GF169" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="GG169" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GH169" s="2" t="s">
+        <v>2222</v>
+      </c>
+      <c r="GZ169" s="2" t="s">
+        <v>1492</v>
+      </c>
     </row>
-    <row r="170" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>1161</v>
       </c>
@@ -45507,8 +51383,38 @@
       <c r="FE170" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF170" s="2" t="s">
+        <v>2172</v>
+      </c>
+      <c r="FG170" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL170" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN170" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ170" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV170" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GF170" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="GG170" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GH170" s="2" t="s">
+        <v>2222</v>
+      </c>
+      <c r="GZ170" s="2" t="s">
+        <v>1492</v>
+      </c>
     </row>
-    <row r="171" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:208" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>1166</v>
       </c>
@@ -45650,8 +51556,53 @@
       <c r="FE171" s="2" t="s">
         <v>2109</v>
       </c>
+      <c r="FF171" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="FG171" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL171" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FQ171" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV171" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GF171" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="GG171" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GI171" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="GK171" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GM171" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GP171" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="GQ171" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GR171" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="GS171" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY171" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="172" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:208" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>1170</v>
       </c>
@@ -45794,8 +51745,32 @@
       <c r="FE172" s="2" t="s">
         <v>2122</v>
       </c>
+      <c r="FF172" s="2" t="s">
+        <v>2158</v>
+      </c>
+      <c r="FG172" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL172" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FQ172" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV172" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GJ172" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GM172" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GY172" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="173" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>1174</v>
       </c>
@@ -45948,8 +51923,32 @@
       <c r="FE173" s="2" t="s">
         <v>2109</v>
       </c>
+      <c r="FF173" s="2" t="s">
+        <v>2173</v>
+      </c>
+      <c r="FG173" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL173" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FQ173" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV173" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GJ173" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK173" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GZ173" s="2" t="s">
+        <v>1492</v>
+      </c>
     </row>
-    <row r="174" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:208" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>1180</v>
       </c>
@@ -46109,8 +52108,32 @@
       <c r="FE174" s="2" t="s">
         <v>2108</v>
       </c>
+      <c r="FF174" s="2" t="s">
+        <v>2173</v>
+      </c>
+      <c r="FG174" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FN174" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ174" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV174" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GG174" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GI174" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="GZ174" s="2" t="s">
+        <v>1492</v>
+      </c>
     </row>
-    <row r="175" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>1185</v>
       </c>
@@ -46354,8 +52377,11 @@
       <c r="FE175" s="2" t="s">
         <v>156</v>
       </c>
+      <c r="FF175" s="2" t="s">
+        <v>2173</v>
+      </c>
     </row>
-    <row r="176" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:208" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>1192</v>
       </c>
@@ -46599,8 +52625,11 @@
       <c r="FE176" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF176" s="2" t="s">
+        <v>2158</v>
+      </c>
     </row>
-    <row r="177" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>1196</v>
       </c>
@@ -46753,8 +52782,11 @@
       <c r="FE177" s="2" t="s">
         <v>2109</v>
       </c>
+      <c r="FF177" s="2" t="s">
+        <v>2158</v>
+      </c>
     </row>
-    <row r="178" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>1201</v>
       </c>
@@ -46914,8 +52946,41 @@
       <c r="FE178" s="2" t="s">
         <v>2133</v>
       </c>
+      <c r="FF178" s="2" t="s">
+        <v>2146</v>
+      </c>
+      <c r="FG178" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL178" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO178" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ178" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV178" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GD178" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GE178" s="2" t="s">
+        <v>2199</v>
+      </c>
+      <c r="GG178" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GI178" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="GY178" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="179" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>1206</v>
       </c>
@@ -47078,8 +53143,53 @@
       <c r="FE179" s="2" t="s">
         <v>2109</v>
       </c>
+      <c r="FF179" s="2" t="s">
+        <v>2173</v>
+      </c>
+      <c r="FG179" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK179" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL179" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO179" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ179" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV179" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GB179" s="2" t="s">
+        <v>2196</v>
+      </c>
+      <c r="GE179" s="2" t="s">
+        <v>2199</v>
+      </c>
+      <c r="GK179" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GM179" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GP179" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="GQ179" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GV179" s="2" t="s">
+        <v>2228</v>
+      </c>
+      <c r="GY179" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="180" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:208" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>1212</v>
       </c>
@@ -47231,8 +53341,41 @@
       <c r="FE180" s="2" t="s">
         <v>2108</v>
       </c>
+      <c r="FF180" s="2" t="s">
+        <v>2173</v>
+      </c>
+      <c r="FG180" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL180" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN180" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ180" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV180" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GD180" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GF180" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="GJ180" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK180" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GY180" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="181" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:208" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>1218</v>
       </c>
@@ -47384,8 +53527,41 @@
       <c r="FE181" s="2" t="s">
         <v>2109</v>
       </c>
+      <c r="FF181" s="2" t="s">
+        <v>2173</v>
+      </c>
+      <c r="FG181" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FN181" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ181" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV181" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="FX181" s="2" t="s">
+        <v>2193</v>
+      </c>
+      <c r="GF181" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="GG181" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GI181" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="GK181" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GY181" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="182" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>1222</v>
       </c>
@@ -47533,8 +53709,44 @@
       <c r="FE182" s="2" t="s">
         <v>2119</v>
       </c>
+      <c r="FF182" s="2" t="s">
+        <v>2158</v>
+      </c>
+      <c r="FG182" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL182" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN182" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ182" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV182" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GD182" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GF182" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="GJ182" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK182" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GQ182" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GZ182" s="2" t="s">
+        <v>1492</v>
+      </c>
     </row>
-    <row r="183" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>1226</v>
       </c>
@@ -47686,8 +53898,38 @@
       <c r="FE183" s="2" t="s">
         <v>156</v>
       </c>
+      <c r="FF183" s="2" t="s">
+        <v>2173</v>
+      </c>
+      <c r="FG183" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK183" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL183" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN183" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ183" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV183" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GD183" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GJ183" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GY183" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="184" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:208" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>1231</v>
       </c>
@@ -47850,8 +54092,53 @@
       <c r="FE184" s="2" t="s">
         <v>2122</v>
       </c>
+      <c r="FF184" s="2" t="s">
+        <v>2173</v>
+      </c>
+      <c r="FG184" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK184" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL184" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN184" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ184" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV184" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GD184" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GG184" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GI184" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="GM184" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GQ184" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GR184" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="GV184" s="2" t="s">
+        <v>2228</v>
+      </c>
+      <c r="GX184" s="2" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="185" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>1235</v>
       </c>
@@ -47998,8 +54285,38 @@
       <c r="FE185" s="2" t="s">
         <v>388</v>
       </c>
+      <c r="FF185" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="FG185" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL185" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN185" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ185" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV185" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GD185" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GJ185" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK185" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GY185" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="186" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>1239</v>
       </c>
@@ -48141,8 +54458,32 @@
       <c r="FE186" s="2" t="s">
         <v>388</v>
       </c>
+      <c r="FF186" s="2" t="s">
+        <v>2173</v>
+      </c>
+      <c r="FL186" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO186" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ186" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV186" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GD186" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GJ186" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GZ186" s="2" t="s">
+        <v>1492</v>
+      </c>
     </row>
-    <row r="187" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:208" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>1243</v>
       </c>
@@ -48288,8 +54629,62 @@
       <c r="FE187" s="2" t="s">
         <v>388</v>
       </c>
+      <c r="FF187" s="2" t="s">
+        <v>2173</v>
+      </c>
+      <c r="FG187" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK187" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL187" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN187" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ187" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV187" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GD187" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GG187" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GI187" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="GM187" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GN187" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="GO187" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="GP187" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="GQ187" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GR187" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="GT187" s="2" t="s">
+        <v>2227</v>
+      </c>
+      <c r="GX187" s="2" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="188" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>1247</v>
       </c>
@@ -48459,8 +54854,44 @@
       <c r="FE188" s="2" t="s">
         <v>2131</v>
       </c>
+      <c r="FF188" s="2" t="s">
+        <v>2158</v>
+      </c>
+      <c r="FG188" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL188" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO188" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ188" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV188" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GF188" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="GJ188" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK188" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GM188" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GQ188" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GX188" s="2" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="189" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>1252</v>
       </c>
@@ -48720,8 +55151,38 @@
       <c r="FE189" s="2" t="s">
         <v>2109</v>
       </c>
+      <c r="FF189" s="2" t="s">
+        <v>2173</v>
+      </c>
+      <c r="FG189" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL189" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN189" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ189" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV189" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GJ189" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GQ189" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GT189" s="2" t="s">
+        <v>2227</v>
+      </c>
+      <c r="GY189" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="190" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:208" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>1257</v>
       </c>
@@ -48904,8 +55365,38 @@
       <c r="FE190" s="2" t="s">
         <v>156</v>
       </c>
+      <c r="FF190" s="2" t="s">
+        <v>2173</v>
+      </c>
+      <c r="FG190" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL190" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN190" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ190" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV190" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GD190" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GJ190" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK190" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GY190" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="191" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>1260</v>
       </c>
@@ -49059,8 +55550,11 @@
       <c r="FE191" s="2" t="s">
         <v>2109</v>
       </c>
+      <c r="FF191" s="2" t="s">
+        <v>2174</v>
+      </c>
     </row>
-    <row r="192" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:208" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>1265</v>
       </c>
@@ -49304,8 +55798,53 @@
       <c r="FE192" s="2" t="s">
         <v>2122</v>
       </c>
+      <c r="FF192" s="2" t="s">
+        <v>2173</v>
+      </c>
+      <c r="FG192" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL192" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN192" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ192" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV192" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GD192" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GJ192" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK192" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL192" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GM192" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GQ192" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GR192" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="GS192" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GX192" s="2" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="193" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:209" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>1270</v>
       </c>
@@ -49473,8 +56012,44 @@
       <c r="FE193" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF193" s="2" t="s">
+        <v>2173</v>
+      </c>
+      <c r="FG193" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL193" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN193" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ193" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV193" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GD193" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GJ193" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK193" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GQ193" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GR193" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="GY193" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="194" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:209" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>1274</v>
       </c>
@@ -49719,8 +56294,11 @@
       <c r="FE194" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF194" s="2" t="s">
+        <v>2173</v>
+      </c>
     </row>
-    <row r="195" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:209" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>1278</v>
       </c>
@@ -49873,8 +56451,35 @@
       <c r="FE195" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF195" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="FG195" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL195" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN195" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ195" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV195" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GD195" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GJ195" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GZ195" s="2" t="s">
+        <v>1492</v>
+      </c>
     </row>
-    <row r="196" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:209" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>1283</v>
       </c>
@@ -50028,8 +56633,38 @@
       <c r="FE196" s="2" t="s">
         <v>2108</v>
       </c>
+      <c r="FF196" s="2" t="s">
+        <v>2156</v>
+      </c>
+      <c r="FG196" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL196" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO196" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ196" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV196" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GD196" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GG196" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GH196" s="2" t="s">
+        <v>2222</v>
+      </c>
+      <c r="GZ196" s="2" t="s">
+        <v>1492</v>
+      </c>
     </row>
-    <row r="197" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:209" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>1306</v>
       </c>
@@ -50279,8 +56914,38 @@
       <c r="FE197" s="2" t="s">
         <v>2127</v>
       </c>
+      <c r="FF197" s="2" t="s">
+        <v>2156</v>
+      </c>
+      <c r="FG197" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL197" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO197" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ197" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV197" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GD197" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GG197" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GH197" s="2" t="s">
+        <v>2222</v>
+      </c>
+      <c r="GZ197" s="2" t="s">
+        <v>1492</v>
+      </c>
     </row>
-    <row r="198" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:209" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>1295</v>
       </c>
@@ -50544,8 +57209,50 @@
       <c r="FE198" s="2" t="s">
         <v>2128</v>
       </c>
+      <c r="FF198" s="2" t="s">
+        <v>2156</v>
+      </c>
+      <c r="FG198" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL198" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FV198" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GD198" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GG198" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GI198" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="GK198" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL198" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GM198" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GP198" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="GQ198" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GS198" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY198" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="199" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:209" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>1301</v>
       </c>
@@ -50703,8 +57410,35 @@
       <c r="FE199" s="2" t="s">
         <v>156</v>
       </c>
+      <c r="FF199" s="2" t="s">
+        <v>2156</v>
+      </c>
+      <c r="FG199" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL199" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FO199" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="FQ199" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV199" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GD199" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GJ199" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GZ199" s="2" t="s">
+        <v>1492</v>
+      </c>
     </row>
-    <row r="200" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:209" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>1311</v>
       </c>
@@ -50865,8 +57599,11 @@
       <c r="FE200" s="2" t="s">
         <v>388</v>
       </c>
+      <c r="FF200" s="2" t="s">
+        <v>2156</v>
+      </c>
     </row>
-    <row r="201" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:209" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>940</v>
       </c>
@@ -51107,8 +57844,41 @@
       <c r="FE201" s="2" t="s">
         <v>2108</v>
       </c>
+      <c r="FF201" s="2" t="s">
+        <v>2156</v>
+      </c>
+      <c r="FG201" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK201" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL201" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN201" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FV201" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GJ201" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="GK201" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GM201" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GQ201" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GY201" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="202" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:209" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>1316</v>
       </c>
@@ -51265,8 +58035,65 @@
       <c r="FE202" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF202" s="2" t="s">
+        <v>2175</v>
+      </c>
+      <c r="FG202" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK202" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FM202" s="2" t="s">
+        <v>2182</v>
+      </c>
+      <c r="FN202" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FP202" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="FR202" s="2" t="s">
+        <v>2186</v>
+      </c>
+      <c r="FW202" s="2" t="s">
+        <v>2192</v>
+      </c>
+      <c r="GF202" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="GG202" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GK202" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GL202" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GN202" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="GO202" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="GQ202" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GR202" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="GS202" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GV202" s="2" t="s">
+        <v>2228</v>
+      </c>
+      <c r="GX202" s="2" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="203" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:209" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>1344</v>
       </c>
@@ -51419,8 +58246,65 @@
       <c r="FE203" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF203" s="2" t="s">
+        <v>2158</v>
+      </c>
+      <c r="FG203" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FK203" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="FL203" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FM203" s="2" t="s">
+        <v>2182</v>
+      </c>
+      <c r="FN203" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FP203" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="FR203" s="2" t="s">
+        <v>2186</v>
+      </c>
+      <c r="FW203" s="2" t="s">
+        <v>2192</v>
+      </c>
+      <c r="GF203" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="GG203" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GL203" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="GM203" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GN203" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="GO203" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="GP203" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="GR203" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="GS203" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="GY203" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="204" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:209" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>1288</v>
       </c>
@@ -51677,8 +58561,38 @@
       <c r="FE204" s="2" t="s">
         <v>388</v>
       </c>
+      <c r="FF204" s="2" t="s">
+        <v>2158</v>
+      </c>
+      <c r="FG204" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL204" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN204" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FQ204" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV204" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GD204" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GG204" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GH204" s="2" t="s">
+        <v>2222</v>
+      </c>
+      <c r="GZ204" s="2" t="s">
+        <v>1492</v>
+      </c>
     </row>
-    <row r="205" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:209" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>1348</v>
       </c>
@@ -51939,8 +58853,14 @@
       <c r="FE205" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF205" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="HA205" s="2" t="s">
+        <v>330</v>
+      </c>
     </row>
-    <row r="206" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:209" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>1357</v>
       </c>
@@ -52187,8 +59107,56 @@
       <c r="FE206" s="2" t="s">
         <v>2114</v>
       </c>
+      <c r="FF206" s="2" t="s">
+        <v>2158</v>
+      </c>
+      <c r="FG206" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL206" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FV206" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GD206" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GG206" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GH206" s="2" t="s">
+        <v>2222</v>
+      </c>
+      <c r="GK206" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="GM206" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="GN206" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="GO206" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="GP206" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="GQ206" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="GR206" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="GV206" s="2" t="s">
+        <v>2228</v>
+      </c>
+      <c r="GX206" s="2" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="207" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:209" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>1363</v>
       </c>
@@ -52437,8 +59405,32 @@
       <c r="FE207" s="2" t="s">
         <v>2106</v>
       </c>
+      <c r="FF207" s="2" t="s">
+        <v>2164</v>
+      </c>
+      <c r="FG207" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL207" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FV207" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GD207" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="GG207" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GH207" s="2" t="s">
+        <v>2222</v>
+      </c>
+      <c r="GY207" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="208" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:209" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>1369</v>
       </c>
@@ -52689,8 +59681,35 @@
       <c r="FE208" s="2" t="s">
         <v>156</v>
       </c>
+      <c r="FF208" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="FG208" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL208" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FM208" s="2" t="s">
+        <v>2182</v>
+      </c>
+      <c r="FQ208" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="FV208" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GG208" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GH208" s="2" t="s">
+        <v>2222</v>
+      </c>
+      <c r="GY208" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="209" spans="1:161" ht="17" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:207" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>1376</v>
       </c>
@@ -52948,12 +59967,36 @@
       <c r="FE209" s="2" t="s">
         <v>2122</v>
       </c>
+      <c r="FF209" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="FG209" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="FL209" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="FN209" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="FV209" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="GG209" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="GH209" s="2" t="s">
+        <v>2222</v>
+      </c>
+      <c r="GY209" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:FB209" xr:uid="{41110769-F909-4249-923C-C513B87E37AD}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:FB209">
-      <sortCondition ref="K1:K209"/>
-    </sortState>
+  <autoFilter ref="A1:GZ209" xr:uid="{41110769-F909-4249-923C-C513B87E37AD}">
+    <filterColumn colId="188">
+      <filters blank="1"/>
+    </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cleaning_data/ManuallyCleanedData.xlsx
+++ b/Cleaning_data/ManuallyCleanedData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samy/Desktop/S3/Data-Science-Project/Cleaning_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBEDAFA-FFA7-BD41-A1FE-82D9844BB7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C6C41A-1019-1C4F-8E6A-29AA0D210275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{CD9CC8B6-7F43-9E44-8EF2-1878F1CC02BE}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13645" uniqueCount="2251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13854" uniqueCount="2274">
   <si>
     <t>accession no</t>
   </si>
@@ -6857,6 +6857,75 @@
   </si>
   <si>
     <t>at the support layer_x001D_small fragments at crack junction</t>
+  </si>
+  <si>
+    <t>canvas</t>
+  </si>
+  <si>
+    <t>cotton_x001D_</t>
+  </si>
+  <si>
+    <t>cotton_x001D_id by microscopy</t>
+  </si>
+  <si>
+    <t>linen_x001D_</t>
+  </si>
+  <si>
+    <t>bast_x001D_id by microscopy</t>
+  </si>
+  <si>
+    <t>cotton attached to board_x001D_id by microscopy</t>
+  </si>
+  <si>
+    <t>linen_x001D_id by microscopy</t>
+  </si>
+  <si>
+    <t>linen attached to board_x001D_</t>
+  </si>
+  <si>
+    <t>cotton attached to board_x001D_</t>
+  </si>
+  <si>
+    <t>linen_x001D_cotton &amp; possibly linen</t>
+  </si>
+  <si>
+    <t>bast attached to board_x001D_</t>
+  </si>
+  <si>
+    <t>bast_x001D_</t>
+  </si>
+  <si>
+    <t>bast attached to board_x001D_id by microscopy</t>
+  </si>
+  <si>
+    <t>linen attached to board_x001D_polyester lining</t>
+  </si>
+  <si>
+    <t>cotton_x001D_etude or pochade</t>
+  </si>
+  <si>
+    <t>cotton_x001D_id by sight</t>
+  </si>
+  <si>
+    <t>linen_x001D_etude or pochade</t>
+  </si>
+  <si>
+    <t>linen_x001D_id by sight</t>
+  </si>
+  <si>
+    <t>cotton_x001D_secondary support &amp; adhesive</t>
+  </si>
+  <si>
+    <t>linen_x001D_linen &amp; cotton</t>
+  </si>
+  <si>
+    <t>linen_x001D_lining canvas linen</t>
+  </si>
+  <si>
+    <t>linen_x001D_lining canvas: linen</t>
+  </si>
+  <si>
+    <t>cotton_x001D_blue thread along side edges, upholstery material</t>
   </si>
 </sst>
 </file>
@@ -7265,10 +7334,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41110769-F909-4249-923C-C513B87E37AD}">
-  <dimension ref="A1:HB209"/>
+  <dimension ref="A1:HC209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="FD1" workbookViewId="0">
-      <selection activeCell="FD11" sqref="FD11"/>
+    <sheetView tabSelected="1" topLeftCell="GU1" workbookViewId="0">
+      <selection activeCell="HB13" sqref="HB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7327,7 +7396,7 @@
     <col min="164" max="210" width="18.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:210" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7952,8 +8021,11 @@
       <c r="HB1" s="1" t="s">
         <v>2202</v>
       </c>
+      <c r="HC1" s="1" t="s">
+        <v>2251</v>
+      </c>
     </row>
-    <row r="2" spans="1:210" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>78</v>
       </c>
@@ -8302,8 +8374,11 @@
       <c r="GZ2" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC2" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="3" spans="1:210" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>99</v>
       </c>
@@ -8628,8 +8703,11 @@
       <c r="GZ3" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC3" s="2" t="s">
+        <v>2253</v>
+      </c>
     </row>
-    <row r="4" spans="1:210" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>112</v>
       </c>
@@ -8951,8 +9029,11 @@
       <c r="GY4" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="HC4" s="2" t="s">
+        <v>2253</v>
+      </c>
     </row>
-    <row r="5" spans="1:210" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>121</v>
       </c>
@@ -9298,8 +9379,11 @@
       <c r="GY5" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="HC5" s="2" t="s">
+        <v>2253</v>
+      </c>
     </row>
-    <row r="6" spans="1:210" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>130</v>
       </c>
@@ -9615,8 +9699,11 @@
       <c r="GZ6" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC6" s="2" t="s">
+        <v>2254</v>
+      </c>
     </row>
-    <row r="7" spans="1:210" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>140</v>
       </c>
@@ -9934,8 +10021,11 @@
       <c r="GZ7" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC7" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="8" spans="1:210" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>147</v>
       </c>
@@ -10270,8 +10360,11 @@
       <c r="GZ8" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC8" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="9" spans="1:210" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>156</v>
       </c>
@@ -10599,8 +10692,11 @@
       <c r="GZ9" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC9" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="10" spans="1:210" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>167</v>
       </c>
@@ -10942,8 +11038,11 @@
       <c r="GZ10" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC10" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="11" spans="1:210" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>2204</v>
       </c>
@@ -11268,8 +11367,11 @@
       <c r="GZ11" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC11" s="2" t="s">
+        <v>2253</v>
+      </c>
     </row>
-    <row r="12" spans="1:210" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>1311</v>
       </c>
@@ -11458,8 +11560,11 @@
       <c r="GZ12" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC12" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="13" spans="1:210" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>182</v>
       </c>
@@ -11799,8 +11904,11 @@
       <c r="GZ13" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC13" s="2" t="s">
+        <v>2253</v>
+      </c>
     </row>
-    <row r="14" spans="1:210" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>191</v>
       </c>
@@ -12101,8 +12209,11 @@
       <c r="GZ14" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC14" s="2" t="s">
+        <v>2253</v>
+      </c>
     </row>
-    <row r="15" spans="1:210" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>197</v>
       </c>
@@ -12423,8 +12534,11 @@
       <c r="GZ15" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC15" s="2" t="s">
+        <v>2253</v>
+      </c>
     </row>
-    <row r="16" spans="1:210" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>205</v>
       </c>
@@ -12771,8 +12885,11 @@
       <c r="GX16" s="2" t="s">
         <v>111</v>
       </c>
+      <c r="HC16" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="17" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>213</v>
       </c>
@@ -13049,8 +13166,11 @@
       <c r="FG17" s="2" t="s">
         <v>2110</v>
       </c>
+      <c r="HC17" s="2" t="s">
+        <v>2253</v>
+      </c>
     </row>
-    <row r="18" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>220</v>
       </c>
@@ -13354,8 +13474,11 @@
       <c r="GZ18" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC18" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="19" spans="1:208" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:211" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>474</v>
       </c>
@@ -13495,8 +13618,11 @@
       <c r="FG19" s="2" t="s">
         <v>2111</v>
       </c>
+      <c r="HC19" s="2" t="s">
+        <v>2254</v>
+      </c>
     </row>
-    <row r="20" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>227</v>
       </c>
@@ -13778,8 +13904,11 @@
       <c r="GY20" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="HC20" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="21" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>237</v>
       </c>
@@ -14041,8 +14170,11 @@
       <c r="GZ21" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC21" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="22" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>244</v>
       </c>
@@ -14359,8 +14491,11 @@
       <c r="GZ22" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC22" s="2" t="s">
+        <v>2253</v>
+      </c>
     </row>
-    <row r="23" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>250</v>
       </c>
@@ -14663,8 +14798,11 @@
       <c r="GZ23" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC23" s="2" t="s">
+        <v>2255</v>
+      </c>
     </row>
-    <row r="24" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>1304</v>
       </c>
@@ -14867,8 +15005,11 @@
       <c r="GY24" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="HC24" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="25" spans="1:208" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>256</v>
       </c>
@@ -15071,8 +15212,11 @@
       <c r="GZ25" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC25" s="2" t="s">
+        <v>2256</v>
+      </c>
     </row>
-    <row r="26" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>264</v>
       </c>
@@ -15386,8 +15530,11 @@
       <c r="GY26" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="HC26" s="2" t="s">
+        <v>2253</v>
+      </c>
     </row>
-    <row r="27" spans="1:208" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>271</v>
       </c>
@@ -15576,8 +15723,11 @@
       <c r="FM27" s="2" t="s">
         <v>2151</v>
       </c>
+      <c r="HC27" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="28" spans="1:208" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>280</v>
       </c>
@@ -15864,8 +16014,11 @@
       <c r="FG28" s="2" t="s">
         <v>2110</v>
       </c>
+      <c r="HC28" s="2" t="s">
+        <v>2257</v>
+      </c>
     </row>
-    <row r="29" spans="1:208" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>291</v>
       </c>
@@ -16148,8 +16301,11 @@
       <c r="FG29" s="2" t="s">
         <v>2110</v>
       </c>
+      <c r="HC29" s="2" t="s">
+        <v>2255</v>
+      </c>
     </row>
-    <row r="30" spans="1:208" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>298</v>
       </c>
@@ -16417,8 +16573,11 @@
       <c r="FG30" s="2" t="s">
         <v>2110</v>
       </c>
+      <c r="HC30" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="31" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>306</v>
       </c>
@@ -16719,8 +16878,11 @@
       <c r="GZ31" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC31" s="2" t="s">
+        <v>2254</v>
+      </c>
     </row>
-    <row r="32" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>316</v>
       </c>
@@ -16925,8 +17087,11 @@
       <c r="GZ32" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC32" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="33" spans="1:209" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>324</v>
       </c>
@@ -17170,8 +17335,11 @@
       <c r="FG33" s="2" t="s">
         <v>2110</v>
       </c>
+      <c r="HC33" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="34" spans="1:209" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>331</v>
       </c>
@@ -17409,8 +17577,11 @@
       <c r="FG34" s="2" t="s">
         <v>2110</v>
       </c>
+      <c r="HC34" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="35" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>339</v>
       </c>
@@ -17600,8 +17771,11 @@
       <c r="GZ35" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC35" s="2" t="s">
+        <v>2258</v>
+      </c>
     </row>
-    <row r="36" spans="1:209" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>347</v>
       </c>
@@ -17905,8 +18079,11 @@
       <c r="GZ36" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC36" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="37" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>354</v>
       </c>
@@ -18185,8 +18362,11 @@
       <c r="HA37" s="2" t="s">
         <v>1462</v>
       </c>
+      <c r="HC37" s="2" t="s">
+        <v>2254</v>
+      </c>
     </row>
-    <row r="38" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>361</v>
       </c>
@@ -18469,8 +18649,11 @@
       <c r="HA38" s="2" t="s">
         <v>1462</v>
       </c>
+      <c r="HC38" s="2" t="s">
+        <v>2254</v>
+      </c>
     </row>
-    <row r="39" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>367</v>
       </c>
@@ -18747,8 +18930,11 @@
       <c r="HA39" s="2" t="s">
         <v>1462</v>
       </c>
+      <c r="HC39" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="40" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>374</v>
       </c>
@@ -19057,8 +19243,11 @@
       <c r="GZ40" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC40" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="41" spans="1:209" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>383</v>
       </c>
@@ -19364,8 +19553,11 @@
       <c r="GZ41" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC41" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="42" spans="1:209" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>391</v>
       </c>
@@ -19635,8 +19827,11 @@
       <c r="FG42" s="2" t="s">
         <v>2110</v>
       </c>
+      <c r="HC42" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="43" spans="1:209" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>400</v>
       </c>
@@ -19920,8 +20115,11 @@
       <c r="GZ43" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC43" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="44" spans="1:209" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>408</v>
       </c>
@@ -20129,8 +20327,11 @@
       <c r="GZ44" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC44" s="2" t="s">
+        <v>2259</v>
+      </c>
     </row>
-    <row r="45" spans="1:209" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>417</v>
       </c>
@@ -20429,8 +20630,11 @@
       <c r="GZ45" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC45" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="46" spans="1:209" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>423</v>
       </c>
@@ -20576,8 +20780,11 @@
       <c r="FG46" s="2" t="s">
         <v>2110</v>
       </c>
+      <c r="HC46" s="2" t="s">
+        <v>2259</v>
+      </c>
     </row>
-    <row r="47" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>429</v>
       </c>
@@ -20758,8 +20965,11 @@
       <c r="GZ47" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC47" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="48" spans="1:209" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>437</v>
       </c>
@@ -21031,8 +21241,11 @@
       <c r="GI48" s="2" t="s">
         <v>2192</v>
       </c>
+      <c r="HC48" s="2" t="s">
+        <v>2260</v>
+      </c>
     </row>
-    <row r="49" spans="1:208" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>1358</v>
       </c>
@@ -21278,8 +21491,11 @@
       <c r="FG49" s="2" t="s">
         <v>2110</v>
       </c>
+      <c r="HC49" s="2" t="s">
+        <v>2254</v>
+      </c>
     </row>
-    <row r="50" spans="1:208" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>443</v>
       </c>
@@ -21499,8 +21715,11 @@
       <c r="GZ50" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC50" s="2" t="s">
+        <v>2258</v>
+      </c>
     </row>
-    <row r="51" spans="1:208" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>450</v>
       </c>
@@ -21719,8 +21938,11 @@
       <c r="GZ51" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC51" s="2" t="s">
+        <v>2259</v>
+      </c>
     </row>
-    <row r="52" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>459</v>
       </c>
@@ -21994,8 +22216,11 @@
       <c r="FG52" s="2" t="s">
         <v>2110</v>
       </c>
+      <c r="HC52" s="2" t="s">
+        <v>2254</v>
+      </c>
     </row>
-    <row r="53" spans="1:208" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>465</v>
       </c>
@@ -22213,8 +22438,11 @@
       <c r="GK53" s="2" t="s">
         <v>2175</v>
       </c>
+      <c r="HC53" s="2" t="s">
+        <v>2259</v>
+      </c>
     </row>
-    <row r="54" spans="1:208" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>473</v>
       </c>
@@ -22401,8 +22629,11 @@
       <c r="FG54" s="2" t="s">
         <v>2110</v>
       </c>
+      <c r="HC54" s="2" t="s">
+        <v>2259</v>
+      </c>
     </row>
-    <row r="55" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>479</v>
       </c>
@@ -22719,8 +22950,11 @@
       <c r="GZ55" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC55" s="2" t="s">
+        <v>2254</v>
+      </c>
     </row>
-    <row r="56" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>485</v>
       </c>
@@ -23033,8 +23267,11 @@
       <c r="GZ56" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC56" s="2" t="s">
+        <v>2254</v>
+      </c>
     </row>
-    <row r="57" spans="1:208" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>489</v>
       </c>
@@ -23258,8 +23495,11 @@
       <c r="GZ57" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC57" s="2" t="s">
+        <v>2258</v>
+      </c>
     </row>
-    <row r="58" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>494</v>
       </c>
@@ -23564,8 +23804,11 @@
       <c r="GZ58" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC58" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="59" spans="1:208" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>501</v>
       </c>
@@ -23762,8 +24005,11 @@
       <c r="FG59" s="2" t="s">
         <v>2110</v>
       </c>
+      <c r="HC59" s="2" t="s">
+        <v>2258</v>
+      </c>
     </row>
-    <row r="60" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>509</v>
       </c>
@@ -23968,8 +24214,11 @@
       <c r="GZ60" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC60" s="2" t="s">
+        <v>2259</v>
+      </c>
     </row>
-    <row r="61" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>514</v>
       </c>
@@ -24185,8 +24434,11 @@
       <c r="GZ61" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC61" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="62" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>522</v>
       </c>
@@ -24402,8 +24654,11 @@
       <c r="GZ62" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC62" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="63" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>524</v>
       </c>
@@ -24614,8 +24869,11 @@
       <c r="GZ63" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC63" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="64" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>530</v>
       </c>
@@ -24839,8 +25097,11 @@
       <c r="GZ64" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC64" s="2" t="s">
+        <v>2259</v>
+      </c>
     </row>
-    <row r="65" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>535</v>
       </c>
@@ -25118,8 +25379,11 @@
       <c r="GZ65" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC65" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="66" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>541</v>
       </c>
@@ -25311,8 +25575,11 @@
       <c r="GZ66" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC66" s="2" t="s">
+        <v>2261</v>
+      </c>
     </row>
-    <row r="67" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>547</v>
       </c>
@@ -25519,8 +25786,11 @@
       <c r="GZ67" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC67" s="2" t="s">
+        <v>2259</v>
+      </c>
     </row>
-    <row r="68" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>553</v>
       </c>
@@ -25713,8 +25983,11 @@
       <c r="HA68" s="2" t="s">
         <v>1462</v>
       </c>
+      <c r="HC68" s="2" t="s">
+        <v>2259</v>
+      </c>
     </row>
-    <row r="69" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>558</v>
       </c>
@@ -26018,8 +26291,11 @@
       <c r="HA69" s="2" t="s">
         <v>1462</v>
       </c>
+      <c r="HC69" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="70" spans="1:209" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>564</v>
       </c>
@@ -26224,8 +26500,11 @@
       <c r="GZ70" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC70" s="2" t="s">
+        <v>2259</v>
+      </c>
     </row>
-    <row r="71" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>571</v>
       </c>
@@ -26427,8 +26706,11 @@
       <c r="GZ71" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC71" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="72" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>578</v>
       </c>
@@ -26639,8 +26921,11 @@
       <c r="HA72" s="2" t="s">
         <v>1462</v>
       </c>
+      <c r="HC72" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="73" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>585</v>
       </c>
@@ -26875,8 +27160,11 @@
       <c r="GZ73" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC73" s="2" t="s">
+        <v>2259</v>
+      </c>
     </row>
-    <row r="74" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
         <v>228</v>
       </c>
@@ -27190,8 +27478,11 @@
       <c r="GZ74" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC74" s="2" t="s">
+        <v>2254</v>
+      </c>
     </row>
-    <row r="75" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>590</v>
       </c>
@@ -27388,8 +27679,11 @@
       <c r="GZ75" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC75" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="76" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>597</v>
       </c>
@@ -27715,8 +28009,11 @@
       <c r="GZ76" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC76" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="77" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>607</v>
       </c>
@@ -27961,8 +28258,11 @@
       <c r="GX77" s="2" t="s">
         <v>111</v>
       </c>
+      <c r="HC77" s="2" t="s">
+        <v>2256</v>
+      </c>
     </row>
-    <row r="78" spans="1:209" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>612</v>
       </c>
@@ -28211,8 +28511,11 @@
       <c r="GZ78" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC78" s="2" t="s">
+        <v>2259</v>
+      </c>
     </row>
-    <row r="79" spans="1:209" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>618</v>
       </c>
@@ -28523,8 +28826,11 @@
       <c r="GZ79" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC79" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="80" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>624</v>
       </c>
@@ -28858,8 +29164,11 @@
       <c r="GZ80" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC80" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="81" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>630</v>
       </c>
@@ -29060,8 +29369,11 @@
       <c r="GZ81" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC81" s="2" t="s">
+        <v>2259</v>
+      </c>
     </row>
-    <row r="82" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>634</v>
       </c>
@@ -29342,8 +29654,11 @@
       <c r="GZ82" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC82" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="83" spans="1:208" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>1294</v>
       </c>
@@ -29614,8 +29929,11 @@
       <c r="GX83" s="2" t="s">
         <v>111</v>
       </c>
+      <c r="HC83" s="2" t="s">
+        <v>2259</v>
+      </c>
     </row>
-    <row r="84" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>640</v>
       </c>
@@ -29905,8 +30223,11 @@
       <c r="GZ84" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC84" s="2" t="s">
+        <v>2262</v>
+      </c>
     </row>
-    <row r="85" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>644</v>
       </c>
@@ -30196,8 +30517,11 @@
       <c r="GZ85" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC85" s="2" t="s">
+        <v>2255</v>
+      </c>
     </row>
-    <row r="86" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>649</v>
       </c>
@@ -30515,8 +30839,11 @@
       <c r="GZ86" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC86" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="87" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>653</v>
       </c>
@@ -30742,8 +31069,11 @@
       <c r="GY87" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="HC87" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="88" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>657</v>
       </c>
@@ -30966,8 +31296,11 @@
       <c r="GZ88" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC88" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="89" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>663</v>
       </c>
@@ -31187,8 +31520,11 @@
       <c r="GZ89" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC89" s="2" t="s">
+        <v>2258</v>
+      </c>
     </row>
-    <row r="90" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>669</v>
       </c>
@@ -31431,8 +31767,11 @@
       <c r="GZ90" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC90" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="91" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>674</v>
       </c>
@@ -31727,8 +32066,11 @@
       <c r="GY91" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="HC91" s="2" t="s">
+        <v>2259</v>
+      </c>
     </row>
-    <row r="92" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>680</v>
       </c>
@@ -32043,8 +32385,11 @@
       <c r="GZ92" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC92" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="93" spans="1:208" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>687</v>
       </c>
@@ -32268,8 +32613,11 @@
       <c r="GY93" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="HC93" s="2" t="s">
+        <v>2263</v>
+      </c>
     </row>
-    <row r="94" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>693</v>
       </c>
@@ -32591,8 +32939,11 @@
       <c r="GZ94" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC94" s="2" t="s">
+        <v>2262</v>
+      </c>
     </row>
-    <row r="95" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>700</v>
       </c>
@@ -32810,8 +33161,11 @@
       <c r="GZ95" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC95" s="2" t="s">
+        <v>2264</v>
+      </c>
     </row>
-    <row r="96" spans="1:208" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>707</v>
       </c>
@@ -33000,8 +33354,11 @@
       <c r="GY96" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="HC96" s="2" t="s">
+        <v>2258</v>
+      </c>
     </row>
-    <row r="97" spans="1:209" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>714</v>
       </c>
@@ -33278,8 +33635,11 @@
       <c r="GU97" s="2" t="s">
         <v>2197</v>
       </c>
+      <c r="HC97" s="2" t="s">
+        <v>2254</v>
+      </c>
     </row>
-    <row r="98" spans="1:209" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>722</v>
       </c>
@@ -33532,8 +33892,11 @@
       <c r="GZ98" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC98" s="2" t="s">
+        <v>2254</v>
+      </c>
     </row>
-    <row r="99" spans="1:209" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>730</v>
       </c>
@@ -33854,8 +34217,11 @@
       <c r="GZ99" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC99" s="2" t="s">
+        <v>2254</v>
+      </c>
     </row>
-    <row r="100" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>739</v>
       </c>
@@ -34128,8 +34494,11 @@
       <c r="GZ100" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC100" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="101" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>748</v>
       </c>
@@ -34470,8 +34839,11 @@
       <c r="GY101" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="HC101" s="2" t="s">
+        <v>2265</v>
+      </c>
     </row>
-    <row r="102" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>755</v>
       </c>
@@ -34785,8 +35157,11 @@
       <c r="GX102" s="2" t="s">
         <v>111</v>
       </c>
+      <c r="HC102" s="2" t="s">
+        <v>2265</v>
+      </c>
     </row>
-    <row r="103" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>762</v>
       </c>
@@ -35062,8 +35437,11 @@
       <c r="GZ103" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC103" s="2" t="s">
+        <v>2265</v>
+      </c>
     </row>
-    <row r="104" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>768</v>
       </c>
@@ -35343,8 +35721,11 @@
       <c r="HA104" s="2" t="s">
         <v>1462</v>
       </c>
+      <c r="HC104" s="2" t="s">
+        <v>2262</v>
+      </c>
     </row>
-    <row r="105" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>775</v>
       </c>
@@ -35639,8 +36020,11 @@
       <c r="GZ105" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC105" s="2" t="s">
+        <v>2253</v>
+      </c>
     </row>
-    <row r="106" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>784</v>
       </c>
@@ -35913,8 +36297,11 @@
       <c r="GJ106" s="2" t="s">
         <v>2174</v>
       </c>
+      <c r="HC106" s="2" t="s">
+        <v>2255</v>
+      </c>
     </row>
-    <row r="107" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>791</v>
       </c>
@@ -36236,8 +36623,11 @@
       <c r="GZ107" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC107" s="2" t="s">
+        <v>2254</v>
+      </c>
     </row>
-    <row r="108" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>798</v>
       </c>
@@ -36539,8 +36929,11 @@
       <c r="GZ108" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC108" s="2" t="s">
+        <v>2266</v>
+      </c>
     </row>
-    <row r="109" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>806</v>
       </c>
@@ -36884,8 +37277,11 @@
       <c r="GZ109" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC109" s="2" t="s">
+        <v>2257</v>
+      </c>
     </row>
-    <row r="110" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>815</v>
       </c>
@@ -37238,8 +37634,11 @@
       <c r="GZ110" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC110" s="2" t="s">
+        <v>2267</v>
+      </c>
     </row>
-    <row r="111" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>823</v>
       </c>
@@ -37531,8 +37930,11 @@
       <c r="GZ111" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC111" s="2" t="s">
+        <v>2268</v>
+      </c>
     </row>
-    <row r="112" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>830</v>
       </c>
@@ -37823,8 +38225,11 @@
       <c r="GZ112" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC112" s="2" t="s">
+        <v>2268</v>
+      </c>
     </row>
-    <row r="113" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>832</v>
       </c>
@@ -38108,8 +38513,11 @@
       <c r="HA113" s="2" t="s">
         <v>1462</v>
       </c>
+      <c r="HC113" s="2" t="s">
+        <v>2254</v>
+      </c>
     </row>
-    <row r="114" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>840</v>
       </c>
@@ -38318,8 +38726,11 @@
       <c r="GY114" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="HC114" s="2" t="s">
+        <v>2258</v>
+      </c>
     </row>
-    <row r="115" spans="1:209" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>846</v>
       </c>
@@ -38555,8 +38966,11 @@
       <c r="GX115" s="2" t="s">
         <v>111</v>
       </c>
+      <c r="HC115" s="2" t="s">
+        <v>2259</v>
+      </c>
     </row>
-    <row r="116" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>854</v>
       </c>
@@ -38837,8 +39251,11 @@
       <c r="GY116" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="HC116" s="2" t="s">
+        <v>2257</v>
+      </c>
     </row>
-    <row r="117" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>859</v>
       </c>
@@ -39145,8 +39562,11 @@
       <c r="GZ117" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC117" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="118" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>867</v>
       </c>
@@ -39437,8 +39857,11 @@
       <c r="GZ118" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC118" s="2" t="s">
+        <v>2257</v>
+      </c>
     </row>
-    <row r="119" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>867</v>
       </c>
@@ -39728,8 +40151,11 @@
       <c r="GZ119" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC119" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="120" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>877</v>
       </c>
@@ -39949,8 +40375,11 @@
       <c r="HA120" s="2" t="s">
         <v>1462</v>
       </c>
+      <c r="HC120" s="2" t="s">
+        <v>2258</v>
+      </c>
     </row>
-    <row r="121" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>884</v>
       </c>
@@ -40175,8 +40604,11 @@
       <c r="GZ121" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC121" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="122" spans="1:209" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>889</v>
       </c>
@@ -40390,8 +40822,11 @@
       <c r="GZ122" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC122" s="2" t="s">
+        <v>2259</v>
+      </c>
     </row>
-    <row r="123" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>895</v>
       </c>
@@ -40687,8 +41122,11 @@
       <c r="HA123" s="2" t="s">
         <v>1462</v>
       </c>
+      <c r="HC123" s="2" t="s">
+        <v>2269</v>
+      </c>
     </row>
-    <row r="124" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>901</v>
       </c>
@@ -40914,8 +41352,11 @@
       <c r="GZ124" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC124" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="125" spans="1:209" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>908</v>
       </c>
@@ -41037,8 +41478,11 @@
       <c r="FG125" s="2" t="s">
         <v>2110</v>
       </c>
+      <c r="HC125" s="2" t="s">
+        <v>2259</v>
+      </c>
     </row>
-    <row r="126" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>911</v>
       </c>
@@ -41167,8 +41611,11 @@
       <c r="FG126" s="2" t="s">
         <v>2132</v>
       </c>
+      <c r="HC126" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="127" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>953</v>
       </c>
@@ -41386,8 +41833,11 @@
       <c r="HA127" s="2" t="s">
         <v>1462</v>
       </c>
+      <c r="HC127" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="128" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>922</v>
       </c>
@@ -41691,8 +42141,11 @@
       <c r="GZ128" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC128" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="129" spans="1:209" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>930</v>
       </c>
@@ -41879,8 +42332,11 @@
       <c r="GZ129" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC129" s="2" t="s">
+        <v>2259</v>
+      </c>
     </row>
-    <row r="130" spans="1:209" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>935</v>
       </c>
@@ -42069,8 +42525,11 @@
       <c r="GZ130" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC130" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="131" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>940</v>
       </c>
@@ -42384,8 +42843,11 @@
       <c r="GZ131" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC131" s="2" t="s">
+        <v>2254</v>
+      </c>
     </row>
-    <row r="132" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>948</v>
       </c>
@@ -42706,8 +43168,11 @@
       <c r="HA132" s="2" t="s">
         <v>1462</v>
       </c>
+      <c r="HC132" s="2" t="s">
+        <v>2254</v>
+      </c>
     </row>
-    <row r="133" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>960</v>
       </c>
@@ -42929,8 +43394,11 @@
       <c r="HA133" s="2" t="s">
         <v>1462</v>
       </c>
+      <c r="HC133" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="134" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>966</v>
       </c>
@@ -43133,8 +43601,11 @@
       <c r="FG134" s="2" t="s">
         <v>2134</v>
       </c>
+      <c r="HC134" s="2" t="s">
+        <v>2259</v>
+      </c>
     </row>
-    <row r="135" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>970</v>
       </c>
@@ -43335,8 +43806,11 @@
       <c r="GZ135" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC135" s="2" t="s">
+        <v>2259</v>
+      </c>
     </row>
-    <row r="136" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>973</v>
       </c>
@@ -43524,8 +43998,11 @@
       <c r="HA136" s="2" t="s">
         <v>1462</v>
       </c>
+      <c r="HC136" s="2" t="s">
+        <v>2259</v>
+      </c>
     </row>
-    <row r="137" spans="1:209" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>978</v>
       </c>
@@ -43754,8 +44231,11 @@
       <c r="GZ137" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC137" s="2" t="s">
+        <v>2259</v>
+      </c>
     </row>
-    <row r="138" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>984</v>
       </c>
@@ -43917,8 +44397,11 @@
       <c r="FG138" s="2" t="s">
         <v>2115</v>
       </c>
+      <c r="HC138" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="139" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>989</v>
       </c>
@@ -44116,8 +44599,11 @@
       <c r="HA139" s="2" t="s">
         <v>1462</v>
       </c>
+      <c r="HC139" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="140" spans="1:209" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>994</v>
       </c>
@@ -44322,8 +44808,11 @@
       <c r="GZ140" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC140" s="2" t="s">
+        <v>2259</v>
+      </c>
     </row>
-    <row r="141" spans="1:209" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>998</v>
       </c>
@@ -44537,8 +45026,11 @@
       <c r="GZ141" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC141" s="2" t="s">
+        <v>2259</v>
+      </c>
     </row>
-    <row r="142" spans="1:209" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>1003</v>
       </c>
@@ -44704,8 +45196,11 @@
       <c r="HA142" s="2" t="s">
         <v>1462</v>
       </c>
+      <c r="HC142" s="2" t="s">
+        <v>2259</v>
+      </c>
     </row>
-    <row r="143" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>1007</v>
       </c>
@@ -44928,8 +45423,11 @@
       <c r="GZ143" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC143" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="144" spans="1:209" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>1012</v>
       </c>
@@ -45116,8 +45614,11 @@
       <c r="GZ144" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC144" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="145" spans="1:208" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:211" x14ac:dyDescent="0.2">
       <c r="B145" s="2" t="s">
         <v>474</v>
       </c>
@@ -45413,8 +45914,11 @@
       <c r="GZ145" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC145" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="146" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>1020</v>
       </c>
@@ -45730,8 +46234,11 @@
       <c r="GZ146" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC146" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="147" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>1349</v>
       </c>
@@ -46035,8 +46542,11 @@
       <c r="GZ147" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC147" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="148" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>1026</v>
       </c>
@@ -46324,8 +46834,11 @@
       <c r="GZ148" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC148" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="149" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>1030</v>
       </c>
@@ -46497,8 +47010,11 @@
       <c r="GZ149" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC149" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="150" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>1034</v>
       </c>
@@ -46809,8 +47325,11 @@
       <c r="GZ150" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC150" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="151" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>1039</v>
       </c>
@@ -47116,8 +47635,11 @@
       <c r="GZ151" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC151" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="152" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>1046</v>
       </c>
@@ -47425,8 +47947,11 @@
       <c r="GZ152" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC152" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="153" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>1051</v>
       </c>
@@ -47723,8 +48248,11 @@
       <c r="GZ153" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC153" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="154" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>1057</v>
       </c>
@@ -48010,8 +48538,11 @@
       <c r="GZ154" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC154" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="155" spans="1:208" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>1062</v>
       </c>
@@ -48225,8 +48756,11 @@
       <c r="GZ155" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC155" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="156" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>1066</v>
       </c>
@@ -48526,8 +49060,11 @@
       <c r="GZ156" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC156" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="157" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>1071</v>
       </c>
@@ -48741,8 +49278,11 @@
       <c r="GZ157" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC157" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="158" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>1075</v>
       </c>
@@ -49027,8 +49567,11 @@
       <c r="GZ158" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC158" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="159" spans="1:208" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>1080</v>
       </c>
@@ -49225,8 +49768,11 @@
       <c r="GZ159" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC159" s="2" t="s">
+        <v>2259</v>
+      </c>
     </row>
-    <row r="160" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>1084</v>
       </c>
@@ -49530,8 +50076,11 @@
       <c r="GZ160" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC160" s="2" t="s">
+        <v>2262</v>
+      </c>
     </row>
-    <row r="161" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>1089</v>
       </c>
@@ -49715,8 +50264,11 @@
       <c r="GZ161" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC161" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="162" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>1093</v>
       </c>
@@ -50006,8 +50558,11 @@
       <c r="GZ162" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC162" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="163" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>1100</v>
       </c>
@@ -50198,8 +50753,11 @@
       <c r="GZ163" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC163" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="164" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>1105</v>
       </c>
@@ -50483,8 +51041,11 @@
       <c r="HA164" s="2" t="s">
         <v>1462</v>
       </c>
+      <c r="HC164" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="165" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>1110</v>
       </c>
@@ -50743,8 +51304,11 @@
       <c r="HA165" s="2" t="s">
         <v>1462</v>
       </c>
+      <c r="HC165" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="166" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>1115</v>
       </c>
@@ -50939,8 +51503,11 @@
       <c r="GZ166" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC166" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="167" spans="1:209" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>1119</v>
       </c>
@@ -51138,8 +51705,11 @@
       <c r="GZ167" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC167" s="2" t="s">
+        <v>2261</v>
+      </c>
     </row>
-    <row r="168" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>1123</v>
       </c>
@@ -51418,8 +51988,11 @@
       <c r="HA168" s="2" t="s">
         <v>1462</v>
       </c>
+      <c r="HC168" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="169" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>1127</v>
       </c>
@@ -51707,8 +52280,11 @@
       <c r="HA169" s="2" t="s">
         <v>1462</v>
       </c>
+      <c r="HC169" s="2" t="s">
+        <v>2254</v>
+      </c>
     </row>
-    <row r="170" spans="1:209" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>1134</v>
       </c>
@@ -51995,8 +52571,11 @@
       <c r="HA170" s="2" t="s">
         <v>1462</v>
       </c>
+      <c r="HC170" s="2" t="s">
+        <v>2254</v>
+      </c>
     </row>
-    <row r="171" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>1139</v>
       </c>
@@ -52186,8 +52765,11 @@
       <c r="GZ171" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC171" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="172" spans="1:209" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>1143</v>
       </c>
@@ -52357,8 +52939,11 @@
       <c r="GZ172" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC172" s="2" t="s">
+        <v>2258</v>
+      </c>
     </row>
-    <row r="173" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>1147</v>
       </c>
@@ -52538,8 +53123,11 @@
       <c r="HA173" s="2" t="s">
         <v>1462</v>
       </c>
+      <c r="HC173" s="2" t="s">
+        <v>2261</v>
+      </c>
     </row>
-    <row r="174" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>1153</v>
       </c>
@@ -52726,8 +53314,11 @@
       <c r="HA174" s="2" t="s">
         <v>1462</v>
       </c>
+      <c r="HC174" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="175" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>1158</v>
       </c>
@@ -52977,8 +53568,11 @@
       <c r="FG175" s="2" t="s">
         <v>2143</v>
       </c>
+      <c r="HC175" s="2" t="s">
+        <v>2270</v>
+      </c>
     </row>
-    <row r="176" spans="1:209" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>1165</v>
       </c>
@@ -53228,8 +53822,11 @@
       <c r="FG176" s="2" t="s">
         <v>2128</v>
       </c>
+      <c r="HC176" s="2" t="s">
+        <v>2267</v>
+      </c>
     </row>
-    <row r="177" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>1169</v>
       </c>
@@ -53388,8 +53985,11 @@
       <c r="FG177" s="2" t="s">
         <v>2128</v>
       </c>
+      <c r="HC177" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="178" spans="1:209" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>1174</v>
       </c>
@@ -53585,8 +54185,11 @@
       <c r="GZ178" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC178" s="2" t="s">
+        <v>2259</v>
+      </c>
     </row>
-    <row r="179" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>1179</v>
       </c>
@@ -53797,8 +54400,11 @@
       <c r="GZ179" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC179" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="180" spans="1:209" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>1185</v>
       </c>
@@ -53986,8 +54592,11 @@
       <c r="GZ180" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC180" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="181" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>1191</v>
       </c>
@@ -54175,8 +54784,11 @@
       <c r="GZ181" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC181" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="182" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>1195</v>
       </c>
@@ -54363,8 +54975,11 @@
       <c r="HA182" s="2" t="s">
         <v>1462</v>
       </c>
+      <c r="HC182" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="183" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>1198</v>
       </c>
@@ -54549,8 +55164,11 @@
       <c r="GZ183" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC183" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="184" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>1203</v>
       </c>
@@ -54761,8 +55379,11 @@
       <c r="GY184" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="HC184" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="185" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>1207</v>
       </c>
@@ -54942,8 +55563,11 @@
       <c r="GZ185" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC185" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="186" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>1211</v>
       </c>
@@ -55112,8 +55736,11 @@
       <c r="HA186" s="2" t="s">
         <v>1462</v>
       </c>
+      <c r="HC186" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="187" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>1215</v>
       </c>
@@ -55316,8 +55943,11 @@
       <c r="GY187" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="HC187" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="188" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>1219</v>
       </c>
@@ -55526,8 +56156,11 @@
       <c r="GY188" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="HC188" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="189" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>1224</v>
       </c>
@@ -55820,8 +56453,11 @@
       <c r="GZ189" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC189" s="2" t="s">
+        <v>2254</v>
+      </c>
     </row>
-    <row r="190" spans="1:209" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>1229</v>
       </c>
@@ -56037,8 +56673,11 @@
       <c r="GZ190" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC190" s="2" t="s">
+        <v>2259</v>
+      </c>
     </row>
-    <row r="191" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>1232</v>
       </c>
@@ -56198,8 +56837,11 @@
       <c r="FG191" s="2" t="s">
         <v>2144</v>
       </c>
+      <c r="HC191" s="2" t="s">
+        <v>2259</v>
+      </c>
     </row>
-    <row r="192" spans="1:209" ht="17" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>1237</v>
       </c>
@@ -56491,8 +57133,11 @@
       <c r="GY192" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="HC192" s="2" t="s">
+        <v>2267</v>
+      </c>
     </row>
-    <row r="193" spans="1:210" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>1242</v>
       </c>
@@ -56699,8 +57344,11 @@
       <c r="GZ193" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC193" s="2" t="s">
+        <v>2258</v>
+      </c>
     </row>
-    <row r="194" spans="1:210" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>1246</v>
       </c>
@@ -56951,8 +57599,11 @@
       <c r="FG194" s="2" t="s">
         <v>2143</v>
       </c>
+      <c r="HC194" s="2" t="s">
+        <v>2254</v>
+      </c>
     </row>
-    <row r="195" spans="1:210" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>1250</v>
       </c>
@@ -57135,8 +57786,11 @@
       <c r="HA195" s="2" t="s">
         <v>1462</v>
       </c>
+      <c r="HC195" s="2" t="s">
+        <v>2258</v>
+      </c>
     </row>
-    <row r="196" spans="1:210" ht="17" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>1255</v>
       </c>
@@ -57323,8 +57977,11 @@
       <c r="HA196" s="2" t="s">
         <v>1462</v>
       </c>
+      <c r="HC196" s="2" t="s">
+        <v>2259</v>
+      </c>
     </row>
-    <row r="197" spans="1:210" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>1278</v>
       </c>
@@ -57607,8 +58264,11 @@
       <c r="HA197" s="2" t="s">
         <v>1462</v>
       </c>
+      <c r="HC197" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="198" spans="1:210" ht="17" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>1267</v>
       </c>
@@ -57917,8 +58577,11 @@
       <c r="GZ198" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC198" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="199" spans="1:210" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>1273</v>
       </c>
@@ -58106,8 +58769,11 @@
       <c r="HA199" s="2" t="s">
         <v>1462</v>
       </c>
+      <c r="HC199" s="2" t="s">
+        <v>2259</v>
+      </c>
     </row>
-    <row r="200" spans="1:210" ht="17" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>1283</v>
       </c>
@@ -58274,8 +58940,11 @@
       <c r="FG200" s="2" t="s">
         <v>2126</v>
       </c>
+      <c r="HC200" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="201" spans="1:210" ht="17" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>915</v>
       </c>
@@ -58552,8 +59221,11 @@
       <c r="GZ201" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC201" s="2" t="s">
+        <v>2252</v>
+      </c>
     </row>
-    <row r="202" spans="1:210" ht="17" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>1288</v>
       </c>
@@ -58770,8 +59442,11 @@
       <c r="GY202" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="HC202" s="2" t="s">
+        <v>2259</v>
+      </c>
     </row>
-    <row r="203" spans="1:210" ht="17" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>1315</v>
       </c>
@@ -58984,8 +59659,11 @@
       <c r="GZ203" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC203" s="2" t="s">
+        <v>2259</v>
+      </c>
     </row>
-    <row r="204" spans="1:210" ht="17" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>1260</v>
       </c>
@@ -59275,8 +59953,11 @@
       <c r="HA204" s="2" t="s">
         <v>1462</v>
       </c>
+      <c r="HC204" s="2" t="s">
+        <v>2254</v>
+      </c>
     </row>
-    <row r="205" spans="1:210" ht="17" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>1319</v>
       </c>
@@ -59546,8 +60227,11 @@
       <c r="HB205" s="2" t="s">
         <v>323</v>
       </c>
+      <c r="HC205" s="2" t="s">
+        <v>2254</v>
+      </c>
     </row>
-    <row r="206" spans="1:210" ht="17" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>1328</v>
       </c>
@@ -59845,8 +60529,11 @@
       <c r="GY206" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="HC206" s="2" t="s">
+        <v>2271</v>
+      </c>
     </row>
-    <row r="207" spans="1:210" ht="17" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>1334</v>
       </c>
@@ -60122,8 +60809,11 @@
       <c r="GZ207" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC207" s="2" t="s">
+        <v>2267</v>
+      </c>
     </row>
-    <row r="208" spans="1:210" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:211" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>1340</v>
       </c>
@@ -60404,8 +61094,11 @@
       <c r="GZ208" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC208" s="2" t="s">
+        <v>2272</v>
+      </c>
     </row>
-    <row r="209" spans="1:208" ht="17" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:211" ht="17" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>1347</v>
       </c>
@@ -60690,6 +61383,9 @@
       <c r="GZ209" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="HC209" s="2" t="s">
+        <v>2273</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:HC209" xr:uid="{41110769-F909-4249-923C-C513B87E37AD}"/>
